--- a/report.xlsx
+++ b/report.xlsx
@@ -15,18 +15,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>saeccffrgeaa Gary Tsai 2016-08-26 16:50:26.807392</t>
+  </si>
+  <si>
+    <t>saeccffrgea  2016-08-26 16:52:18.777307</t>
+  </si>
+  <si>
+    <t>05 17:50&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
+  </si>
+  <si>
+    <t>05 18:01&gt;&gt;&gt; 0FD8AC7AC0 Alfonse D'Elia</t>
+  </si>
+  <si>
+    <t>06 09:36&gt;&gt;&gt; 0FD89CD000 David Schachner</t>
+  </si>
+  <si>
+    <t>09 10:26&gt;&gt;&gt; 0FD8AF13C0 Rondell Holland</t>
+  </si>
+  <si>
+    <t>10 08:59&gt;&gt;&gt; CFD88517C0 Joseph Giordano</t>
+  </si>
+  <si>
+    <t>10 10:10&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 10:36&gt;&gt;&gt; 0FD89CD000 David Schachner</t>
+  </si>
+  <si>
+    <t>10 11:31&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 12:43&gt;&gt;&gt; 8FD8A841E0 Sujay Bhaskar KashYap</t>
+  </si>
+  <si>
+    <t>10 13:06&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 13:08&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:10&gt;&gt;&gt; 0FD8ABF6C0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:11&gt;&gt;&gt; 0FD8ABF6C0 </t>
+  </si>
+  <si>
+    <t>10 13:19&gt;&gt;&gt; 0FD8AD9C60 everton mendozaholmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:25&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 13:29&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:30&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 13:36&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 13:37&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 13:38&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:38&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 13:40&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:40&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 13:47&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:47&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:51&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 13:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 13:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:56&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 13:56&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:57&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 13:59&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 14:02&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 14:03&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 14:08&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 14:08&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 14:09&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 14:11&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 14:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 14:19&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t>10 14:20&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t>10 14:21&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t>10 14:22&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t>10 14:23&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t>10 14:24&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 14:25&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t>10 14:28&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t>10 14:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>10 14:30&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 14:30&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>10 14:31&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t>10 14:34&gt;&gt;&gt; 0FD8ABF6C0   None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 14:36&gt;&gt;&gt; 0FD8ABF6C0    </t>
+  </si>
+  <si>
+    <t>10 14:36&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 14:38&gt;&gt;&gt; 0FD8ABF6C0    </t>
+  </si>
+  <si>
+    <t>10 14:39&gt;&gt;&gt; 0FD8ABF6C0   Evony Morel</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
   <si>
     <t>August 2016</t>
-  </si>
-  <si>
-    <t>saeccffrgeaa Gary Tsai 2016-08-26 16:50:26.807392</t>
-  </si>
-  <si>
-    <t>saeccffrgea  2016-08-26 16:52:18.777307</t>
-  </si>
-  <si>
-    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -89,20 +260,20 @@
     </border>
   </borders>
   <cellStyleXfs count="19">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -114,25 +285,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="0"/>
-    <cellStyle name="Normal 16" xfId="1"/>
-    <cellStyle name="Normal 11" xfId="2"/>
-    <cellStyle name="Normal 12" xfId="3"/>
-    <cellStyle name="Normal 17" xfId="4"/>
+    <cellStyle name="Normal 12" xfId="0"/>
+    <cellStyle name="Normal 11" xfId="1"/>
+    <cellStyle name="Normal 7" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="4"/>
     <cellStyle builtinId="0" name="Normal" xfId="5"/>
-    <cellStyle name="Normal 7" xfId="6"/>
-    <cellStyle name="Normal 8" xfId="7"/>
-    <cellStyle name="Normal 13" xfId="8"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="10"/>
-    <cellStyle name="Normal 14" xfId="11"/>
-    <cellStyle name="Normal 6" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="13"/>
-    <cellStyle name="Normal 3" xfId="14"/>
-    <cellStyle name="Normal 9" xfId="15"/>
-    <cellStyle name="Normal 2" xfId="16"/>
-    <cellStyle name="Normal 15" xfId="17"/>
-    <cellStyle name="Normal 10" xfId="18"/>
+    <cellStyle name="Normal 9" xfId="6"/>
+    <cellStyle name="Normal 10" xfId="7"/>
+    <cellStyle name="Normal 6" xfId="8"/>
+    <cellStyle name="Normal 3" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle name="Normal 8" xfId="12"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="13"/>
+    <cellStyle name="Normal 16" xfId="14"/>
+    <cellStyle name="Normal 15" xfId="15"/>
+    <cellStyle name="Normal 17" xfId="16"/>
+    <cellStyle name="Normal 13" xfId="17"/>
+    <cellStyle name="Normal 14" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -465,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -490,6 +661,336 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -517,12 +1018,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>January 2017</t>
   </si>
@@ -192,6 +192,39 @@
   </si>
   <si>
     <t>10 14:39&gt;&gt;&gt; 0FD8ABF6C0   Evony Morel</t>
+  </si>
+  <si>
+    <t>10 15:44&gt;&gt;&gt; CFD8A51DE0   Rodolfo Olivares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 16:25&gt;&gt;&gt; CFD8A948E0    </t>
+  </si>
+  <si>
+    <t>10 16:26&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>10 18:10&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>12 09:45&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>12 09:54&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>12 10:01&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>12 10:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>12 10:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>12 12:12&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>12 12:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>Month</t>
@@ -273,10 +306,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
@@ -285,25 +318,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 12" xfId="0"/>
-    <cellStyle name="Normal 11" xfId="1"/>
-    <cellStyle name="Normal 7" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle builtinId="0" name="Normal" xfId="5"/>
-    <cellStyle name="Normal 9" xfId="6"/>
-    <cellStyle name="Normal 10" xfId="7"/>
-    <cellStyle name="Normal 6" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
-    <cellStyle name="Normal 8" xfId="12"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="13"/>
-    <cellStyle name="Normal 16" xfId="14"/>
-    <cellStyle name="Normal 15" xfId="15"/>
-    <cellStyle name="Normal 17" xfId="16"/>
-    <cellStyle name="Normal 13" xfId="17"/>
-    <cellStyle name="Normal 14" xfId="18"/>
+    <cellStyle name="Normal 14" xfId="0"/>
+    <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 15" xfId="5"/>
+    <cellStyle name="Normal 8" xfId="6"/>
+    <cellStyle name="Normal 13" xfId="7"/>
+    <cellStyle name="Normal 17" xfId="8"/>
+    <cellStyle name="Normal 16" xfId="9"/>
+    <cellStyle name="Normal 7" xfId="10"/>
+    <cellStyle name="Normal 4" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle name="Normal 12" xfId="13"/>
+    <cellStyle name="Normal 10" xfId="14"/>
+    <cellStyle name="Normal 11" xfId="15"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="16"/>
+    <cellStyle name="Normal 9" xfId="17"/>
+    <cellStyle name="Normal 3" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -636,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -991,6 +1024,91 @@
     <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1018,12 +1136,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>January 2017</t>
   </si>
@@ -225,6 +225,66 @@
   </si>
   <si>
     <t>12 12:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>12 12:53&gt;&gt;&gt; 8FD8A841E0   Sujay Bhaskar KashYap</t>
+  </si>
+  <si>
+    <t>12 14:05&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>12 14:45&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>13 09:35&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>13 11:46&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
+  </si>
+  <si>
+    <t>17 09:40&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>17 10:48&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>17 11:43&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>17 11:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>17 12:11&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>17 12:40&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
+    <t>17 13:00&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>17 13:01&gt;&gt;&gt; 4FD8AB1960   Alondra Rangel</t>
+  </si>
+  <si>
+    <t>17 13:02&gt;&gt;&gt; 4FD8AB6640   Victoria Soobryan</t>
+  </si>
+  <si>
+    <t>17 13:02&gt;&gt;&gt; CFD8ADC440   Jorge Delgado</t>
+  </si>
+  <si>
+    <t>17 14:29&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>17 15:05&gt;&gt;&gt; CFD8A51DE0   Rodolfo Olivares</t>
+  </si>
+  <si>
+    <t>17 15:54&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>17 16:14&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
+  </si>
+  <si>
+    <t>19 10:42&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>Month</t>
@@ -308,8 +368,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
@@ -318,25 +378,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 14" xfId="0"/>
-    <cellStyle name="Normal 6" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
-    <cellStyle name="Normal 5" xfId="3"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 15" xfId="5"/>
-    <cellStyle name="Normal 8" xfId="6"/>
-    <cellStyle name="Normal 13" xfId="7"/>
-    <cellStyle name="Normal 17" xfId="8"/>
-    <cellStyle name="Normal 16" xfId="9"/>
+    <cellStyle name="Normal 6" xfId="0"/>
+    <cellStyle name="Normal 14" xfId="1"/>
+    <cellStyle name="Normal 13" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle name="Normal 9" xfId="7"/>
+    <cellStyle name="Normal 11" xfId="8"/>
+    <cellStyle name="Normal 5" xfId="9"/>
     <cellStyle name="Normal 7" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle name="Normal 12" xfId="13"/>
-    <cellStyle name="Normal 10" xfId="14"/>
-    <cellStyle name="Normal 11" xfId="15"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="16"/>
-    <cellStyle name="Normal 9" xfId="17"/>
-    <cellStyle name="Normal 3" xfId="18"/>
+    <cellStyle name="Normal 8" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 16" xfId="13"/>
+    <cellStyle name="Normal 17" xfId="14"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="15"/>
+    <cellStyle name="Normal 12" xfId="16"/>
+    <cellStyle builtinId="0" name="Normal" xfId="17"/>
+    <cellStyle name="Normal 15" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -669,7 +729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1109,6 +1169,136 @@
     <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1136,12 +1326,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>January 2017</t>
   </si>
@@ -285,6 +285,123 @@
   </si>
   <si>
     <t>19 10:42&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 10:56&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 16:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 16:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 16:43&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 16:47&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 16:50&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 16:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:02&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:17&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:26&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:35&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:44&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 17:44&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 17:46&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 17:46&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:00&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:09&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:10&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:22&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:22&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:25&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:27&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:35&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:37&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:38&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:38&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:41&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:44&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>19 18:53&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:54&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:57&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:58&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 18:59&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 19:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>Month</t>
@@ -358,17 +475,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -378,25 +495,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 6" xfId="0"/>
-    <cellStyle name="Normal 14" xfId="1"/>
-    <cellStyle name="Normal 13" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 10" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
-    <cellStyle name="Normal 9" xfId="7"/>
-    <cellStyle name="Normal 11" xfId="8"/>
-    <cellStyle name="Normal 5" xfId="9"/>
-    <cellStyle name="Normal 7" xfId="10"/>
-    <cellStyle name="Normal 8" xfId="11"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 9" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="2"/>
+    <cellStyle name="Normal 15" xfId="3"/>
+    <cellStyle name="Normal 7" xfId="4"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
+    <cellStyle name="Normal 11" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 14" xfId="8"/>
+    <cellStyle name="Normal 10" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle name="Normal 16" xfId="11"/>
     <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 16" xfId="13"/>
-    <cellStyle name="Normal 17" xfId="14"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="15"/>
-    <cellStyle name="Normal 12" xfId="16"/>
-    <cellStyle builtinId="0" name="Normal" xfId="17"/>
-    <cellStyle name="Normal 15" xfId="18"/>
+    <cellStyle name="Normal 12" xfId="13"/>
+    <cellStyle name="Normal 13" xfId="14"/>
+    <cellStyle name="Normal 6" xfId="15"/>
+    <cellStyle name="Normal 8" xfId="16"/>
+    <cellStyle name="Normal 4" xfId="17"/>
+    <cellStyle name="Normal 17" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -729,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1299,6 +1416,241 @@
     <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1326,12 +1678,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>January 2017</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>19 19:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>19 19:02&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>Month</t>
@@ -475,7 +478,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -483,6 +485,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -495,25 +498,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 9" xfId="1"/>
-    <cellStyle name="Normal 5" xfId="2"/>
-    <cellStyle name="Normal 15" xfId="3"/>
-    <cellStyle name="Normal 7" xfId="4"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
-    <cellStyle name="Normal 11" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Normal 14" xfId="8"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
-    <cellStyle name="Normal 16" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 12" xfId="13"/>
-    <cellStyle name="Normal 13" xfId="14"/>
-    <cellStyle name="Normal 6" xfId="15"/>
-    <cellStyle name="Normal 8" xfId="16"/>
-    <cellStyle name="Normal 4" xfId="17"/>
-    <cellStyle name="Normal 17" xfId="18"/>
+    <cellStyle name="Normal 5" xfId="0"/>
+    <cellStyle name="Normal 11" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 9" xfId="3"/>
+    <cellStyle name="Normal 14" xfId="4"/>
+    <cellStyle name="Normal 7" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle name="Normal 15" xfId="7"/>
+    <cellStyle name="Normal 13" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 6" xfId="10"/>
+    <cellStyle name="Normal 10" xfId="11"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="12"/>
+    <cellStyle builtinId="0" name="Normal" xfId="13"/>
+    <cellStyle name="Normal 8" xfId="14"/>
+    <cellStyle name="Normal 16" xfId="15"/>
+    <cellStyle name="Normal 12" xfId="16"/>
+    <cellStyle name="Normal 17" xfId="17"/>
+    <cellStyle name="Normal 3" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -846,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A159"/>
+  <dimension ref="A1:A160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1651,6 +1654,11 @@
     <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1678,12 +1686,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>January 2017</t>
   </si>
@@ -405,6 +405,51 @@
   </si>
   <si>
     <t>19 19:02&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>20 10:30&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>20 14:58&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>23 08:55&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
+    <t>23 09:10&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>23 11:03&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
+    <t>24 12:58&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>24 14:26&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>24 14:28&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
+    <t>24 14:37&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
+    <t>24 14:39&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
+    <t>24 14:39&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>24 14:48&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>24 14:56&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>24 14:57&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>24 15:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>Month</t>
@@ -474,6 +519,7 @@
   </borders>
   <cellStyleXfs count="19">
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -485,7 +531,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -498,25 +543,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 5" xfId="0"/>
-    <cellStyle name="Normal 11" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="2"/>
-    <cellStyle name="Normal 9" xfId="3"/>
-    <cellStyle name="Normal 14" xfId="4"/>
-    <cellStyle name="Normal 7" xfId="5"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
-    <cellStyle name="Normal 15" xfId="7"/>
-    <cellStyle name="Normal 13" xfId="8"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 6" xfId="10"/>
-    <cellStyle name="Normal 10" xfId="11"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="12"/>
-    <cellStyle builtinId="0" name="Normal" xfId="13"/>
-    <cellStyle name="Normal 8" xfId="14"/>
-    <cellStyle name="Normal 16" xfId="15"/>
-    <cellStyle name="Normal 12" xfId="16"/>
-    <cellStyle name="Normal 17" xfId="17"/>
-    <cellStyle name="Normal 3" xfId="18"/>
+    <cellStyle name="Normal 12" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="3"/>
+    <cellStyle name="Normal 6" xfId="4"/>
+    <cellStyle name="Normal 11" xfId="5"/>
+    <cellStyle name="Normal 17" xfId="6"/>
+    <cellStyle name="Normal 8" xfId="7"/>
+    <cellStyle name="Normal 10" xfId="8"/>
+    <cellStyle name="Normal 14" xfId="9"/>
+    <cellStyle builtinId="0" name="Normal" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle name="Normal 4" xfId="12"/>
+    <cellStyle name="Normal 13" xfId="13"/>
+    <cellStyle name="Normal 15" xfId="14"/>
+    <cellStyle name="Normal 3" xfId="15"/>
+    <cellStyle name="Normal 7" xfId="16"/>
+    <cellStyle name="Normal 16" xfId="17"/>
+    <cellStyle name="Normal 9" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -849,7 +894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A160"/>
+  <dimension ref="A1:A176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1659,6 +1704,86 @@
     <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1686,12 +1811,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly_STAT" sheetId="2" state="visible" r:id="rId2"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>January 2017</t>
   </si>
@@ -450,6 +450,21 @@
   </si>
   <si>
     <t>24 15:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>26 14:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>26 14:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>26 14:53&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>26 15:14&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>26 15:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>Month</t>
@@ -518,29 +533,29 @@
     </border>
   </borders>
   <cellStyleXfs count="19">
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal 12" xfId="0"/>
@@ -563,7 +578,6 @@
     <cellStyle name="Normal 16" xfId="17"/>
     <cellStyle name="Normal 9" xfId="18"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -894,13 +908,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A176"/>
+  <dimension ref="A1:A183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="50"/>
     <col customWidth="1" max="3" min="3" width="30"/>
@@ -1784,6 +1798,41 @@
     <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1804,19 +1853,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="25"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>January 2017</t>
   </si>
@@ -450,6 +450,189 @@
   </si>
   <si>
     <t>24 15:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>24 19:11&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>24 19:11&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>30 16:43&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>30 16:43&gt;&gt;&gt; CFD8AF34C0   Megan Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 16:47&gt;&gt;&gt; 0FD8B42CC0   </t>
+  </si>
+  <si>
+    <t>30 16:52&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 17:17&gt;&gt;&gt; 8FD89F60C0    </t>
+  </si>
+  <si>
+    <t>30 17:32&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>30 17:39&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
+    <t>30 17:39&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
+    <t>30 17:39&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 17:39&gt;&gt;&gt; CFD8AFA4C0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 17:40&gt;&gt;&gt; 8FD8A3A820   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 17:40&gt;&gt;&gt; CFD8AFA4C0    </t>
+  </si>
+  <si>
+    <t>30 17:40&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
+  </si>
+  <si>
+    <t>30 17:40&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 17:41&gt;&gt;&gt; 8FD8A3A820    </t>
+  </si>
+  <si>
+    <t>30 17:41&gt;&gt;&gt; 8FD8A3A820   cowell,truman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 17:41&gt;&gt;&gt; 0FD8B42CC0    </t>
+  </si>
+  <si>
+    <t>30 17:41&gt;&gt;&gt; 0FD8B42CC0   amin shahid</t>
+  </si>
+  <si>
+    <t>30 17:52&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>30 17:53&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>30 17:53&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 17:57&gt;&gt;&gt; 8FD8B367A0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 18:01&gt;&gt;&gt; 4FD8B36A40   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 18:01&gt;&gt;&gt; 4FD8B36A40    </t>
+  </si>
+  <si>
+    <t>30 18:31&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>30 19:20&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
+    <t>30 19:21&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 19:54&gt;&gt;&gt; 0FD8B45C20   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 08:27&gt;&gt;&gt; 8FD8B68DE0   </t>
+  </si>
+  <si>
+    <t>31 08:27&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 08:27&gt;&gt;&gt; 8FD8B68DE0    </t>
+  </si>
+  <si>
+    <t>31 08:28&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
+  </si>
+  <si>
+    <t>31 08:52&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
+    <t>31 09:01&gt;&gt;&gt; 0FD8A61420   Duban hershely</t>
+  </si>
+  <si>
+    <t>31 09:01&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
+    <t>31 09:20&gt;&gt;&gt; 0FD8AFCD00   Joshua Itteera</t>
+  </si>
+  <si>
+    <t>31 09:21&gt;&gt;&gt; 0FD8AFCD00   Joshua Itteera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 09:26&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
+    <t>31 09:54&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>31 10:00&gt;&gt;&gt; CFD8ADF120   Patrick Mclaughlin</t>
+  </si>
+  <si>
+    <t>31 10:20&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
+  </si>
+  <si>
+    <t>31 10:34&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
+    <t>31 10:41&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
+    <t>31 10:51&gt;&gt;&gt; 8FD8A60A60   ferguson elaina</t>
+  </si>
+  <si>
+    <t>31 10:53&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>31 11:45&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
+    <t>31 12:02&gt;&gt;&gt; 4FD8B5DC60   Nadine Espinosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 13:15&gt;&gt;&gt; 8FD8B65040   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 13:27&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 13:37&gt;&gt;&gt; CFD8AEC840   </t>
+  </si>
+  <si>
+    <t>31 13:38&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
+    <t>31 13:43&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
+  </si>
+  <si>
+    <t>31 13:45&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 13:48&gt;&gt;&gt; 8FD8ADBD20   </t>
+  </si>
+  <si>
+    <t>31 13:56&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
+    <t>31 14:07&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>31 14:08&gt;&gt;&gt; 8FD8A91340   Jesse Silkworth</t>
+  </si>
+  <si>
+    <t>31 14:18&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
+    <t>31 14:20&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
   </si>
   <si>
     <t>Month</t>
@@ -543,25 +726,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 12" xfId="0"/>
+    <cellStyle name="Normal 8" xfId="0"/>
     <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 5" xfId="3"/>
-    <cellStyle name="Normal 6" xfId="4"/>
-    <cellStyle name="Normal 11" xfId="5"/>
-    <cellStyle name="Normal 17" xfId="6"/>
-    <cellStyle name="Normal 8" xfId="7"/>
-    <cellStyle name="Normal 10" xfId="8"/>
+    <cellStyle name="Normal 16" xfId="2"/>
+    <cellStyle name="Normal 9" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 13" xfId="7"/>
+    <cellStyle name="Normal 11" xfId="8"/>
     <cellStyle name="Normal 14" xfId="9"/>
     <cellStyle builtinId="0" name="Normal" xfId="10"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 13" xfId="13"/>
-    <cellStyle name="Normal 15" xfId="14"/>
-    <cellStyle name="Normal 3" xfId="15"/>
-    <cellStyle name="Normal 7" xfId="16"/>
-    <cellStyle name="Normal 16" xfId="17"/>
-    <cellStyle name="Normal 9" xfId="18"/>
+    <cellStyle name="Normal 3" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 7" xfId="13"/>
+    <cellStyle name="Normal 17" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle name="Normal 6" xfId="16"/>
+    <cellStyle name="Normal 12" xfId="17"/>
+    <cellStyle name="Normal 15" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -894,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A176"/>
+  <dimension ref="A1:A241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1784,6 +1967,331 @@
     <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1811,12 +2319,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>January 2017</t>
   </si>
@@ -633,6 +633,24 @@
   </si>
   <si>
     <t>31 14:20&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
+    <t>31 14:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>31 14:30&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
+    <t>31 14:31&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>31 14:44&gt;&gt;&gt; CFD8A1B540   Davron Zakhidov</t>
+  </si>
+  <si>
+    <t>31 14:46&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>31 14:50&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
     <t>Month</t>
@@ -702,7 +720,6 @@
   </borders>
   <cellStyleXfs count="19">
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -716,6 +733,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -726,25 +744,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 8" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle name="Normal 16" xfId="2"/>
-    <cellStyle name="Normal 9" xfId="3"/>
-    <cellStyle name="Normal 10" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 10" xfId="0"/>
+    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 17" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 8" xfId="6"/>
     <cellStyle name="Normal 13" xfId="7"/>
-    <cellStyle name="Normal 11" xfId="8"/>
-    <cellStyle name="Normal 14" xfId="9"/>
-    <cellStyle builtinId="0" name="Normal" xfId="10"/>
-    <cellStyle name="Normal 3" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 7" xfId="13"/>
-    <cellStyle name="Normal 17" xfId="14"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
-    <cellStyle name="Normal 6" xfId="16"/>
-    <cellStyle name="Normal 12" xfId="17"/>
-    <cellStyle name="Normal 15" xfId="18"/>
+    <cellStyle name="Normal 14" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 9" xfId="10"/>
+    <cellStyle name="Normal 11" xfId="11"/>
+    <cellStyle name="Normal 15" xfId="12"/>
+    <cellStyle name="Normal 12" xfId="13"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="14"/>
+    <cellStyle name="Normal 7" xfId="15"/>
+    <cellStyle name="Normal 4" xfId="16"/>
+    <cellStyle name="Normal 6" xfId="17"/>
+    <cellStyle name="Normal 16" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1077,7 +1095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A241"/>
+  <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2292,6 +2310,41 @@
     <row r="241" spans="1:1">
       <c r="A241" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2319,12 +2372,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>January 2017</t>
   </si>
@@ -651,6 +651,51 @@
   </si>
   <si>
     <t>31 14:50&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 15:03&gt;&gt;&gt; 8FD8A8D440   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 15:03&gt;&gt;&gt; 8FD8A8D440    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 15:04&gt;&gt;&gt; 8FD8A8D440    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 15:05&gt;&gt;&gt; 0FD8AE9A00   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 15:05&gt;&gt;&gt; 0FD8AE9A00    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 15:06&gt;&gt;&gt; 0FD8AE9A00    </t>
+  </si>
+  <si>
+    <t>31 16:26&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>31 16:29&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
+    <t>31 16:44&gt;&gt;&gt; 0FD8B42CC0   amin shahid</t>
+  </si>
+  <si>
+    <t>31 16:56&gt;&gt;&gt; 8FD8AFD100   rahyner penaranda</t>
+  </si>
+  <si>
+    <t>31 17:28&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>31 17:36&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 17:39&gt;&gt;&gt; 8FD8ADBD20    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 18:56&gt;&gt;&gt; 8FD8ADBD20    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 18:57&gt;&gt;&gt; 8FD8ADBD20    </t>
   </si>
   <si>
     <t>Month</t>
@@ -725,6 +770,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -733,7 +779,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -744,25 +789,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Normal 10" xfId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
-    <cellStyle name="Normal 17" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="3"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 8" xfId="6"/>
-    <cellStyle name="Normal 13" xfId="7"/>
-    <cellStyle name="Normal 14" xfId="8"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 9" xfId="10"/>
-    <cellStyle name="Normal 11" xfId="11"/>
-    <cellStyle name="Normal 15" xfId="12"/>
-    <cellStyle name="Normal 12" xfId="13"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="14"/>
-    <cellStyle name="Normal 7" xfId="15"/>
-    <cellStyle name="Normal 4" xfId="16"/>
-    <cellStyle name="Normal 6" xfId="17"/>
-    <cellStyle name="Normal 16" xfId="18"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 17" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="2"/>
+    <cellStyle name="Normal 12" xfId="3"/>
+    <cellStyle name="Normal 11" xfId="4"/>
+    <cellStyle name="Normal 10" xfId="5"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="6"/>
+    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 13" xfId="8"/>
+    <cellStyle name="Normal 4" xfId="9"/>
+    <cellStyle name="Normal 8" xfId="10"/>
+    <cellStyle name="Normal 3" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 14" xfId="13"/>
+    <cellStyle name="Normal 15" xfId="14"/>
+    <cellStyle name="Normal 16" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle name="Normal 9" xfId="17"/>
+    <cellStyle name="Normal 7" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1095,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A248"/>
+  <dimension ref="A1:A270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2345,6 +2390,116 @@
     <row r="248" spans="1:1">
       <c r="A248" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2372,12 +2527,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,53 +15,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>January 2017</t>
   </si>
   <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>saeccffrgeaa Gary Tsai 2016-08-26 16:50:26.807392</t>
   </si>
   <si>
+    <t>01 08:49&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t>saeccffrgea  2016-08-26 16:52:18.777307</t>
   </si>
   <si>
+    <t>01 09:06&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
+  </si>
+  <si>
     <t>05 17:50&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
+    <t>01 09:08&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
+    <t>01 09:44&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
     <t>05 18:01&gt;&gt;&gt; 0FD8AC7AC0 Alfonse D'Elia</t>
   </si>
   <si>
+    <t>01 09:44&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t>06 09:36&gt;&gt;&gt; 0FD89CD000 David Schachner</t>
   </si>
   <si>
+    <t>01 09:53&gt;&gt;&gt; 8FD8AEB240   luciano.ibbott</t>
+  </si>
+  <si>
     <t>09 10:26&gt;&gt;&gt; 0FD8AF13C0 Rondell Holland</t>
   </si>
   <si>
+    <t>01 10:01&gt;&gt;&gt; 8FD8940860   David Schachner</t>
+  </si>
+  <si>
     <t>10 08:59&gt;&gt;&gt; CFD88517C0 Joseph Giordano</t>
   </si>
   <si>
+    <t>01 10:33&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
+  </si>
+  <si>
     <t>10 10:10&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
+    <t>01 10:39&gt;&gt;&gt; CFD8A9A340   Kathleena Girling</t>
+  </si>
+  <si>
     <t>10 10:36&gt;&gt;&gt; 0FD89CD000 David Schachner</t>
   </si>
   <si>
+    <t>01 15:01&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>10 11:31&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
+    <t>01 15:04&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>10 12:43&gt;&gt;&gt; 8FD8A841E0 Sujay Bhaskar KashYap</t>
   </si>
   <si>
+    <t xml:space="preserve">01 15:09&gt;&gt;&gt; 8FD8B367A0    </t>
+  </si>
+  <si>
     <t>10 13:06&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
+    <t>01 15:25&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>10 13:08&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
+    <t>01 15:58&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:10&gt;&gt;&gt; 0FD8ABF6C0 </t>
   </si>
   <si>
+    <t>01 16:23&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:11&gt;&gt;&gt; 0FD8ABF6C0 </t>
   </si>
   <si>
@@ -71,51 +119,111 @@
     <t xml:space="preserve">10 13:25&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>01 16:33&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t>10 13:29&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t xml:space="preserve">10 13:30&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>01 16:35&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t>10 13:36&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">01 16:35&gt;&gt;&gt; 8FD8A5D640    </t>
+  </si>
+  <si>
+    <t>01 16:37&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>10 13:37&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>01 16:38&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>01 16:38&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
+    <t>01 16:38&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
     <t>10 13:38&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>01 16:39&gt;&gt;&gt; 0FD8AAFF40   Ulice Molina</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:38&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>01 17:09&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
+  </si>
+  <si>
+    <t>01 17:31&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>10 13:40&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>01 17:52&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:40&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t xml:space="preserve">01 17:55&gt;&gt;&gt; 0FD8AE84A0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 18:08&gt;&gt;&gt; 4FD8B41A40   </t>
+  </si>
+  <si>
     <t>10 13:47&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t xml:space="preserve">01 18:42&gt;&gt;&gt; 4FD8B41A40   </t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:47&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
     <t xml:space="preserve">10 13:51&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t xml:space="preserve">01 18:43&gt;&gt;&gt; 4FD8B41A40   </t>
+  </si>
+  <si>
     <t>10 13:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">01 18:50&gt;&gt;&gt; 4FD8B41A40    </t>
+  </si>
+  <si>
     <t>10 13:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">01 18:51&gt;&gt;&gt; 4FD8B41A40    </t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:56&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t xml:space="preserve">01 18:54&gt;&gt;&gt; 4FD8B41A40    </t>
+  </si>
+  <si>
     <t>10 13:56&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">01 19:00&gt;&gt;&gt; 4FD8B41A40    </t>
+  </si>
+  <si>
+    <t>01 19:00&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:57&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -696,6 +804,33 @@
   </si>
   <si>
     <t xml:space="preserve">31 18:57&gt;&gt;&gt; 8FD8ADBD20    </t>
+  </si>
+  <si>
+    <t>31 19:07&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
+  </si>
+  <si>
+    <t>31 19:12&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>31 19:19&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>31 19:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>31 19:23&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 19:23&gt;&gt;&gt; 0FD8A87380   Crystal Evelyn </t>
+  </si>
+  <si>
+    <t>31 19:24&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
+    <t>31 19:26&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>31 19:33&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>Month</t>
@@ -708,42 +843,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt formatCode="General" numFmtId="164"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -763,51 +890,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+  <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 17" xfId="1"/>
-    <cellStyle name="Normal 5" xfId="2"/>
-    <cellStyle name="Normal 12" xfId="3"/>
-    <cellStyle name="Normal 11" xfId="4"/>
-    <cellStyle name="Normal 10" xfId="5"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
-    <cellStyle name="Normal 13" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 8" xfId="10"/>
-    <cellStyle name="Normal 3" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 14" xfId="13"/>
-    <cellStyle name="Normal 15" xfId="14"/>
-    <cellStyle name="Normal 16" xfId="15"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
-    <cellStyle name="Normal 9" xfId="17"/>
-    <cellStyle name="Normal 7" xfId="18"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="5" name="Percent" xfId="0"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -889,7 +995,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -924,7 +1029,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -959,16 +1063,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1090,1452 +1198,1592 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A270"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A281" activeCellId="0" pane="topLeft" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="50"/>
-    <col customWidth="1" max="3" min="3" width="30"/>
+    <col customWidth="1" max="1" min="1" style="1" width="70.85446009389671"/>
+    <col customWidth="1" max="2" min="2" style="1" width="50"/>
+    <col customWidth="1" max="3" min="3" style="1" width="84.40375586854459"/>
+    <col customWidth="1" max="1025" min="4" style="1" width="28.7089201877934"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row customHeight="1" ht="15" r="1" s="2" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row customHeight="1" ht="15" r="2" s="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row customHeight="1" ht="15" r="3" s="2" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row customHeight="1" ht="15" r="4" s="2" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row customHeight="1" ht="15" r="5" s="2" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row customHeight="1" ht="15" r="6" s="2" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row customHeight="1" ht="15" r="7" s="2" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row customHeight="1" ht="15" r="8" s="2" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row customHeight="1" ht="15" r="9" s="2" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row customHeight="1" ht="15" r="10" s="2" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row customHeight="1" ht="15" r="11" s="2" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row customHeight="1" ht="15" r="12" s="2" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row customHeight="1" ht="15" r="13" s="2" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row customHeight="1" ht="15" r="14" s="2" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row customHeight="1" ht="15" r="15" s="2" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row customHeight="1" ht="15" r="16" s="2" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row customHeight="1" ht="15" r="17" s="2" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row customHeight="1" ht="15" r="20" s="2" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row customHeight="1" ht="15" r="22" s="2" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row customHeight="1" ht="15" r="23" s="2" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row customHeight="1" ht="15" r="24" s="2" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row customHeight="1" ht="15" r="25" s="2" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="2" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row customHeight="1" ht="15" r="27" s="2" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row customHeight="1" ht="15" r="28" s="2" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row customHeight="1" ht="15" r="29" s="2" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row customHeight="1" ht="15" r="30" s="2" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row customHeight="1" ht="15" r="31" s="2" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row customHeight="1" ht="15" r="32" s="2" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row customHeight="1" ht="15" r="33" s="2" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row customHeight="1" ht="15" r="34" s="2" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row customHeight="1" ht="15" r="35" s="2" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="2" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row customHeight="1" ht="15" r="37" s="2" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row customHeight="1" ht="15" r="38" s="2" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row customHeight="1" ht="15" r="39" s="2" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row customHeight="1" ht="15" r="40" s="2" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" s="2" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row customHeight="1" ht="15" r="42" s="2" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row customHeight="1" ht="15" r="43" s="2" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row customHeight="1" ht="15" r="44" s="2" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row customHeight="1" ht="15" r="45" s="2" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row customHeight="1" ht="15" r="46" s="2" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row customHeight="1" ht="15" r="47" s="2" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row customHeight="1" ht="15" r="48" s="2" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row customHeight="1" ht="15" r="49" s="2" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row customHeight="1" ht="15" r="50" s="2" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="51" s="2" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row customHeight="1" ht="15" r="52" s="2" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row customHeight="1" ht="15" r="53" s="2" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row customHeight="1" ht="15" r="54" s="2" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row customHeight="1" ht="15" r="55" s="2" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row customHeight="1" ht="15" r="56" s="2" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row customHeight="1" ht="15" r="57" s="2" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row customHeight="1" ht="15" r="58" s="2" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row customHeight="1" ht="15" r="59" s="2" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row customHeight="1" ht="15" r="60" s="2" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row customHeight="1" ht="15" r="61" s="2" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row customHeight="1" ht="15" r="62" s="2" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row customHeight="1" ht="15" r="63" s="2" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row customHeight="1" ht="15" r="64" s="2" spans="1:2">
+      <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row customHeight="1" ht="15" r="65" s="2" spans="1:2">
+      <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row customHeight="1" ht="15" r="66" s="2" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row customHeight="1" ht="15" r="67" s="2" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row customHeight="1" ht="15" r="68" s="2" spans="1:2">
+      <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row customHeight="1" ht="15" r="69" s="2" spans="1:2">
+      <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row customHeight="1" ht="15" r="70" s="2" spans="1:2">
+      <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row customHeight="1" ht="15" r="71" s="2" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row customHeight="1" ht="15" r="72" s="2" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="73" s="2" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row customHeight="1" ht="15" r="74" s="2" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row customHeight="1" ht="15" r="75" s="2" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row customHeight="1" ht="15" r="76" s="2" spans="1:2">
+      <c r="A76" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row customHeight="1" ht="15" r="77" s="2" spans="1:2">
+      <c r="A77" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row customHeight="1" ht="15" r="78" s="2" spans="1:2">
+      <c r="A78" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row customHeight="1" ht="15" r="79" s="2" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="80" s="2" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="81" s="2" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="82" s="2" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row customHeight="1" ht="15" r="83" s="2" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="84" s="2" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row customHeight="1" ht="15" r="85" s="2" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row customHeight="1" ht="15" r="86" s="2" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="87" s="2" spans="1:2">
+      <c r="A87" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row customHeight="1" ht="15" r="88" s="2" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row customHeight="1" ht="15" r="89" s="2" spans="1:2">
+      <c r="A89" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row customHeight="1" ht="15" r="90" s="2" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row customHeight="1" ht="15" r="91" s="2" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row customHeight="1" ht="15" r="92" s="2" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row customHeight="1" ht="15" r="93" s="2" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row customHeight="1" ht="15" r="94" s="2" spans="1:2">
+      <c r="A94" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row customHeight="1" ht="15" r="95" s="2" spans="1:2">
+      <c r="A95" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row customHeight="1" ht="15" r="96" s="2" spans="1:2">
+      <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row customHeight="1" ht="15" r="97" s="2" spans="1:2">
+      <c r="A97" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row customHeight="1" ht="15" r="98" s="2" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="99" s="2" spans="1:2">
+      <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row customHeight="1" ht="15" r="100" s="2" spans="1:2">
+      <c r="A100" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row customHeight="1" ht="15" r="101" s="2" spans="1:2">
+      <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row customHeight="1" ht="15" r="102" s="2" spans="1:2">
+      <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row customHeight="1" ht="15" r="103" s="2" spans="1:2">
+      <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row customHeight="1" ht="15" r="104" s="2" spans="1:2">
+      <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row customHeight="1" ht="15" r="105" s="2" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="106" s="2" spans="1:2">
+      <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row customHeight="1" ht="15" r="107" s="2" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row customHeight="1" ht="15" r="108" s="2" spans="1:2">
+      <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row customHeight="1" ht="15" r="109" s="2" spans="1:2">
+      <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row customHeight="1" ht="15" r="110" s="2" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="111" s="2" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="112" s="2" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="113" s="2" spans="1:2">
+      <c r="A113" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row customHeight="1" ht="15" r="114" s="2" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row customHeight="1" ht="15" r="115" s="2" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row customHeight="1" ht="15" r="116" s="2" spans="1:2">
+      <c r="A116" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row customHeight="1" ht="15" r="117" s="2" spans="1:2">
+      <c r="A117" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row customHeight="1" ht="15" r="118" s="2" spans="1:2">
+      <c r="A118" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row customHeight="1" ht="15" r="119" s="2" spans="1:2">
+      <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row customHeight="1" ht="15" r="120" s="2" spans="1:2">
+      <c r="A120" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row customHeight="1" ht="15" r="121" s="2" spans="1:2">
+      <c r="A121" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row customHeight="1" ht="15" r="122" s="2" spans="1:2">
+      <c r="A122" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row customHeight="1" ht="15" r="123" s="2" spans="1:2">
+      <c r="A123" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row customHeight="1" ht="15" r="124" s="2" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="125" s="2" spans="1:2">
+      <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row customHeight="1" ht="15" r="126" s="2" spans="1:2">
+      <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row customHeight="1" ht="15" r="127" s="2" spans="1:2">
+      <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row customHeight="1" ht="15" r="128" s="2" spans="1:2">
+      <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row customHeight="1" ht="15" r="129" s="2" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="130" s="2" spans="1:2">
+      <c r="A130" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row customHeight="1" ht="15" r="131" s="2" spans="1:2">
+      <c r="A131" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row customHeight="1" ht="15" r="132" s="2" spans="1:2">
+      <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row customHeight="1" ht="15" r="133" s="2" spans="1:2">
+      <c r="A133" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row customHeight="1" ht="15" r="134" s="2" spans="1:2">
+      <c r="A134" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row customHeight="1" ht="15" r="135" s="2" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="136" s="2" spans="1:2">
+      <c r="A136" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row customHeight="1" ht="15" r="137" s="2" spans="1:2">
+      <c r="A137" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row customHeight="1" ht="15" r="138" s="2" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="139" s="2" spans="1:2">
+      <c r="A139" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row customHeight="1" ht="15" r="140" s="2" spans="1:2">
+      <c r="A140" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row customHeight="1" ht="15" r="141" s="2" spans="1:2">
+      <c r="A141" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row customHeight="1" ht="15" r="142" s="2" spans="1:2">
+      <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row customHeight="1" ht="15" r="143" s="2" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="144" s="2" spans="1:2">
+      <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row customHeight="1" ht="15" r="145" s="2" spans="1:2">
+      <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row customHeight="1" ht="15" r="146" s="2" spans="1:2">
+      <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row customHeight="1" ht="15" r="147" s="2" spans="1:2">
+      <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row customHeight="1" ht="15" r="148" s="2" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="149" s="2" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="150" s="2" spans="1:2">
+      <c r="A150" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row customHeight="1" ht="15" r="151" s="2" spans="1:2">
+      <c r="A151" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row customHeight="1" ht="15" r="152" s="2" spans="1:2">
+      <c r="A152" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row customHeight="1" ht="15" r="153" s="2" spans="1:2">
+      <c r="A153" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row customHeight="1" ht="15" r="154" s="2" spans="1:2">
+      <c r="A154" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row customHeight="1" ht="15" r="155" s="2" spans="1:2">
+      <c r="A155" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row customHeight="1" ht="15" r="156" s="2" spans="1:2">
+      <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row customHeight="1" ht="15" r="157" s="2" spans="1:2">
+      <c r="A157" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row customHeight="1" ht="15" r="158" s="2" spans="1:2">
+      <c r="A158" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row customHeight="1" ht="15" r="159" s="2" spans="1:2">
+      <c r="A159" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row customHeight="1" ht="15" r="160" s="2" spans="1:2">
+      <c r="A160" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row customHeight="1" ht="15" r="161" s="2" spans="1:2">
+      <c r="A161" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row customHeight="1" ht="15" r="162" s="2" spans="1:2">
+      <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row customHeight="1" ht="15" r="163" s="2" spans="1:2">
+      <c r="A163" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row customHeight="1" ht="15" r="164" s="2" spans="1:2">
+      <c r="A164" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row customHeight="1" ht="15" r="165" s="2" spans="1:2">
+      <c r="A165" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row customHeight="1" ht="15" r="166" s="2" spans="1:2">
+      <c r="A166" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row customHeight="1" ht="15" r="167" s="2" spans="1:2">
+      <c r="A167" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row customHeight="1" ht="15" r="168" s="2" spans="1:2">
+      <c r="A168" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row customHeight="1" ht="15" r="169" s="2" spans="1:2">
+      <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row customHeight="1" ht="15" r="170" s="2" spans="1:2">
+      <c r="A170" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row customHeight="1" ht="15" r="171" s="2" spans="1:2">
+      <c r="A171" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row customHeight="1" ht="15" r="172" s="2" spans="1:2">
+      <c r="A172" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row customHeight="1" ht="15" r="173" s="2" spans="1:2">
+      <c r="A173" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row customHeight="1" ht="15" r="174" s="2" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="175" s="2" spans="1:2">
+      <c r="A175" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row customHeight="1" ht="15" r="176" s="2" spans="1:2">
+      <c r="A176" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row customHeight="1" ht="15" r="177" s="2" spans="1:2">
+      <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row customHeight="1" ht="15" r="178" s="2" spans="1:2">
+      <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row customHeight="1" ht="15" r="179" s="2" spans="1:2">
+      <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row customHeight="1" ht="15" r="180" s="2" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="181" s="2" spans="1:2">
+      <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row customHeight="1" ht="15" r="182" s="2" spans="1:2">
+      <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row customHeight="1" ht="15" r="183" s="2" spans="1:2">
+      <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row customHeight="1" ht="15" r="184" s="2" spans="1:2">
+      <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row customHeight="1" ht="15" r="185" s="2" spans="1:2">
+      <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row customHeight="1" ht="15" r="186" s="2" spans="1:2">
+      <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row customHeight="1" ht="15" r="187" s="2" spans="1:2">
+      <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row customHeight="1" ht="15" r="188" s="2" spans="1:2">
+      <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row customHeight="1" ht="15" r="189" s="2" spans="1:2">
+      <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row customHeight="1" ht="15" r="190" s="2" spans="1:2">
+      <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row customHeight="1" ht="15" r="191" s="2" spans="1:2">
+      <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row customHeight="1" ht="15" r="192" s="2" spans="1:2">
+      <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row customHeight="1" ht="15" r="193" s="2" spans="1:2">
+      <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row customHeight="1" ht="15" r="194" s="2" spans="1:2">
+      <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row customHeight="1" ht="15" r="195" s="2" spans="1:2">
+      <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row customHeight="1" ht="15" r="196" s="2" spans="1:2">
+      <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row customHeight="1" ht="15" r="197" s="2" spans="1:2">
+      <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row customHeight="1" ht="15" r="198" s="2" spans="1:2">
+      <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row customHeight="1" ht="15" r="199" s="2" spans="1:2">
+      <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row customHeight="1" ht="15" r="200" s="2" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="201" s="2" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="202" s="2" spans="1:2">
+      <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row customHeight="1" ht="15" r="203" s="2" spans="1:2">
+      <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row customHeight="1" ht="15" r="204" s="2" spans="1:2">
+      <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row customHeight="1" ht="15" r="205" s="2" spans="1:2">
+      <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row customHeight="1" ht="15" r="206" s="2" spans="1:2">
+      <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row customHeight="1" ht="15" r="207" s="2" spans="1:2">
+      <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row customHeight="1" ht="15" r="208" s="2" spans="1:2">
+      <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row customHeight="1" ht="15" r="209" s="2" spans="1:2">
+      <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row customHeight="1" ht="15" r="210" s="2" spans="1:2">
+      <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row customHeight="1" ht="15" r="211" s="2" spans="1:2">
+      <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row customHeight="1" ht="15" r="212" s="2" spans="1:2">
+      <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row customHeight="1" ht="15" r="213" s="2" spans="1:2">
+      <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+    <row customHeight="1" ht="15" r="214" s="2" spans="1:2">
+      <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+    <row customHeight="1" ht="15" r="215" s="2" spans="1:2">
+      <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row customHeight="1" ht="15" r="216" s="2" spans="1:2">
+      <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row customHeight="1" ht="15" r="217" s="2" spans="1:2">
+      <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row customHeight="1" ht="15" r="218" s="2" spans="1:2">
+      <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+    <row customHeight="1" ht="15" r="219" s="2" spans="1:2">
+      <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row customHeight="1" ht="15" r="220" s="2" spans="1:2">
+      <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+    <row customHeight="1" ht="15" r="221" s="2" spans="1:2">
+      <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row customHeight="1" ht="15" r="222" s="2" spans="1:2">
+      <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+    <row customHeight="1" ht="15" r="223" s="2" spans="1:2">
+      <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+    <row customHeight="1" ht="15" r="224" s="2" spans="1:2">
+      <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row customHeight="1" ht="15" r="225" s="2" spans="1:2">
+      <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
     </row>
+    <row customHeight="1" ht="15" r="226" s="2" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="227" s="2" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="228" s="2" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="229" s="2" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="230" s="2" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="231" s="2" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="232" s="2" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="233" s="2" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="234" s="2" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="235" s="2" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="236" s="2" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="237" s="2" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="238" s="2" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="239" s="2" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="240" s="2" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="241" s="2" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="242" s="2" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="243" s="2" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="244" s="2" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="245" s="2" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="246" s="2" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="247" s="2" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="248" s="2" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="249" s="2" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="250" s="2" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="251" s="2" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="252" s="2" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="253" s="2" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="254" s="2" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="255" s="2" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="256" s="2" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="257" s="2" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="258" s="2" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="259" s="2" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="260" s="2" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="261" s="2" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="262" s="2" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="263" s="2" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="264" s="2" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="265" s="2" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="266" s="2" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="267" s="2" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="268" s="2" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="269" s="2" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="270" s="2" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="271" s="2" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="272" s="2" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="273" s="2" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="274" s="2" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="275" s="2" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="276" s="2" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="277" s="2" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="278" s="2" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="279" s="2" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="280" s="2" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
+    <col customWidth="1" max="1" min="1" style="1" width="69.81220657276999"/>
+    <col customWidth="1" max="1025" min="2" style="1" width="28.7089201877934"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" spans="1:1">
+    <row customHeight="1" ht="19" r="1" s="2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>228</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" s="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>January 2017</t>
   </si>
@@ -227,7 +227,13 @@
     <t xml:space="preserve">10 13:57&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>01 19:10&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:59&gt;&gt;&gt; 0FD8ABF6C0   </t>
+  </si>
+  <si>
+    <t>01 19:15&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t xml:space="preserve">10 14:02&gt;&gt;&gt; 0FD8ABF6C0   </t>
@@ -892,8 +898,8 @@
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
@@ -908,10 +914,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="5" name="Percent" xfId="0"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="4" name="Currency" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
     <cellStyle builtinId="3" name="Comma" xfId="4"/>
     <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
   </cellStyles>
@@ -1555,1195 +1561,1201 @@
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="43" s="2" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="44" s="2" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="45" s="2" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="46" s="2" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="47" s="2" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="48" s="2" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="49" s="2" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="50" s="2" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="51" s="2" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="52" s="2" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="53" s="2" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="54" s="2" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="55" s="2" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="56" s="2" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="57" s="2" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="58" s="2" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="59" s="2" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="60" s="2" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="61" s="2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="62" s="2" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="63" s="2" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="64" s="2" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="65" s="2" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="66" s="2" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="67" s="2" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="68" s="2" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="69" s="2" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="70" s="2" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="71" s="2" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="72" s="2" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="73" s="2" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="74" s="2" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="75" s="2" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="76" s="2" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="77" s="2" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="78" s="2" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="79" s="2" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="80" s="2" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="81" s="2" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="82" s="2" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="83" s="2" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="84" s="2" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="85" s="2" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="86" s="2" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="87" s="2" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="88" s="2" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="89" s="2" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="90" s="2" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="91" s="2" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="92" s="2" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="93" s="2" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="94" s="2" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="95" s="2" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="96" s="2" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="97" s="2" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="98" s="2" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="99" s="2" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="100" s="2" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="101" s="2" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="102" s="2" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="103" s="2" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="104" s="2" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="105" s="2" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="106" s="2" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="107" s="2" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="108" s="2" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="109" s="2" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="110" s="2" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="111" s="2" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="112" s="2" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="113" s="2" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="114" s="2" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="115" s="2" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="116" s="2" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="117" s="2" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="118" s="2" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="119" s="2" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="120" s="2" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="121" s="2" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="122" s="2" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="123" s="2" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="124" s="2" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="125" s="2" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="126" s="2" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="127" s="2" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="128" s="2" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="129" s="2" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="130" s="2" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="131" s="2" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="132" s="2" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="133" s="2" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="134" s="2" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="135" s="2" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="136" s="2" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="137" s="2" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="138" s="2" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="139" s="2" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="140" s="2" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="141" s="2" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="142" s="2" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="143" s="2" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="144" s="2" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="145" s="2" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="146" s="2" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="147" s="2" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="148" s="2" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="149" s="2" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="150" s="2" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="151" s="2" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="152" s="2" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="153" s="2" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="154" s="2" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="155" s="2" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="156" s="2" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="157" s="2" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="158" s="2" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="159" s="2" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="160" s="2" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="161" s="2" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="162" s="2" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="163" s="2" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="164" s="2" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="165" s="2" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="166" s="2" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="167" s="2" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="168" s="2" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="169" s="2" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="170" s="2" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="171" s="2" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="172" s="2" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="173" s="2" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="174" s="2" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="175" s="2" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="176" s="2" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="177" s="2" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="178" s="2" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="179" s="2" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="180" s="2" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="181" s="2" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="182" s="2" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="183" s="2" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="184" s="2" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="185" s="2" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="186" s="2" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="187" s="2" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="188" s="2" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="189" s="2" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="190" s="2" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="191" s="2" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="192" s="2" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="193" s="2" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="194" s="2" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="195" s="2" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="196" s="2" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="197" s="2" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="198" s="2" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="199" s="2" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="200" s="2" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="201" s="2" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="202" s="2" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="203" s="2" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="204" s="2" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="205" s="2" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="206" s="2" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="207" s="2" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="208" s="2" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="209" s="2" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="210" s="2" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="211" s="2" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="212" s="2" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="213" s="2" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="214" s="2" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="215" s="2" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="216" s="2" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="217" s="2" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="218" s="2" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="219" s="2" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="220" s="2" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="221" s="2" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="222" s="2" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="223" s="2" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="224" s="2" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="225" s="2" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="226" s="2" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="227" s="2" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="228" s="2" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="229" s="2" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="230" s="2" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="231" s="2" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="232" s="2" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="233" s="2" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="234" s="2" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="235" s="2" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="236" s="2" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="237" s="2" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="238" s="2" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="239" s="2" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="240" s="2" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="241" s="2" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="242" s="2" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="243" s="2" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="244" s="2" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="245" s="2" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="246" s="2" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="247" s="2" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="248" s="2" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="249" s="2" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="250" s="2" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="251" s="2" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="252" s="2" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="253" s="2" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="254" s="2" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="255" s="2" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="256" s="2" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="257" s="2" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="258" s="2" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="259" s="2" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="260" s="2" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="261" s="2" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="262" s="2" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="263" s="2" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="264" s="2" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="265" s="2" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="266" s="2" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="267" s="2" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="268" s="2" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="269" s="2" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="270" s="2" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="271" s="2" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="272" s="2" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="273" s="2" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="274" s="2" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="275" s="2" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="276" s="2" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="277" s="2" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="278" s="2" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="279" s="2" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="280" s="2" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2773,12 +2785,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="2" s="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
   <si>
     <t>January 2017</t>
   </si>
@@ -239,289 +239,628 @@
     <t xml:space="preserve">10 14:02&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>01 20:33&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:03&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>01 20:36&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:08&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>01 21:03&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
     <t>10 14:08&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 08:58&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:09&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>02 09:06&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:11&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>02 09:25&gt;&gt;&gt; 0FD8AFCD00   Joshua Itteera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 09:49&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
     <t>10 14:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">02 09:57&gt;&gt;&gt; 8FD8985540   </t>
+  </si>
+  <si>
     <t>10 14:19&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t>02 10:04&gt;&gt;&gt; 0FD8A289E0   Pual Corrales</t>
+  </si>
+  <si>
     <t>10 14:20&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t>02 10:10&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
     <t>10 14:21&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t>02 10:36&gt;&gt;&gt; CFD8ADF120   Patrick Mclaughlin</t>
+  </si>
+  <si>
     <t>10 14:22&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t xml:space="preserve">02 10:37&gt;&gt;&gt; CFD8B6CB80   </t>
+  </si>
+  <si>
     <t>10 14:23&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t>02 10:41&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
     <t>10 14:24&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">02 10:43&gt;&gt;&gt; 0FD899D9C0   </t>
+  </si>
+  <si>
     <t>10 14:25&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t xml:space="preserve">02 10:43&gt;&gt;&gt; 0FD899D9C0    </t>
+  </si>
+  <si>
     <t>10 14:28&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t>02 10:43&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
     <t>10 14:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 10:44&gt;&gt;&gt; CFD8AF1280   Jonathan Gonzalez</t>
+  </si>
+  <si>
     <t>10 14:30&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 10:44&gt;&gt;&gt; 0FD899D9C0   allen cammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:30&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
+    <t>02 10:45&gt;&gt;&gt; 0FD899D9C0   cammy-el allen</t>
+  </si>
+  <si>
     <t>10 14:31&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t xml:space="preserve">02 10:45&gt;&gt;&gt; 8FD8A5D640    </t>
+  </si>
+  <si>
     <t>10 14:34&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
+    <t>02 10:45&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:36&gt;&gt;&gt; 0FD8ABF6C0    </t>
   </si>
   <si>
+    <t>02 10:45&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>10 14:36&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 10:49&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:38&gt;&gt;&gt; 0FD8ABF6C0    </t>
   </si>
   <si>
+    <t>02 11:44&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>10 14:39&gt;&gt;&gt; 0FD8ABF6C0   Evony Morel</t>
   </si>
   <si>
+    <t>02 12:14&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>10 15:44&gt;&gt;&gt; CFD8A51DE0   Rodolfo Olivares</t>
   </si>
   <si>
+    <t>02 12:16&gt;&gt;&gt; CFD8AF34C0   Megan Eng</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 16:25&gt;&gt;&gt; CFD8A948E0    </t>
   </si>
   <si>
+    <t>02 12:16&gt;&gt;&gt; CFD8AF1280   Jonathan Gonzalez</t>
+  </si>
+  <si>
+    <t>02 12:51&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>10 16:26&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
+    <t>02 12:52&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>10 18:10&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>02 15:21&gt;&gt;&gt; 8FD8A327A0   Ronnie Gueera</t>
+  </si>
+  <si>
     <t>12 09:45&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>12 09:54&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 15:26&gt;&gt;&gt; CFD89D3000   kevin elder</t>
+  </si>
+  <si>
     <t>12 10:01&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>02 15:36&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
     <t>12 10:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 16:08&gt;&gt;&gt; 0FD8B42CC0   amin shahid</t>
+  </si>
+  <si>
+    <t>02 16:10&gt;&gt;&gt; CFD8AF34C0   Megan Eng</t>
+  </si>
+  <si>
+    <t>02 16:16&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
+    <t>02 16:23&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
     <t>12 10:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 16:37&gt;&gt;&gt; 0FD8AAFF40   Ulice Molina</t>
+  </si>
+  <si>
+    <t>02 16:38&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
+  </si>
+  <si>
     <t>12 12:12&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>12 12:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 17:45&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>02 18:05&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>12 12:53&gt;&gt;&gt; 8FD8A841E0   Sujay Bhaskar KashYap</t>
   </si>
   <si>
+    <t>02 18:48&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>12 14:05&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>02 18:56&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t>12 14:45&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t xml:space="preserve">02 18:56&gt;&gt;&gt; 8FD8ADBD20    </t>
+  </si>
+  <si>
     <t>13 09:35&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t xml:space="preserve">02 18:57&gt;&gt;&gt; 8FD8ADBD20    </t>
+  </si>
+  <si>
     <t>13 11:46&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
   </si>
   <si>
+    <t>02 19:11&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>03 09:58&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>17 09:40&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t xml:space="preserve">03 09:58&gt;&gt;&gt; 0FD8B5EBC0   </t>
+  </si>
+  <si>
     <t>17 10:48&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t>03 10:36&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>17 11:43&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>03 12:47&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>17 11:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>03 13:39&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>17 12:11&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>03 13:47&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
+  </si>
+  <si>
+    <t>03 14:16&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>17 12:40&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
   </si>
   <si>
     <t>17 13:00&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>03 15:31&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
     <t>17 13:01&gt;&gt;&gt; 4FD8AB1960   Alondra Rangel</t>
   </si>
   <si>
+    <t>03 16:35&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
     <t>17 13:02&gt;&gt;&gt; 4FD8AB6640   Victoria Soobryan</t>
   </si>
   <si>
+    <t>03 17:54&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>17 13:02&gt;&gt;&gt; CFD8ADC440   Jorge Delgado</t>
   </si>
   <si>
+    <t>03 18:24&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
+  </si>
+  <si>
     <t>17 14:29&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
+    <t>06 08:57&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
+    <t>06 08:58&gt;&gt;&gt; 8FD8AFF180   Oscar Chicaiza</t>
+  </si>
+  <si>
     <t>17 15:05&gt;&gt;&gt; CFD8A51DE0   Rodolfo Olivares</t>
   </si>
   <si>
+    <t>06 09:20&gt;&gt;&gt; 0FD8A61420   Duban hershely</t>
+  </si>
+  <si>
     <t>17 15:54&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>06 09:20&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>17 16:14&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
   </si>
   <si>
+    <t>06 09:26&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
+  </si>
+  <si>
     <t>19 10:42&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 09:54&gt;&gt;&gt; CFD89FF040   Michael Mosheyev</t>
+  </si>
+  <si>
+    <t>06 10:23&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
+    <t>06 10:26&gt;&gt;&gt; 0FD899D9C0   cammy-el allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 10:40&gt;&gt;&gt; 8FD88BA9C0    </t>
+  </si>
+  <si>
     <t>19 10:56&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 10:46&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t>19 16:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 10:46&gt;&gt;&gt; 0FD8A83600   douglas smith</t>
+  </si>
+  <si>
     <t>19 16:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 10:54&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
     <t>19 16:43&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 12:03&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
+  </si>
+  <si>
     <t>19 16:47&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 12:14&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>19 16:50&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 12:27&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
+  </si>
+  <si>
     <t>19 16:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 13:00&gt;&gt;&gt; 0FD8AD6220   Rachel james</t>
+  </si>
+  <si>
     <t>19 17:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 13:28&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
     <t>19 17:02&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 13:29&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
+  </si>
+  <si>
     <t>19 17:17&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 13:38&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t>19 17:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">06 13:46&gt;&gt;&gt; CFD8B3C6C0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 14:12&gt;&gt;&gt; 0FD8AE84A0    </t>
+  </si>
+  <si>
     <t>19 17:26&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 14:57&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>19 17:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 15:28&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
     <t>19 17:35&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 16:24&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>19 17:44&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 17:10&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>06 17:37&gt;&gt;&gt; 0FD8AAFF40   Ulice Molina</t>
+  </si>
+  <si>
     <t>19 17:44&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>06 17:39&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
+  </si>
+  <si>
     <t>19 17:46&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>06 17:40&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>06 17:41&gt;&gt;&gt; CFD89E8B60   catori labad</t>
+  </si>
+  <si>
     <t>19 17:46&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 17:53&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>19 18:00&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>06 19:05&gt;&gt;&gt; 8FD8AF7D60   Danielle Cimino</t>
+  </si>
+  <si>
+    <t>06 19:26&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
     <t>19 18:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 19:57&gt;&gt;&gt; 0FD8B42CC0   amin shahid</t>
+  </si>
+  <si>
     <t>19 18:09&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>06 20:42&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>07 08:07&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t>19 18:10&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 08:10&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
     <t>19 18:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 08:35&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
     <t>19 18:22&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 08:36&gt;&gt;&gt; 0FD8AFF200   Raymond Huang</t>
+  </si>
+  <si>
     <t>19 18:22&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>07 08:42&gt;&gt;&gt; 0FD8A289E0   Pual Corrales</t>
+  </si>
+  <si>
+    <t>07 08:56&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>19 18:25&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>07 08:57&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
     <t>19 18:27&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>07 09:02&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
+  </si>
+  <si>
     <t>19 18:35&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>07 09:10&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
     <t>19 18:37&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 09:24&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 10:05&gt;&gt;&gt; CFD8B3BD60   </t>
+  </si>
+  <si>
+    <t>07 10:07&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
     <t>19 18:38&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 10:22&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t>19 18:38&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>07 10:30&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>19 18:41&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t xml:space="preserve">07 10:30&gt;&gt;&gt; CFD8B6CB80    </t>
+  </si>
+  <si>
     <t>19 18:44&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>07 10:38&gt;&gt;&gt; 0FD8A289E0   Pual Corrales</t>
+  </si>
+  <si>
     <t>19 18:53&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 10:39&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>19 18:54&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 10:46&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
     <t>19 18:57&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 10:46&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
     <t>19 18:58&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 10:49&gt;&gt;&gt; 8FD8A60A60   ferguson elaina</t>
+  </si>
+  <si>
     <t>19 18:59&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 11:02&gt;&gt;&gt; 0FD8B4E900   Carlos De Los Santos</t>
+  </si>
+  <si>
     <t>19 19:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>19 19:02&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 11:08&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
+  </si>
+  <si>
     <t>20 10:30&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>07 11:57&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>20 14:58&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
@@ -898,11 +1237,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -914,12 +1253,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="4" name="Currency" xfId="0"/>
-    <cellStyle builtinId="0" name="Normal" xfId="1"/>
-    <cellStyle builtinId="5" name="Percent" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="3" name="Comma" xfId="4"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
+    <cellStyle builtinId="3" name="Comma" xfId="0"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
+    <cellStyle builtinId="4" name="Currency" xfId="2"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="3"/>
+    <cellStyle builtinId="5" name="Percent" xfId="4"/>
+    <cellStyle builtinId="0" name="Normal" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1577,1185 +1916,1539 @@
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="45" s="2" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="46" s="2" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="47" s="2" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="48" s="2" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="49" s="2" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="50" s="2" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="51" s="2" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="52" s="2" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="53" s="2" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="54" s="2" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="55" s="2" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="56" s="2" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="57" s="2" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="58" s="2" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="59" s="2" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="60" s="2" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="61" s="2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="62" s="2" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="63" s="2" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>109</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="64" s="2" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="65" s="2" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="66" s="2" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>115</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="67" s="2" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="68" s="2" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="69" s="2" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="70" s="2" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="71" s="2" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="72" s="2" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>126</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="73" s="2" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>128</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="74" s="2" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="75" s="2" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="76" s="2" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="77" s="2" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>135</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="78" s="2" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="79" s="2" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="80" s="2" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="81" s="2" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
+      </c>
+      <c r="B81" t="s">
+        <v>140</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="82" s="2" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>142</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="83" s="2" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="84" s="2" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>106</v>
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>143</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="85" s="2" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>107</v>
+        <v>145</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="86" s="2" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>145</v>
+      </c>
+      <c r="B86" t="s">
+        <v>147</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="87" s="2" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="88" s="2" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>151</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="89" s="2" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
+      </c>
+      <c r="B89" t="s">
+        <v>153</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="90" s="2" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>111</v>
+        <v>154</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="91" s="2" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
+        <v>157</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="92" s="2" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>112</v>
+        <v>156</v>
+      </c>
+      <c r="B92" t="s">
+        <v>158</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="93" s="2" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>160</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="94" s="2" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>114</v>
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>162</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="95" s="2" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
+      </c>
+      <c r="B95" t="s">
+        <v>164</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="96" s="2" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>116</v>
+        <v>165</v>
+      </c>
+      <c r="B96" t="s">
+        <v>166</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="97" s="2" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="98" s="2" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="99" s="2" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>118</v>
+        <v>170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>169</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="100" s="2" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
+      </c>
+      <c r="B100" t="s">
+        <v>172</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="101" s="2" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>120</v>
+        <v>173</v>
+      </c>
+      <c r="B101" t="s">
+        <v>174</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="102" s="2" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>121</v>
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
+        <v>176</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="103" s="2" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+      <c r="B103" t="s">
+        <v>178</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="104" s="2" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>179</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="105" s="2" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>123</v>
+        <v>179</v>
+      </c>
+      <c r="B105" t="s">
+        <v>181</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="106" s="2" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>124</v>
+        <v>182</v>
+      </c>
+      <c r="B106" t="s">
+        <v>183</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="107" s="2" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>125</v>
+        <v>184</v>
+      </c>
+      <c r="B107" t="s">
+        <v>185</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="108" s="2" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
+      </c>
+      <c r="B108" t="s">
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="109" s="2" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>127</v>
+        <v>188</v>
+      </c>
+      <c r="B109" t="s">
+        <v>189</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="110" s="2" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>127</v>
+        <v>188</v>
+      </c>
+      <c r="B110" t="s">
+        <v>190</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="111" s="2" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>127</v>
+        <v>188</v>
+      </c>
+      <c r="B111" t="s">
+        <v>191</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="112" s="2" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>127</v>
+        <v>188</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="113" s="2" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>128</v>
+        <v>193</v>
+      </c>
+      <c r="B113" t="s">
+        <v>194</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="114" s="2" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>129</v>
+        <v>195</v>
+      </c>
+      <c r="B114" t="s">
+        <v>196</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="115" s="2" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>130</v>
+        <v>197</v>
+      </c>
+      <c r="B115" t="s">
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="116" s="2" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>131</v>
+        <v>199</v>
+      </c>
+      <c r="B116" t="s">
+        <v>200</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="117" s="2" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>132</v>
+        <v>201</v>
+      </c>
+      <c r="B117" t="s">
+        <v>202</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="118" s="2" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>133</v>
+        <v>203</v>
+      </c>
+      <c r="B118" t="s">
+        <v>204</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="119" s="2" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>134</v>
+        <v>205</v>
+      </c>
+      <c r="B119" t="s">
+        <v>206</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="120" s="2" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>135</v>
+        <v>207</v>
+      </c>
+      <c r="B120" t="s">
+        <v>208</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="121" s="2" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>136</v>
+        <v>209</v>
+      </c>
+      <c r="B121" t="s">
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="122" s="2" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>137</v>
+        <v>211</v>
+      </c>
+      <c r="B122" t="s">
+        <v>212</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="123" s="2" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>138</v>
+        <v>213</v>
+      </c>
+      <c r="B123" t="s">
+        <v>214</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="124" s="2" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>213</v>
+      </c>
+      <c r="B124" t="s">
+        <v>215</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="125" s="2" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>216</v>
+      </c>
+      <c r="B125" t="s">
+        <v>217</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="126" s="2" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>218</v>
+      </c>
+      <c r="B126" t="s">
+        <v>219</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="127" s="2" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
+      </c>
+      <c r="B127" t="s">
+        <v>221</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="128" s="2" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>222</v>
+      </c>
+      <c r="B128" t="s">
+        <v>223</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="129" s="2" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>222</v>
+      </c>
+      <c r="B129" t="s">
+        <v>224</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="130" s="2" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>225</v>
+      </c>
+      <c r="B130" t="s">
+        <v>226</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="131" s="2" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
+      </c>
+      <c r="B131" t="s">
+        <v>228</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="132" s="2" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
+      </c>
+      <c r="B132" t="s">
+        <v>229</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="133" s="2" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>145</v>
+        <v>230</v>
+      </c>
+      <c r="B133" t="s">
+        <v>231</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="134" s="2" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>146</v>
+        <v>232</v>
+      </c>
+      <c r="B134" t="s">
+        <v>233</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="135" s="2" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>146</v>
+        <v>232</v>
+      </c>
+      <c r="B135" t="s">
+        <v>234</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="136" s="2" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>147</v>
+        <v>235</v>
+      </c>
+      <c r="B136" t="s">
+        <v>236</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="137" s="2" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>148</v>
+        <v>237</v>
+      </c>
+      <c r="B137" t="s">
+        <v>238</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="138" s="2" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>148</v>
+        <v>237</v>
+      </c>
+      <c r="B138" t="s">
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="139" s="2" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>149</v>
+        <v>240</v>
+      </c>
+      <c r="B139" t="s">
+        <v>241</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="140" s="2" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>150</v>
+        <v>242</v>
+      </c>
+      <c r="B140" t="s">
+        <v>243</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="141" s="2" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>151</v>
+        <v>244</v>
+      </c>
+      <c r="B141" t="s">
+        <v>245</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="142" s="2" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>152</v>
+        <v>246</v>
+      </c>
+      <c r="B142" t="s">
+        <v>247</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="143" s="2" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>152</v>
+        <v>246</v>
+      </c>
+      <c r="B143" t="s">
+        <v>248</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="144" s="2" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>153</v>
+        <v>249</v>
+      </c>
+      <c r="B144" t="s">
+        <v>250</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="145" s="2" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>154</v>
+        <v>251</v>
+      </c>
+      <c r="B145" t="s">
+        <v>252</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="146" s="2" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>155</v>
+        <v>253</v>
+      </c>
+      <c r="B146" t="s">
+        <v>254</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="147" s="2" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>156</v>
+        <v>255</v>
+      </c>
+      <c r="B147" t="s">
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="148" s="2" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>156</v>
+        <v>255</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="149" s="2" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>156</v>
+        <v>255</v>
+      </c>
+      <c r="B149" t="s">
+        <v>258</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="150" s="2" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>157</v>
+        <v>259</v>
+      </c>
+      <c r="B150" t="s">
+        <v>260</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="151" s="2" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>158</v>
+        <v>261</v>
+      </c>
+      <c r="B151" t="s">
+        <v>262</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="152" s="2" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>159</v>
+        <v>263</v>
+      </c>
+      <c r="B152" t="s">
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="153" s="2" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>160</v>
+        <v>265</v>
+      </c>
+      <c r="B153" t="s">
+        <v>266</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="154" s="2" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>161</v>
+        <v>267</v>
+      </c>
+      <c r="B154" t="s">
+        <v>268</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="155" s="2" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>162</v>
+        <v>269</v>
+      </c>
+      <c r="B155" t="s">
+        <v>270</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="156" s="2" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>163</v>
+        <v>271</v>
+      </c>
+      <c r="B156" t="s">
+        <v>272</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="157" s="2" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>164</v>
+        <v>273</v>
+      </c>
+      <c r="B157" t="s">
+        <v>274</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="158" s="2" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>165</v>
+        <v>275</v>
+      </c>
+      <c r="B158" t="s">
+        <v>276</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="159" s="2" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>166</v>
+        <v>277</v>
+      </c>
+      <c r="B159" t="s">
+        <v>276</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="160" s="2" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>167</v>
+        <v>278</v>
+      </c>
+      <c r="B160" t="s">
+        <v>279</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="161" s="2" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>168</v>
+        <v>280</v>
+      </c>
+      <c r="B161" t="s">
+        <v>281</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="162" s="2" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="163" s="2" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="164" s="2" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="165" s="2" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="166" s="2" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="167" s="2" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="168" s="2" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="169" s="2" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="170" s="2" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="171" s="2" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="172" s="2" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="173" s="2" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="174" s="2" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="175" s="2" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>181</v>
+        <v>294</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="176" s="2" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="177" s="2" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="178" s="2" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>184</v>
+        <v>297</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="179" s="2" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="180" s="2" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="181" s="2" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="182" s="2" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="183" s="2" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="184" s="2" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="185" s="2" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="186" s="2" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="187" s="2" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="188" s="2" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="189" s="2" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="190" s="2" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="191" s="2" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="192" s="2" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="193" s="2" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="194" s="2" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="195" s="2" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="196" s="2" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="197" s="2" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="198" s="2" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="199" s="2" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="200" s="2" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="201" s="2" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="202" s="2" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="203" s="2" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="204" s="2" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="205" s="2" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="206" s="2" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="207" s="2" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="208" s="2" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>211</v>
+        <v>324</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="209" s="2" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="210" s="2" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="211" s="2" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="212" s="2" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="213" s="2" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="214" s="2" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="215" s="2" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="216" s="2" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="217" s="2" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="218" s="2" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="219" s="2" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="220" s="2" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="221" s="2" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="222" s="2" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="223" s="2" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="224" s="2" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="225" s="2" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="226" s="2" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="227" s="2" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="228" s="2" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="229" s="2" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="230" s="2" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="231" s="2" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="232" s="2" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="233" s="2" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="234" s="2" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="235" s="2" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="236" s="2" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="237" s="2" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="238" s="2" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="239" s="2" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="240" s="2" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="241" s="2" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="242" s="2" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="243" s="2" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>245</v>
+        <v>358</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="244" s="2" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="245" s="2" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>247</v>
+        <v>360</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="246" s="2" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>247</v>
+        <v>360</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="247" s="2" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>248</v>
+        <v>361</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="248" s="2" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="249" s="2" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="250" s="2" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="251" s="2" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="252" s="2" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="253" s="2" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="254" s="2" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>255</v>
+        <v>368</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="255" s="2" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>255</v>
+        <v>368</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="256" s="2" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="257" s="2" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="258" s="2" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="259" s="2" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="260" s="2" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="261" s="2" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="262" s="2" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="263" s="2" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="264" s="2" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="265" s="2" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="266" s="2" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="267" s="2" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="268" s="2" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="269" s="2" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="270" s="2" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="271" s="2" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>265</v>
+        <v>378</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="272" s="2" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="273" s="2" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="274" s="2" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>267</v>
+        <v>380</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="275" s="2" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="276" s="2" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="277" s="2" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>270</v>
+        <v>383</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="278" s="2" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>271</v>
+        <v>384</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="279" s="2" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="280" s="2" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>273</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2785,12 +3478,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>387</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="2" s="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
   <si>
     <t>January 2017</t>
   </si>
@@ -866,211 +866,433 @@
     <t>20 14:58&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>07 12:19&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
     <t>23 08:55&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
   </si>
   <si>
+    <t>07 12:21&gt;&gt;&gt; CFD89A9C80   Bryan Williams</t>
+  </si>
+  <si>
     <t>23 09:10&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>07 12:21&gt;&gt;&gt; 0FD8AF9E00   Karla Pimentel</t>
+  </si>
+  <si>
     <t>23 11:03&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
   </si>
   <si>
     <t>24 12:58&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 12:43&gt;&gt;&gt; 0FD8B4E900   Carlos De Los Santos</t>
+  </si>
+  <si>
     <t>24 14:26&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 13:07&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
     <t>24 14:28&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
   </si>
   <si>
+    <t>07 13:10&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>24 14:37&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
   </si>
   <si>
+    <t xml:space="preserve">07 13:11&gt;&gt;&gt; 8FD8985540    </t>
+  </si>
+  <si>
     <t>24 14:39&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
   </si>
   <si>
+    <t xml:space="preserve">07 13:32&gt;&gt;&gt; 8FD8A8D440    </t>
+  </si>
+  <si>
     <t>24 14:39&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 13:34&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
+  </si>
+  <si>
     <t>24 14:48&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
+    <t xml:space="preserve">07 13:42&gt;&gt;&gt; 8FD8B39BA0   </t>
+  </si>
+  <si>
     <t>24 14:56&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 13:53&gt;&gt;&gt; 8FD8A91340   Jesse Silkworth</t>
+  </si>
+  <si>
+    <t>07 14:07&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
     <t>24 14:57&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 15:28&gt;&gt;&gt; 8FD8AFD100   rahyner penaranda</t>
+  </si>
+  <si>
     <t>24 15:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 15:40&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
     <t>24 19:11&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>07 15:48&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>24 19:11&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>07 16:12&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
+  </si>
+  <si>
     <t>30 16:43&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>07 16:23&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
+    <t>07 17:19&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t>30 16:43&gt;&gt;&gt; CFD8AF34C0   Megan Eng</t>
   </si>
   <si>
+    <t>07 17:47&gt;&gt;&gt; 4FD87F2960   Thomas Yoo</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 16:47&gt;&gt;&gt; 0FD8B42CC0   </t>
   </si>
   <si>
+    <t>07 17:48&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>30 16:52&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
   </si>
   <si>
+    <t>07 19:10&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 17:17&gt;&gt;&gt; 8FD89F60C0    </t>
   </si>
   <si>
+    <t>07 19:10&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>30 17:32&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
   </si>
   <si>
+    <t>07 19:55&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>30 17:39&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
   </si>
   <si>
+    <t>08 08:53&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>30 17:39&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
   </si>
   <si>
+    <t>08 08:54&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t>30 17:39&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
   </si>
   <si>
+    <t>08 09:07&gt;&gt;&gt; 8FD8AEB240   luciano.ibbott</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 17:39&gt;&gt;&gt; CFD8AFA4C0    </t>
   </si>
   <si>
+    <t>08 09:14&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 17:40&gt;&gt;&gt; 8FD8A3A820   </t>
   </si>
   <si>
+    <t>08 09:42&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 17:40&gt;&gt;&gt; CFD8AFA4C0    </t>
   </si>
   <si>
+    <t>08 09:52&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
     <t>30 17:40&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
   </si>
   <si>
+    <t>08 09:54&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
+  </si>
+  <si>
     <t>30 17:40&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
   </si>
   <si>
+    <t>08 10:03&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 17:41&gt;&gt;&gt; 8FD8A3A820    </t>
   </si>
   <si>
+    <t xml:space="preserve">08 10:04&gt;&gt;&gt; CFD8B45C40   </t>
+  </si>
+  <si>
     <t>30 17:41&gt;&gt;&gt; 8FD8A3A820   cowell,truman</t>
   </si>
   <si>
+    <t>08 10:04&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 17:41&gt;&gt;&gt; 0FD8B42CC0    </t>
   </si>
   <si>
+    <t>08 10:28&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>30 17:41&gt;&gt;&gt; 0FD8B42CC0   amin shahid</t>
   </si>
   <si>
+    <t>08 10:30&gt;&gt;&gt; 0FD8A83600   douglas smith</t>
+  </si>
+  <si>
     <t>30 17:52&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t xml:space="preserve">08 10:37&gt;&gt;&gt; 8FD88BA9C0    </t>
+  </si>
+  <si>
     <t>30 17:53&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
+    <t>08 11:11&gt;&gt;&gt; 0FD899D9C0   cammy-el allen</t>
+  </si>
+  <si>
+    <t>08 11:26&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08 11:30&gt;&gt;&gt; 0FD89E2980   </t>
+  </si>
+  <si>
     <t>30 17:53&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t xml:space="preserve">08 11:41&gt;&gt;&gt; 8FD8AEA680   </t>
+  </si>
+  <si>
     <t xml:space="preserve">30 17:57&gt;&gt;&gt; 8FD8B367A0   </t>
   </si>
   <si>
+    <t>08 11:58&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 18:01&gt;&gt;&gt; 4FD8B36A40   </t>
   </si>
   <si>
+    <t>08 12:21&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 18:01&gt;&gt;&gt; 4FD8B36A40    </t>
   </si>
   <si>
+    <t>08 12:22&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t>30 18:31&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t xml:space="preserve">08 12:49&gt;&gt;&gt; CFD8B3CA60   </t>
+  </si>
+  <si>
     <t>30 19:20&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
   </si>
   <si>
+    <t>08 12:49&gt;&gt;&gt; 4FD8AB6C20   Freddy Beltran</t>
+  </si>
+  <si>
     <t>30 19:21&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
   </si>
   <si>
+    <t xml:space="preserve">08 13:09&gt;&gt;&gt; 0FD8AE84A0    </t>
+  </si>
+  <si>
     <t xml:space="preserve">30 19:54&gt;&gt;&gt; 0FD8B45C20   </t>
   </si>
   <si>
+    <t xml:space="preserve">08 13:18&gt;&gt;&gt; CFD8B6A840   </t>
+  </si>
+  <si>
     <t xml:space="preserve">31 08:27&gt;&gt;&gt; 8FD8B68DE0   </t>
   </si>
   <si>
+    <t xml:space="preserve">08 13:23&gt;&gt;&gt; 4FD8B3E300   </t>
+  </si>
+  <si>
     <t>31 08:27&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
   </si>
   <si>
+    <t>08 13:25&gt;&gt;&gt; 8FD8AFF180   Oscar Chicaiza</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 08:27&gt;&gt;&gt; 8FD8B68DE0    </t>
   </si>
   <si>
+    <t>08 13:25&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
+  </si>
+  <si>
     <t>31 08:28&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
   </si>
   <si>
+    <t>08 13:27&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t>31 08:52&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
   </si>
   <si>
+    <t>08 13:33&gt;&gt;&gt; 8FD8A3A820   cowell,truman</t>
+  </si>
+  <si>
     <t>31 09:01&gt;&gt;&gt; 0FD8A61420   Duban hershely</t>
   </si>
   <si>
+    <t>08 13:35&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t>31 09:01&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
   </si>
   <si>
+    <t xml:space="preserve">08 13:36&gt;&gt;&gt; 8FD8B367A0    </t>
+  </si>
+  <si>
     <t>31 09:20&gt;&gt;&gt; 0FD8AFCD00   Joshua Itteera</t>
   </si>
   <si>
+    <t>08 13:36&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
     <t>31 09:21&gt;&gt;&gt; 0FD8AFCD00   Joshua Itteera</t>
   </si>
   <si>
+    <t xml:space="preserve">08 13:38&gt;&gt;&gt; 0FD8AC1480   </t>
+  </si>
+  <si>
     <t xml:space="preserve">31 09:26&gt;&gt;&gt; 0FD8B60440    </t>
   </si>
   <si>
+    <t>08 13:39&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
     <t>31 09:54&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>08 13:40&gt;&gt;&gt; 8FD8A57200   Averill Curameng</t>
+  </si>
+  <si>
     <t>31 10:00&gt;&gt;&gt; CFD8ADF120   Patrick Mclaughlin</t>
   </si>
   <si>
+    <t>08 15:02&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>31 10:20&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
+    <t>08 15:44&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>31 10:34&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
   </si>
   <si>
+    <t xml:space="preserve">08 15:45&gt;&gt;&gt; 0FD8A87380   Crystal Evelyn </t>
+  </si>
+  <si>
     <t>31 10:41&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
   </si>
   <si>
+    <t>08 15:50&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
+  </si>
+  <si>
     <t>31 10:51&gt;&gt;&gt; 8FD8A60A60   ferguson elaina</t>
   </si>
   <si>
+    <t>08 15:52&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>31 10:53&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
   </si>
   <si>
+    <t>08 16:11&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
     <t>31 11:45&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
   </si>
   <si>
+    <t>08 16:27&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>31 12:02&gt;&gt;&gt; 4FD8B5DC60   Nadine Espinosa</t>
   </si>
   <si>
+    <t>08 17:14&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 13:15&gt;&gt;&gt; 8FD8B65040   </t>
   </si>
   <si>
+    <t>08 18:04&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 13:27&gt;&gt;&gt; 0FD8B60440    </t>
   </si>
   <si>
+    <t>08 18:52&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 13:37&gt;&gt;&gt; CFD8AEC840   </t>
   </si>
   <si>
+    <t xml:space="preserve">08 19:11&gt;&gt;&gt; CFD8B45C40    </t>
+  </si>
+  <si>
     <t>31 13:38&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
   </si>
   <si>
+    <t>08 20:41&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>31 13:43&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
   </si>
   <si>
+    <t>08 20:44&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>31 13:45&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
+    <t>08 20:46&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>08 20:47&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 13:48&gt;&gt;&gt; 8FD8ADBD20   </t>
+  </si>
+  <si>
+    <t>08 20:51&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
   </si>
   <si>
     <t>31 13:56&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
@@ -1236,12 +1458,12 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1253,12 +1475,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="3" name="Comma" xfId="0"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
-    <cellStyle builtinId="4" name="Currency" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
     <cellStyle builtinId="7" name="Currency [0]" xfId="3"/>
-    <cellStyle builtinId="5" name="Percent" xfId="4"/>
-    <cellStyle builtinId="0" name="Normal" xfId="5"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -2860,595 +3082,823 @@
       <c r="A162" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="B162" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="163" s="2" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="B163" t="s">
+        <v>285</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="164" s="2" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="B164" t="s">
+        <v>287</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="165" s="2" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+      <c r="B165" t="s">
+        <v>287</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="166" s="2" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="B166" t="s">
+        <v>290</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="167" s="2" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
+      </c>
+      <c r="B167" t="s">
+        <v>292</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="168" s="2" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
+      </c>
+      <c r="B168" t="s">
+        <v>294</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="169" s="2" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
+      </c>
+      <c r="B169" t="s">
+        <v>296</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="170" s="2" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
+      </c>
+      <c r="B170" t="s">
+        <v>298</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="171" s="2" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
+      </c>
+      <c r="B171" t="s">
+        <v>300</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="172" s="2" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+      <c r="B172" t="s">
+        <v>302</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="173" s="2" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
+      </c>
+      <c r="B173" t="s">
+        <v>304</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="174" s="2" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
+      </c>
+      <c r="B174" t="s">
+        <v>305</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="175" s="2" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
+      </c>
+      <c r="B175" t="s">
+        <v>307</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="176" s="2" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
+      </c>
+      <c r="B176" t="s">
+        <v>309</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="177" s="2" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>296</v>
+        <v>310</v>
+      </c>
+      <c r="B177" t="s">
+        <v>311</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="178" s="2" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>297</v>
+        <v>312</v>
+      </c>
+      <c r="B178" t="s">
+        <v>313</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="179" s="2" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
+      </c>
+      <c r="B179" t="s">
+        <v>315</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="180" s="2" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
+      </c>
+      <c r="B180" t="s">
+        <v>316</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="181" s="2" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
+      </c>
+      <c r="B181" t="s">
+        <v>318</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="182" s="2" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>300</v>
+        <v>319</v>
+      </c>
+      <c r="B182" t="s">
+        <v>320</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="183" s="2" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>301</v>
+        <v>321</v>
+      </c>
+      <c r="B183" t="s">
+        <v>322</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="184" s="2" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>302</v>
+        <v>323</v>
+      </c>
+      <c r="B184" t="s">
+        <v>324</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="185" s="2" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>303</v>
+        <v>325</v>
+      </c>
+      <c r="B185" t="s">
+        <v>326</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="186" s="2" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>304</v>
+        <v>327</v>
+      </c>
+      <c r="B186" t="s">
+        <v>328</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="187" s="2" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>305</v>
+        <v>329</v>
+      </c>
+      <c r="B187" t="s">
+        <v>330</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="188" s="2" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
+      </c>
+      <c r="B188" t="s">
+        <v>332</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="189" s="2" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>307</v>
+        <v>333</v>
+      </c>
+      <c r="B189" t="s">
+        <v>334</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="190" s="2" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>308</v>
+        <v>335</v>
+      </c>
+      <c r="B190" t="s">
+        <v>336</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="191" s="2" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>309</v>
+        <v>337</v>
+      </c>
+      <c r="B191" t="s">
+        <v>338</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="192" s="2" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>310</v>
+        <v>339</v>
+      </c>
+      <c r="B192" t="s">
+        <v>340</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="193" s="2" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>311</v>
+        <v>341</v>
+      </c>
+      <c r="B193" t="s">
+        <v>342</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="194" s="2" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>312</v>
+        <v>343</v>
+      </c>
+      <c r="B194" t="s">
+        <v>344</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="195" s="2" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>313</v>
+        <v>345</v>
+      </c>
+      <c r="B195" t="s">
+        <v>346</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="196" s="2" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>314</v>
+        <v>347</v>
+      </c>
+      <c r="B196" t="s">
+        <v>348</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="197" s="2" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
+      </c>
+      <c r="B197" t="s">
+        <v>350</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="198" s="2" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>316</v>
+        <v>351</v>
+      </c>
+      <c r="B198" t="s">
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="199" s="2" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>317</v>
+        <v>353</v>
+      </c>
+      <c r="B199" t="s">
+        <v>354</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="200" s="2" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>317</v>
+        <v>353</v>
+      </c>
+      <c r="B200" t="s">
+        <v>355</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="201" s="2" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>317</v>
+        <v>353</v>
+      </c>
+      <c r="B201" t="s">
+        <v>356</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="202" s="2" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>318</v>
+        <v>357</v>
+      </c>
+      <c r="B202" t="s">
+        <v>358</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="203" s="2" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>319</v>
+        <v>359</v>
+      </c>
+      <c r="B203" t="s">
+        <v>360</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="204" s="2" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>320</v>
+        <v>361</v>
+      </c>
+      <c r="B204" t="s">
+        <v>362</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="205" s="2" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>321</v>
+        <v>363</v>
+      </c>
+      <c r="B205" t="s">
+        <v>364</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="206" s="2" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>322</v>
+        <v>365</v>
+      </c>
+      <c r="B206" t="s">
+        <v>366</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="207" s="2" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>323</v>
+        <v>367</v>
+      </c>
+      <c r="B207" t="s">
+        <v>368</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="208" s="2" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>324</v>
+        <v>369</v>
+      </c>
+      <c r="B208" t="s">
+        <v>370</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="209" s="2" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>325</v>
+        <v>371</v>
+      </c>
+      <c r="B209" t="s">
+        <v>372</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="210" s="2" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>326</v>
+        <v>373</v>
+      </c>
+      <c r="B210" t="s">
+        <v>374</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="211" s="2" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>327</v>
+        <v>375</v>
+      </c>
+      <c r="B211" t="s">
+        <v>376</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="212" s="2" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>328</v>
+        <v>377</v>
+      </c>
+      <c r="B212" t="s">
+        <v>378</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="213" s="2" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>329</v>
+        <v>379</v>
+      </c>
+      <c r="B213" t="s">
+        <v>380</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="214" s="2" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>330</v>
+        <v>381</v>
+      </c>
+      <c r="B214" t="s">
+        <v>382</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="215" s="2" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>331</v>
+        <v>383</v>
+      </c>
+      <c r="B215" t="s">
+        <v>384</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="216" s="2" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>332</v>
+        <v>385</v>
+      </c>
+      <c r="B216" t="s">
+        <v>386</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="217" s="2" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>333</v>
+        <v>387</v>
+      </c>
+      <c r="B217" t="s">
+        <v>388</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="218" s="2" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>334</v>
+        <v>389</v>
+      </c>
+      <c r="B218" t="s">
+        <v>390</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="219" s="2" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>335</v>
+        <v>391</v>
+      </c>
+      <c r="B219" t="s">
+        <v>392</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="220" s="2" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>336</v>
+        <v>393</v>
+      </c>
+      <c r="B220" t="s">
+        <v>394</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="221" s="2" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>337</v>
+        <v>395</v>
+      </c>
+      <c r="B221" t="s">
+        <v>396</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="222" s="2" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>338</v>
+        <v>397</v>
+      </c>
+      <c r="B222" t="s">
+        <v>398</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="223" s="2" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>339</v>
+        <v>399</v>
+      </c>
+      <c r="B223" t="s">
+        <v>400</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="224" s="2" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>340</v>
+        <v>401</v>
+      </c>
+      <c r="B224" t="s">
+        <v>402</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="225" s="2" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>341</v>
+        <v>403</v>
+      </c>
+      <c r="B225" t="s">
+        <v>404</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="226" s="2" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>342</v>
+        <v>405</v>
+      </c>
+      <c r="B226" t="s">
+        <v>406</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="227" s="2" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>343</v>
+        <v>407</v>
+      </c>
+      <c r="B227" t="s">
+        <v>408</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="228" s="2" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>344</v>
+        <v>409</v>
+      </c>
+      <c r="B228" t="s">
+        <v>410</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="229" s="2" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>345</v>
+        <v>411</v>
+      </c>
+      <c r="B229" t="s">
+        <v>412</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="230" s="2" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>346</v>
+        <v>413</v>
+      </c>
+      <c r="B230" t="s">
+        <v>414</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="231" s="2" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>347</v>
+        <v>415</v>
+      </c>
+      <c r="B231" t="s">
+        <v>416</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="232" s="2" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>348</v>
+        <v>417</v>
+      </c>
+      <c r="B232" t="s">
+        <v>418</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="233" s="2" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>349</v>
+        <v>419</v>
+      </c>
+      <c r="B233" t="s">
+        <v>420</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="234" s="2" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="B234" t="s">
+        <v>422</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="235" s="2" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="B235" t="s">
+        <v>423</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="236" s="2" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>351</v>
+        <v>424</v>
+      </c>
+      <c r="B236" t="s">
+        <v>425</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="237" s="2" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>352</v>
+        <v>426</v>
+      </c>
+      <c r="B237" t="s">
+        <v>425</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="238" s="2" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="239" s="2" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="240" s="2" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="241" s="2" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="242" s="2" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>357</v>
+        <v>431</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="243" s="2" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="244" s="2" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="245" s="2" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="246" s="2" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="247" s="2" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="248" s="2" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="249" s="2" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="250" s="2" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="251" s="2" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="252" s="2" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="253" s="2" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="254" s="2" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="255" s="2" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="256" s="2" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="257" s="2" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="258" s="2" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="259" s="2" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="260" s="2" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="261" s="2" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="262" s="2" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="263" s="2" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="264" s="2" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="265" s="2" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="266" s="2" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="267" s="2" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="268" s="2" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="269" s="2" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="270" s="2" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="271" s="2" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="272" s="2" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="273" s="2" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="274" s="2" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="275" s="2" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="276" s="2" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="277" s="2" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="278" s="2" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="279" s="2" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>385</v>
+        <v>459</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="280" s="2" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3478,12 +3928,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>461</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="2" s="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="747">
   <si>
     <t>January 2017</t>
   </si>
   <si>
-    <t>February 2017</t>
+    <t>Feb 2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
   </si>
   <si>
     <t>saeccffrgeaa Gary Tsai 2016-08-26 16:50:26.807392</t>
@@ -29,12 +32,18 @@
     <t>01 08:49&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
   </si>
   <si>
+    <t>06 13:27&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>saeccffrgea  2016-08-26 16:52:18.777307</t>
   </si>
   <si>
     <t>01 09:06&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
   </si>
   <si>
+    <t>06 13:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>05 17:50&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
@@ -1301,103 +1310,946 @@
     <t>31 14:07&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>10 07:42&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>31 14:08&gt;&gt;&gt; 8FD8A91340   Jesse Silkworth</t>
   </si>
   <si>
+    <t xml:space="preserve">10 09:47&gt;&gt;&gt; 4FD8A0F3C0   </t>
+  </si>
+  <si>
     <t>31 14:18&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
   </si>
   <si>
+    <t>10 10:12&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>31 14:20&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
   </si>
   <si>
+    <t>10 10:58&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>31 14:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">10 11:56&gt;&gt;&gt; CFD8A8BE00   </t>
+  </si>
+  <si>
     <t>31 14:30&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
   </si>
   <si>
+    <t xml:space="preserve">10 11:56&gt;&gt;&gt; CFD8A8BE00    </t>
+  </si>
+  <si>
     <t>31 14:31&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>10 11:57&gt;&gt;&gt; CFD8A8BE00   Roger Webb</t>
+  </si>
+  <si>
     <t>31 14:44&gt;&gt;&gt; CFD8A1B540   Davron Zakhidov</t>
   </si>
   <si>
+    <t>10 12:47&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
+    <t>10 13:41&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>31 14:46&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t xml:space="preserve">10 16:17&gt;&gt;&gt; 0FD8B5EBC0    </t>
+  </si>
+  <si>
     <t>31 14:50&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t>10 18:03&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 15:03&gt;&gt;&gt; 8FD8A8D440   </t>
   </si>
   <si>
+    <t>14 08:23&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 15:03&gt;&gt;&gt; 8FD8A8D440    </t>
   </si>
   <si>
+    <t xml:space="preserve">14 08:39&gt;&gt;&gt; 4FD8A0F3C0    </t>
+  </si>
+  <si>
     <t xml:space="preserve">31 15:04&gt;&gt;&gt; 8FD8A8D440    </t>
   </si>
   <si>
+    <t>14 14:10&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 15:05&gt;&gt;&gt; 0FD8AE9A00   </t>
   </si>
   <si>
+    <t>14 14:11&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 15:05&gt;&gt;&gt; 0FD8AE9A00    </t>
   </si>
   <si>
+    <t>14 14:11&gt;&gt;&gt; 0FD8AFCD00   Joshua Itteera</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 15:06&gt;&gt;&gt; 0FD8AE9A00    </t>
   </si>
   <si>
+    <t xml:space="preserve">14 14:11&gt;&gt;&gt; CFD8B47E80   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 14:13&gt;&gt;&gt; CFD8B47E80    </t>
+  </si>
+  <si>
     <t>31 16:26&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>14 14:13&gt;&gt;&gt; CFD8B47E80   Derek Mcfadden</t>
+  </si>
+  <si>
+    <t>14 14:14&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
+    <t>14 14:14&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 14:14&gt;&gt;&gt; 8FD8B39BA0    </t>
+  </si>
+  <si>
     <t>31 16:29&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
   </si>
   <si>
+    <t>14 14:15&gt;&gt;&gt; 8FD8B39BA0   mervyn payne</t>
+  </si>
+  <si>
     <t>31 16:44&gt;&gt;&gt; 0FD8B42CC0   amin shahid</t>
   </si>
   <si>
+    <t>14 14:29&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t>31 16:56&gt;&gt;&gt; 8FD8AFD100   rahyner penaranda</t>
   </si>
   <si>
+    <t>14 14:42&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>14 15:09&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
     <t>31 17:28&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t>14 15:19&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
     <t>31 17:36&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
   </si>
   <si>
+    <t>14 15:32&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 17:39&gt;&gt;&gt; 8FD8ADBD20    </t>
   </si>
   <si>
+    <t xml:space="preserve">14 16:05&gt;&gt;&gt; 4FD8B3E300    </t>
+  </si>
+  <si>
     <t xml:space="preserve">31 18:56&gt;&gt;&gt; 8FD8ADBD20    </t>
   </si>
   <si>
+    <t>14 16:06&gt;&gt;&gt; 0FD8A88320   Oscar Delgado</t>
+  </si>
+  <si>
+    <t>14 16:23&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 18:57&gt;&gt;&gt; 8FD8ADBD20    </t>
   </si>
   <si>
+    <t>14 16:27&gt;&gt;&gt; 0FD8A7F9C0   Jawaan Johnson</t>
+  </si>
+  <si>
     <t>31 19:07&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
   </si>
   <si>
+    <t>14 16:29&gt;&gt;&gt; 8FD8B3F160   stylianos kalamaras</t>
+  </si>
+  <si>
     <t>31 19:12&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>14 16:29&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>31 19:19&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>14 17:47&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
     <t>31 19:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>14 17:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>31 19:23&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>14 18:18&gt;&gt;&gt; 0FD8A88320   Oscar Delgado</t>
+  </si>
+  <si>
     <t xml:space="preserve">31 19:23&gt;&gt;&gt; 0FD8A87380   Crystal Evelyn </t>
   </si>
   <si>
+    <t>14 18:41&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
+  </si>
+  <si>
     <t>31 19:24&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
   </si>
   <si>
+    <t>14 18:49&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>31 19:26&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>14 18:50&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
     <t>31 19:33&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>14 19:21&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
+    <t>14 19:21&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>14 19:39&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
+    <t>14 19:54&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>14 20:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>15 08:56&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
+    <t>15 09:03&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
+  </si>
+  <si>
+    <t>15 09:19&gt;&gt;&gt; 0FD8A61420   Duban hershely</t>
+  </si>
+  <si>
+    <t>15 09:25&gt;&gt;&gt; CFD8A37420   Bria John</t>
+  </si>
+  <si>
+    <t>15 09:35&gt;&gt;&gt; CFD89DF220   Michael Reis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 09:50&gt;&gt;&gt; CFD8B45C40    </t>
+  </si>
+  <si>
+    <t>15 10:14&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
+    <t>15 10:20&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
+  </si>
+  <si>
+    <t>15 10:22&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>15 10:29&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
+    <t>15 10:48&gt;&gt;&gt; 0FD8A83600   douglas smith</t>
+  </si>
+  <si>
+    <t>15 11:07&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
+    <t>15 11:33&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
+  </si>
+  <si>
+    <t>15 11:45&gt;&gt;&gt; 0FD8A6DF00   Raida Okeke</t>
+  </si>
+  <si>
+    <t>15 11:45&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>15 11:56&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>15 12:08&gt;&gt;&gt; 0FD8A61420   Duban hershely</t>
+  </si>
+  <si>
+    <t>15 12:10&gt;&gt;&gt; CFD8A37420   Bria John</t>
+  </si>
+  <si>
+    <t>15 12:13&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
+  </si>
+  <si>
+    <t>15 13:02&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
+    <t>15 13:09&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
+    <t>15 13:20&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
+    <t>15 13:20&gt;&gt;&gt; 8FD8A3A820   cowell,truman</t>
+  </si>
+  <si>
+    <t>15 13:22&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
+    <t>15 13:26&gt;&gt;&gt; CFD89E8B60   catori labad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 13:32&gt;&gt;&gt; 8FD8B367A0    </t>
+  </si>
+  <si>
+    <t>15 13:32&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
+    <t>15 13:32&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
+    <t>15 13:37&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
+    <t>15 13:40&gt;&gt;&gt; CFD8A9A340   Kathleena Girling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 13:41&gt;&gt;&gt; 0FD8B395A0   </t>
+  </si>
+  <si>
+    <t>15 14:03&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>15 14:44&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>15 14:44&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>15 14:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>15 15:29&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>15 15:45&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
+    <t>15 16:03&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>15 16:14&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>15 16:16&gt;&gt;&gt; 4FD8AB6C20   Freddy Beltran</t>
+  </si>
+  <si>
+    <t>15 19:15&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 20:14&gt;&gt;&gt; 0FD8B45C20    </t>
+  </si>
+  <si>
+    <t>15 20:50&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>16 08:51&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 09:20&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
+    <t>16 10:09&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
+    <t>16 10:32&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
+    <t>16 10:40&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>16 10:42&gt;&gt;&gt; CFD8AF1280   Jonathan Gonzalez</t>
+  </si>
+  <si>
+    <t>16 10:43&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
+    <t>16 10:45&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
+    <t>16 11:02&gt;&gt;&gt; 0FD8A289E0   Pual Corrales</t>
+  </si>
+  <si>
+    <t>16 14:29&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
+    <t>16 14:29&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
+    <t>16 14:30&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>16 14:31&gt;&gt;&gt; 0FD8AD6220   Rachel james</t>
+  </si>
+  <si>
+    <t>16 14:39&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>16 14:51&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>16 14:53&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
+    <t>16 15:30&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>16 16:21&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
+    <t>16 16:25&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 16:29&gt;&gt;&gt; 0FD88D4420   </t>
+  </si>
+  <si>
+    <t>16 16:39&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
+    <t>16 17:53&gt;&gt;&gt; CFD8A51DE0   Rodolfo Olivares</t>
+  </si>
+  <si>
+    <t>16 18:45&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
+    <t>16 18:49&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 19:03&gt;&gt;&gt; 8FD8B3BFA0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 19:03&gt;&gt;&gt; 8FD8B3BFA0    </t>
+  </si>
+  <si>
+    <t>16 19:17&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
+    <t>16 19:25&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>16 20:27&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>16 21:05&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>16 21:07&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>17 07:53&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 10:13&gt;&gt;&gt; CFD8B6CB80    </t>
+  </si>
+  <si>
+    <t>17 10:17&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>17 10:53&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
+    <t>21 14:04&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>21 14:51&gt;&gt;&gt; 0FD8B4E900   Carlos De Los Santos</t>
+  </si>
+  <si>
+    <t>21 14:53&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>21 14:56&gt;&gt;&gt; CFD8A9A340   Kathleena Girling</t>
+  </si>
+  <si>
+    <t>21 15:28&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
+  </si>
+  <si>
+    <t>21 16:05&gt;&gt;&gt; 0FD8A42A20   Raquel Rosado</t>
+  </si>
+  <si>
+    <t>21 16:09&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>21 16:18&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
+  </si>
+  <si>
+    <t>21 16:26&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>21 16:28&gt;&gt;&gt; 0FD8AD6220   Rachel james</t>
+  </si>
+  <si>
+    <t>21 16:29&gt;&gt;&gt; 8FD8B39BA0   mervyn payne</t>
+  </si>
+  <si>
+    <t>21 16:39&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>21 19:01&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>21 19:15&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>21 19:16&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>21 23:37&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>22 09:00&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
+  </si>
+  <si>
+    <t>22 09:10&gt;&gt;&gt; 8FD8AEB240   luciano.ibbott</t>
+  </si>
+  <si>
+    <t>22 09:14&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>22 09:15&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
+    <t>22 09:24&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
+    <t>22 09:27&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 09:52&gt;&gt;&gt; CFD8B45C40    </t>
+  </si>
+  <si>
+    <t>22 10:01&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
+  </si>
+  <si>
+    <t>22 10:28&gt;&gt;&gt; 0FD8A61420   Duban hershely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 10:33&gt;&gt;&gt; 8FD88BA9C0    </t>
+  </si>
+  <si>
+    <t>22 10:33&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
+    <t>22 10:37&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
+  </si>
+  <si>
+    <t>22 10:41&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
+    <t>22 10:43&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
+    <t>22 10:51&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>22 11:17&gt;&gt;&gt; 8FD8A60A60   ferguson elaina</t>
+  </si>
+  <si>
+    <t>22 11:38&gt;&gt;&gt; 0FD8A83600   douglas smith</t>
+  </si>
+  <si>
+    <t>22 11:49&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>22 12:10&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
+    <t>22 12:10&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 13:05&gt;&gt;&gt; CFD8B45C40    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 13:40&gt;&gt;&gt; CFD8B3C6C0    </t>
+  </si>
+  <si>
+    <t>22 13:42&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
+    <t>22 13:42&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>22 13:46&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>22 13:50&gt;&gt;&gt; CFD8AC3C40   Roberto Flores</t>
+  </si>
+  <si>
+    <t>22 14:41&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>22 14:47&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>22 14:55&gt;&gt;&gt; CFD8A3F700   Melvin Osorio</t>
+  </si>
+  <si>
+    <t>22 15:04&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>22 16:29&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>22 16:46&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>22 16:47&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>22 17:41&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>22 17:44&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
+    <t>22 17:54&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
+  </si>
+  <si>
+    <t>22 17:54&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
+  </si>
+  <si>
+    <t>22 17:58&gt;&gt;&gt; CFD8B47E80   Derek Mcfadden</t>
+  </si>
+  <si>
+    <t>22 19:20&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
+    <t>22 19:31&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>22 20:10&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
+    <t>22 20:47&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>22 20:50&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>23 09:06&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
+    <t>23 09:06&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 09:15&gt;&gt;&gt; 8FD8985540    </t>
+  </si>
+  <si>
+    <t>23 09:22&gt;&gt;&gt; 8FD8940860   David Schachner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 09:24&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
+    <t>23 10:36&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>23 10:45&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
+    <t>23 10:55&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
+    <t>23 10:55&gt;&gt;&gt; 8FD8A60A60   ferguson elaina</t>
+  </si>
+  <si>
+    <t>23 11:46&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
+  </si>
+  <si>
+    <t>23 12:03&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 12:04&gt;&gt;&gt; 0FD8AE84A0    </t>
+  </si>
+  <si>
+    <t>23 12:10&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>23 12:12&gt;&gt;&gt; CFD8A9A340   Kathleena Girling</t>
+  </si>
+  <si>
+    <t>23 12:14&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
+    <t>23 12:17&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
+    <t>23 12:21&gt;&gt;&gt; 8FD8AFD100   rahyner penaranda</t>
+  </si>
+  <si>
+    <t>23 12:57&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
+    <t>23 13:03&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
+  </si>
+  <si>
+    <t>23 13:31&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>23 13:32&gt;&gt;&gt; CFD8AF34C0   Megan Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 13:38&gt;&gt;&gt; CFD8B6A840    </t>
+  </si>
+  <si>
+    <t>23 13:40&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
+    <t>23 13:42&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
+    <t>23 14:20&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
+  </si>
+  <si>
+    <t>23 14:23&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>23 14:26&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>23 14:30&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
+    <t>23 14:34&gt;&gt;&gt; CFD8A522E0   Carlos Quezada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 14:34&gt;&gt;&gt; 8FD8A8D440    </t>
+  </si>
+  <si>
+    <t>23 14:35&gt;&gt;&gt; 8FD8A8D440   James Dennis</t>
+  </si>
+  <si>
+    <t>23 15:59&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 16:20&gt;&gt;&gt; 0FD88D4420    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 16:30&gt;&gt;&gt; CFD8B37BC0   </t>
+  </si>
+  <si>
+    <t>23 16:30&gt;&gt;&gt; 4FD8967620   Robert Morel</t>
+  </si>
+  <si>
+    <t>23 16:44&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
+    <t>23 16:47&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>23 17:09&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>23 17:26&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
+    <t>23 17:26&gt;&gt;&gt; 8FD8A327A0   Ronnie Gueera</t>
+  </si>
+  <si>
+    <t>23 17:45&gt;&gt;&gt; 8FD8B39BA0   mervyn payne</t>
+  </si>
+  <si>
+    <t>23 17:48&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
+    <t>23 18:43&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
+    <t>23 19:26&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>23 20:00&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>24 07:57&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>24 10:07&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>24 11:25&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 12:51&gt;&gt;&gt; 0FD8B5EBC0    </t>
+  </si>
+  <si>
+    <t>24 14:13&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>24 16:53&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
+    <t>24 17:54&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>24 18:55&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
+    <t>27 20:30&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>28 08:07&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
+  </si>
+  <si>
+    <t>28 08:58&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
+    <t>28 09:07&gt;&gt;&gt; 8FD8A8B840   Edan Benmelech</t>
+  </si>
+  <si>
+    <t>28 09:28&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
+    <t>28 09:41&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>28 09:48&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>28 10:10&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 10:20&gt;&gt;&gt; CFD8B4EB20   </t>
+  </si>
+  <si>
+    <t>28 10:23&gt;&gt;&gt; 8FD8A60A60   ferguson elaina</t>
+  </si>
+  <si>
+    <t>28 10:40&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
+    <t>28 10:41&gt;&gt;&gt; CFD8AF1280   Jonathan Gonzalez</t>
+  </si>
+  <si>
+    <t>28 10:42&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
+    <t>28 10:49&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
+    <t>28 10:51&gt;&gt;&gt; 0FD8B4E900   Carlos De Los Santos</t>
+  </si>
+  <si>
+    <t>28 11:57&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 12:04&gt;&gt;&gt; CFD8B37BC0    </t>
+  </si>
+  <si>
+    <t>28 12:05&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 12:08&gt;&gt;&gt; 8FD8985540    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 12:57&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
+    <t>28 13:05&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>28 13:19&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 13:25&gt;&gt;&gt; CFD8B68E00   </t>
+  </si>
+  <si>
+    <t>28 13:35&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 13:36&gt;&gt;&gt; 0FD8B6B040   </t>
+  </si>
+  <si>
+    <t>28 13:42&gt;&gt;&gt; 8FD8A8D440   James Dennis</t>
+  </si>
+  <si>
+    <t>28 14:16&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>28 14:19&gt;&gt;&gt; 0FD8AE9A00   Kenneth akan</t>
+  </si>
+  <si>
+    <t>28 14:56&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
+    <t>28 15:28&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
+    <t>28 16:19&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
+    <t>28 16:23&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
+    <t>28 16:26&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
+    <t>28 16:35&gt;&gt;&gt; 0FD8A7F9C0   Jawaan Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 16:41&gt;&gt;&gt; 4FD8B3E300    </t>
+  </si>
+  <si>
+    <t>28 16:42&gt;&gt;&gt; 4FD8B3E300   yeriel Marte</t>
+  </si>
+  <si>
+    <t>28 16:44&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
+    <t>28 16:47&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
+    <t>28 17:28&gt;&gt;&gt; 0FD8A6DF00   Raida Okeke</t>
+  </si>
+  <si>
+    <t>28 17:46&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
+    <t>28 17:57&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
+    <t>28 18:53&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
+  </si>
+  <si>
+    <t>28 18:58&gt;&gt;&gt; 0FD8A88320   Oscar Delgado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 19:05&gt;&gt;&gt; CFD8B41720   </t>
+  </si>
+  <si>
+    <t>28 19:58&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
+  </si>
+  <si>
+    <t>06 13:17&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>Month</t>
@@ -1413,7 +2265,7 @@
   <numFmts count="1">
     <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -1439,6 +2291,13 @@
       <color rgb="00000000"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1458,29 +2317,29 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="17">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="5" name="Percent" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="3"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="0"/>
+    <cellStyle builtinId="4" name="Currency" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="0" name="Normal" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1776,2129 +2635,3516 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:C530"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A281" activeCellId="0" pane="topLeft" sqref="A281"/>
+      <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="70.85446009389671"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="84.40375586854459"/>
-    <col customWidth="1" max="1025" min="4" style="1" width="28.7089201877934"/>
+    <col customWidth="1" max="1" min="1" style="1" width="119.018779342723"/>
+    <col customWidth="1" max="2" min="2" style="1" width="54.5305164319249"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="50"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="2" spans="1:2">
+    <row customHeight="1" ht="15" r="1" s="2" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" s="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" s="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="2" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="2" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="2" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="2" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="6" s="2" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="2" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="2" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="2" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="2" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" s="2" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="2" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="13" s="2" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="14" s="2" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="15" s="2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="2" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="17" s="2" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="18" s="2" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="19" s="2" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="20" s="2" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="21" s="2" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="22" s="2" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="23" s="2" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="24" s="2" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="2" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="25" s="2" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" s="2" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="26" s="2" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="2" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="27" s="2" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" s="2" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="28" s="2" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28" s="2" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="29" s="2" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29" s="2" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="30" s="2" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="2" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="31" s="2" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31" s="2" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="32" s="2" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32" s="2" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="33" s="2" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33" s="2" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="34" s="2" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34" s="2" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="35" s="2" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35" s="2" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="36" s="2" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="2" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="37" s="2" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37" s="2" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="38" s="2" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38" s="2" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="39" s="2" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39" s="2" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="40" s="2" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" s="2" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="41" s="2" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" s="2" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="42" s="2" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" s="2" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="43" s="2" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" s="2" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="44" s="2" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" s="2" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="45" s="2" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" s="2" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="46" s="2" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" s="2" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="47" s="2" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" s="2" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="48" s="2" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" s="2" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="49" s="2" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" s="2" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="50" s="2" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="50" s="2" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="51" s="2" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="51" s="2" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="52" s="2" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="52" s="2" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="53" s="2" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="53" s="2" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="54" s="2" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="54" s="2" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="55" s="2" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="55" s="2" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="56" s="2" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="56" s="2" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="57" s="2" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="57" s="2" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="58" s="2" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="58" s="2" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="59" s="2" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="59" s="2" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="60" s="2" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="60" s="2" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="61" s="2" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="61" s="2" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="62" s="2" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="62" s="2" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="63" s="2" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="63" s="2" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="64" s="2" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="64" s="2" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="65" s="2" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="65" s="2" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="66" s="2" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="66" s="2" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="67" s="2" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="67" s="2" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="68" s="2" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="68" s="2" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="69" s="2" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="69" s="2" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="70" s="2" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="70" s="2" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="71" s="2" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="71" s="2" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="72" s="2" spans="1:2">
+        <v>127</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="72" s="2" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="73" s="2" spans="1:2">
+        <v>127</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="73" s="2" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="74" s="2" spans="1:2">
+        <v>130</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="74" s="2" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="75" s="2" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="75" s="2" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="76" s="2" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="76" s="2" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="77" s="2" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="77" s="2" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="78" s="2" spans="1:2">
+        <v>137</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="78" s="2" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="79" s="2" spans="1:2">
+        <v>139</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="79" s="2" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="80" s="2" spans="1:2">
+        <v>139</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="80" s="2" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="81" s="2" spans="1:2">
+      <c r="B80" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="81" s="2" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="82" s="2" spans="1:2">
+        <v>139</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="82" s="2" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="83" s="2" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="83" s="2" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="84" s="2" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="84" s="2" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="85" s="2" spans="1:2">
+        <v>147</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="85" s="2" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="86" s="2" spans="1:2">
+        <v>148</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="86" s="2" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="87" s="2" spans="1:2">
+        <v>148</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="87" s="2" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B87" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="88" s="2" spans="1:2">
+        <v>151</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="88" s="2" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="89" s="2" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="89" s="2" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="90" s="2" spans="1:2">
+        <v>155</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="90" s="2" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="91" s="2" spans="1:2">
+        <v>157</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="91" s="2" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="92" s="2" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="92" s="2" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B92" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="93" s="2" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="93" s="2" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="94" s="2" spans="1:2">
+        <v>162</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="94" s="2" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B94" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="95" s="2" spans="1:2">
+        <v>164</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="95" s="2" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="96" s="2" spans="1:2">
+        <v>166</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="96" s="2" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="97" s="2" spans="1:2">
+        <v>168</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="97" s="2" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="98" s="2" spans="1:2">
+        <v>170</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="98" s="2" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="99" s="2" spans="1:2">
+        <v>170</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="99" s="2" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B99" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="100" s="2" spans="1:2">
+        <v>173</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="100" s="2" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B100" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="101" s="2" spans="1:2">
+        <v>174</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="101" s="2" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B101" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="102" s="2" spans="1:2">
+        <v>176</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="102" s="2" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B102" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="103" s="2" spans="1:2">
+        <v>178</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="103" s="2" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="104" s="2" spans="1:2">
+        <v>180</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="104" s="2" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B104" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="105" s="2" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="105" s="2" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B105" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="106" s="2" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="106" s="2" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B106" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="107" s="2" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="107" s="2" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B107" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="108" s="2" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="108" s="2" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="109" s="2" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="109" s="2" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B109" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="110" s="2" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="110" s="2" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B110" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="111" s="2" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="111" s="2" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B111" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="112" s="2" spans="1:2">
+      <c r="B111" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="112" s="2" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B112" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="113" s="2" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="113" s="2" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="114" s="2" spans="1:2">
+        <v>196</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="114" s="2" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="115" s="2" spans="1:2">
+        <v>198</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="115" s="2" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="116" s="2" spans="1:2">
+        <v>200</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="116" s="2" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B116" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="117" s="2" spans="1:2">
+        <v>202</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="117" s="2" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B117" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="118" s="2" spans="1:2">
+        <v>204</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="118" s="2" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="119" s="2" spans="1:2">
+        <v>206</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="119" s="2" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B119" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="120" s="2" spans="1:2">
+        <v>208</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="120" s="2" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B120" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="121" s="2" spans="1:2">
+        <v>210</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="121" s="2" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="122" s="2" spans="1:2">
+        <v>212</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="122" s="2" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B122" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="123" s="2" spans="1:2">
+        <v>214</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="123" s="2" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B123" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="124" s="2" spans="1:2">
+        <v>216</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="124" s="2" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="125" s="2" spans="1:2">
+        <v>216</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="125" s="2" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B125" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="126" s="2" spans="1:2">
+        <v>219</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="126" s="2" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B126" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="127" s="2" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="127" s="2" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B127" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="128" s="2" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="128" s="2" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="129" s="2" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="129" s="2" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B129" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="130" s="2" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="130" s="2" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B130" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="131" s="2" spans="1:2">
+        <v>228</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="131" s="2" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B131" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="132" s="2" spans="1:2">
+        <v>230</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="132" s="2" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B132" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="133" s="2" spans="1:2">
+        <v>230</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="133" s="2" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B133" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="134" s="2" spans="1:2">
+        <v>233</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="134" s="2" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B134" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="135" s="2" spans="1:2">
+        <v>235</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="135" s="2" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B135" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="136" s="2" spans="1:2">
+        <v>235</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="136" s="2" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B136" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="137" s="2" spans="1:2">
+        <v>238</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="137" s="2" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B137" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="138" s="2" spans="1:2">
+        <v>240</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="138" s="2" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B138" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="139" s="2" spans="1:2">
+        <v>240</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="139" s="2" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B139" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="140" s="2" spans="1:2">
+        <v>243</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="140" s="2" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B140" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="141" s="2" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="141" s="2" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B141" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="142" s="2" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="142" s="2" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B142" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="143" s="2" spans="1:2">
+        <v>249</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="143" s="2" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B143" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="144" s="2" spans="1:2">
+        <v>249</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="144" s="2" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B144" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="145" s="2" spans="1:2">
+        <v>252</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="145" s="2" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B145" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="146" s="2" spans="1:2">
+        <v>254</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="146" s="2" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B146" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="147" s="2" spans="1:2">
+        <v>256</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="147" s="2" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B147" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="148" s="2" spans="1:2">
+        <v>258</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="148" s="2" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B148" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="149" s="2" spans="1:2">
+        <v>258</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="149" s="2" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B149" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="150" s="2" spans="1:2">
+      <c r="B149" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="150" s="2" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B150" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="151" s="2" spans="1:2">
+        <v>262</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="151" s="2" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B151" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="152" s="2" spans="1:2">
+        <v>264</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="152" s="2" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B152" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="153" s="2" spans="1:2">
+        <v>266</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="153" s="2" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B153" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="154" s="2" spans="1:2">
+        <v>268</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="154" s="2" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B154" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="155" s="2" spans="1:2">
+        <v>270</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="155" s="2" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B155" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="156" s="2" spans="1:2">
+        <v>272</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="156" s="2" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B156" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="157" s="2" spans="1:2">
+        <v>274</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="157" s="2" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B157" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="158" s="2" spans="1:2">
+        <v>276</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="158" s="2" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B158" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="159" s="2" spans="1:2">
+        <v>278</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="159" s="2" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B159" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="160" s="2" spans="1:2">
+        <v>280</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="160" s="2" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B160" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="161" s="2" spans="1:2">
+        <v>281</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="161" s="2" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B161" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="162" s="2" spans="1:2">
+        <v>283</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="162" s="2" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="163" s="2" spans="1:2">
+        <v>285</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="163" s="2" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B163" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="164" s="2" spans="1:2">
+        <v>287</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="164" s="2" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B164" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="165" s="2" spans="1:2">
+        <v>289</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="165" s="2" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B165" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="166" s="2" spans="1:2">
+        <v>291</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="166" s="2" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B166" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="167" s="2" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="167" s="2" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B167" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="168" s="2" spans="1:2">
+        <v>294</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="168" s="2" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B168" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="169" s="2" spans="1:2">
+        <v>296</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="169" s="2" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B169" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="170" s="2" spans="1:2">
+        <v>298</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="170" s="2" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B170" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="171" s="2" spans="1:2">
+        <v>300</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="171" s="2" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B171" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="172" s="2" spans="1:2">
+        <v>302</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="172" s="2" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B172" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="173" s="2" spans="1:2">
+        <v>304</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="173" s="2" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B173" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="174" s="2" spans="1:2">
+        <v>306</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="174" s="2" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B174" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="175" s="2" spans="1:2">
+        <v>306</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="175" s="2" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B175" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="176" s="2" spans="1:2">
+        <v>309</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="176" s="2" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B176" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="177" s="2" spans="1:2">
+        <v>311</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="177" s="2" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B177" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="178" s="2" spans="1:2">
+        <v>313</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="178" s="2" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B178" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="179" s="2" spans="1:2">
+        <v>315</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="179" s="2" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B179" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="180" s="2" spans="1:2">
+        <v>317</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="180" s="2" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B180" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="181" s="2" spans="1:2">
+        <v>317</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="181" s="2" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B181" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="182" s="2" spans="1:2">
+        <v>320</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="182" s="2" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B182" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="183" s="2" spans="1:2">
+        <v>322</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="183" s="2" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B183" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="184" s="2" spans="1:2">
+        <v>324</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="184" s="2" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B184" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="185" s="2" spans="1:2">
+        <v>326</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="185" s="2" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B185" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="186" s="2" spans="1:2">
+        <v>328</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="186" s="2" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B186" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="187" s="2" spans="1:2">
+        <v>330</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="187" s="2" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B187" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="188" s="2" spans="1:2">
+        <v>332</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="188" s="2" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B188" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="189" s="2" spans="1:2">
+        <v>334</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="189" s="2" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B189" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="190" s="2" spans="1:2">
+        <v>336</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="190" s="2" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B190" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="191" s="2" spans="1:2">
+        <v>338</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="191" s="2" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B191" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="192" s="2" spans="1:2">
+        <v>340</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="192" s="2" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B192" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="193" s="2" spans="1:2">
+        <v>342</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="193" s="2" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B193" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="194" s="2" spans="1:2">
+        <v>344</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="194" s="2" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B194" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="195" s="2" spans="1:2">
+        <v>346</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="195" s="2" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B195" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="196" s="2" spans="1:2">
+        <v>348</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="196" s="2" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B196" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="197" s="2" spans="1:2">
+        <v>350</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="197" s="2" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B197" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="198" s="2" spans="1:2">
+        <v>352</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="198" s="2" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B198" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="199" s="2" spans="1:2">
+        <v>354</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="199" s="2" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B199" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="200" s="2" spans="1:2">
+        <v>356</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="200" s="2" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B200" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="201" s="2" spans="1:2">
+        <v>356</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="201" s="2" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B201" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="202" s="2" spans="1:2">
+      <c r="B201" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="202" s="2" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B202" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="203" s="2" spans="1:2">
+        <v>360</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="203" s="2" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B203" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="204" s="2" spans="1:2">
+        <v>362</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="204" s="2" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B204" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="205" s="2" spans="1:2">
+        <v>364</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="205" s="2" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B205" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="206" s="2" spans="1:2">
+        <v>366</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="206" s="2" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B206" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="207" s="2" spans="1:2">
+        <v>368</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="207" s="2" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B207" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="208" s="2" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="208" s="2" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B208" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="209" s="2" spans="1:2">
+        <v>372</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="209" s="2" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B209" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="210" s="2" spans="1:2">
+        <v>374</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="210" s="2" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B210" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="211" s="2" spans="1:2">
+        <v>376</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="211" s="2" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B211" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="212" s="2" spans="1:2">
+        <v>378</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="212" s="2" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B212" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="213" s="2" spans="1:2">
+        <v>380</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="213" s="2" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B213" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="214" s="2" spans="1:2">
+        <v>382</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="214" s="2" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B214" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="215" s="2" spans="1:2">
+        <v>384</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="215" s="2" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B215" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="216" s="2" spans="1:2">
+        <v>386</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="216" s="2" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B216" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="217" s="2" spans="1:2">
+        <v>388</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="217" s="2" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B217" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="218" s="2" spans="1:2">
+        <v>390</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="218" s="2" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B218" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="219" s="2" spans="1:2">
+        <v>392</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="219" s="2" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B219" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="220" s="2" spans="1:2">
+        <v>394</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="220" s="2" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B220" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="221" s="2" spans="1:2">
+        <v>396</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="221" s="2" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B221" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="222" s="2" spans="1:2">
+        <v>398</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="222" s="2" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B222" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="223" s="2" spans="1:2">
+        <v>400</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="223" s="2" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B223" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="224" s="2" spans="1:2">
+        <v>402</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="224" s="2" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B224" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="225" s="2" spans="1:2">
+        <v>404</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="225" s="2" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B225" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="226" s="2" spans="1:2">
+        <v>406</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="226" s="2" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B226" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="227" s="2" spans="1:2">
+        <v>408</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="227" s="2" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B227" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="228" s="2" spans="1:2">
+        <v>410</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="228" s="2" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B228" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="229" s="2" spans="1:2">
+        <v>412</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="229" s="2" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B229" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="230" s="2" spans="1:2">
+        <v>414</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="230" s="2" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B230" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="231" s="2" spans="1:2">
+        <v>416</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="231" s="2" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B231" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="232" s="2" spans="1:2">
+        <v>418</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="232" s="2" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B232" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="233" s="2" spans="1:2">
+        <v>420</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="233" s="2" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B233" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="234" s="2" spans="1:2">
+        <v>422</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="234" s="2" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B234" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="235" s="2" spans="1:2">
+        <v>424</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="235" s="2" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B235" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="236" s="2" spans="1:2">
+        <v>424</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="236" s="2" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B236" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="237" s="2" spans="1:2">
+        <v>427</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="237" s="2" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B237" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="238" s="2" spans="1:2">
+        <v>429</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="238" s="2" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="239" s="2" spans="1:2">
+        <v>430</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="239" s="2" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="240" s="2" spans="1:2">
+        <v>432</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="240" s="2" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="241" s="2" spans="1:2">
+        <v>434</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="241" s="2" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="242" s="2" spans="1:2">
+        <v>436</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="242" s="2" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="243" s="2" spans="1:2">
+        <v>438</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="243" s="2" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="244" s="2" spans="1:2">
+        <v>440</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="244" s="2" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="245" s="2" spans="1:2">
+        <v>442</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="245" s="2" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="246" s="2" spans="1:2">
+        <v>444</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="246" s="2" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="247" s="2" spans="1:2">
+        <v>444</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="247" s="2" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="248" s="2" spans="1:2">
+        <v>447</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="248" s="2" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="249" s="2" spans="1:2">
+        <v>449</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="249" s="2" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="250" s="2" spans="1:2">
+        <v>451</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="250" s="2" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="251" s="2" spans="1:2">
+        <v>453</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="251" s="2" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="252" s="2" spans="1:2">
+        <v>455</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="252" s="2" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="253" s="2" spans="1:2">
+        <v>457</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="253" s="2" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="254" s="2" spans="1:2">
+        <v>459</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="254" s="2" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="255" s="2" spans="1:2">
+        <v>461</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="255" s="2" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="256" s="2" spans="1:2">
+        <v>461</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="256" s="2" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="257" s="2" spans="1:2">
+        <v>464</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="257" s="2" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="258" s="2" spans="1:2">
+        <v>464</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="258" s="2" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="259" s="2" spans="1:2">
+        <v>464</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="259" s="2" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="260" s="2" spans="1:2">
+        <v>464</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="260" s="2" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="261" s="2" spans="1:2">
+        <v>464</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="261" s="2" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="262" s="2" spans="1:2">
+        <v>469</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="262" s="2" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="263" s="2" spans="1:2">
+        <v>471</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="263" s="2" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="264" s="2" spans="1:2">
+        <v>473</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="264" s="2" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="265" s="2" spans="1:2">
+        <v>473</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="265" s="2" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="266" s="2" spans="1:2">
+        <v>476</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="266" s="2" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="267" s="2" spans="1:2">
+        <v>478</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="267" s="2" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="268" s="2" spans="1:2">
+        <v>480</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="268" s="2" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="269" s="2" spans="1:2">
+        <v>482</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="269" s="2" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="270" s="2" spans="1:2">
+        <v>482</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="270" s="2" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="271" s="2" spans="1:2">
+        <v>485</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="271" s="2" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="272" s="2" spans="1:2">
+        <v>487</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="272" s="2" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="273" s="2" spans="1:2">
+        <v>489</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="273" s="2" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="274" s="2" spans="1:2">
+        <v>489</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="274" s="2" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="275" s="2" spans="1:2">
+        <v>491</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="275" s="2" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="276" s="2" spans="1:2">
+        <v>493</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="276" s="2" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="277" s="2" spans="1:2">
+        <v>495</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="277" s="2" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="278" s="2" spans="1:2">
+        <v>497</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="278" s="2" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="279" s="2" spans="1:2">
+        <v>499</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="279" s="2" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="280" s="2" spans="1:2">
+        <v>501</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="280" s="2" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>460</v>
+        <v>503</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="281" s="2" spans="1:3">
+      <c r="B281" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="282" s="2" spans="1:3">
+      <c r="B282" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="283" s="2" spans="1:3">
+      <c r="B283" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="284" s="2" spans="1:3">
+      <c r="B284" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="285" s="2" spans="1:3">
+      <c r="B285" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="286" s="2" spans="1:3">
+      <c r="B286" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="287" s="2" spans="1:3">
+      <c r="B287" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="288" s="2" spans="1:3">
+      <c r="B288" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="289" s="2" spans="1:3">
+      <c r="B289" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="290" s="2" spans="1:3">
+      <c r="B290" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="291" s="2" spans="1:3">
+      <c r="B291" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="292" s="2" spans="1:3">
+      <c r="B292" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="293" s="2" spans="1:3">
+      <c r="B293" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="294" s="2" spans="1:3">
+      <c r="B294" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="295" s="2" spans="1:3">
+      <c r="B295" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="296" s="2" spans="1:3">
+      <c r="B296" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="297" s="2" spans="1:3">
+      <c r="B297" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="298" s="2" spans="1:3">
+      <c r="B298" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="299" s="2" spans="1:3">
+      <c r="B299" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="300" s="2" spans="1:3">
+      <c r="B300" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="301" s="2" spans="1:3">
+      <c r="B301" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="302" s="2" spans="1:3">
+      <c r="B302" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="303" s="2" spans="1:3">
+      <c r="B303" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="304" s="2" spans="1:3">
+      <c r="B304" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="305" s="2" spans="1:3">
+      <c r="B305" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="306" s="2" spans="1:3">
+      <c r="B306" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="307" s="2" spans="1:3">
+      <c r="B307" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="308" s="2" spans="1:3">
+      <c r="B308" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="309" s="2" spans="1:3">
+      <c r="B309" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="310" s="2" spans="1:3">
+      <c r="B310" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="311" s="2" spans="1:3">
+      <c r="B311" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="312" s="2" spans="1:3">
+      <c r="B312" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="313" s="2" spans="1:3">
+      <c r="B313" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="314" s="2" spans="1:3">
+      <c r="B314" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="315" s="2" spans="1:3">
+      <c r="B315" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="316" s="2" spans="1:3">
+      <c r="B316" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="317" s="2" spans="1:3">
+      <c r="B317" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="318" s="2" spans="1:3">
+      <c r="B318" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="319" s="2" spans="1:3">
+      <c r="B319" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="320" s="2" spans="1:3">
+      <c r="B320" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="321" s="2" spans="1:3">
+      <c r="B321" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="322" s="2" spans="1:3">
+      <c r="B322" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="323" s="2" spans="1:3">
+      <c r="B323" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="324" s="2" spans="1:3">
+      <c r="B324" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="325" s="2" spans="1:3">
+      <c r="B325" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="326" s="2" spans="1:3">
+      <c r="B326" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="327" s="2" spans="1:3">
+      <c r="B327" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="328" s="2" spans="1:3">
+      <c r="B328" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="329" s="2" spans="1:3">
+      <c r="B329" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="330" s="2" spans="1:3">
+      <c r="B330" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="331" s="2" spans="1:3">
+      <c r="B331" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="332" s="2" spans="1:3">
+      <c r="B332" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="333" s="2" spans="1:3">
+      <c r="B333" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="334" s="2" spans="1:3">
+      <c r="B334" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="335" s="2" spans="1:3">
+      <c r="B335" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="336" s="2" spans="1:3">
+      <c r="B336" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="337" s="2" spans="1:3">
+      <c r="B337" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="338" s="2" spans="1:3">
+      <c r="B338" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="339" s="2" spans="1:3">
+      <c r="B339" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="340" s="2" spans="1:3">
+      <c r="B340" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="341" s="2" spans="1:3">
+      <c r="B341" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="342" s="2" spans="1:3">
+      <c r="B342" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="343" s="2" spans="1:3">
+      <c r="B343" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="344" s="2" spans="1:3">
+      <c r="B344" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="345" s="2" spans="1:3">
+      <c r="B345" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="346" s="2" spans="1:3">
+      <c r="B346" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="347" s="2" spans="1:3">
+      <c r="B347" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="348" s="2" spans="1:3">
+      <c r="B348" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="349" s="2" spans="1:3">
+      <c r="B349" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="350" s="2" spans="1:3">
+      <c r="B350" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="351" s="2" spans="1:3">
+      <c r="B351" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="352" s="2" spans="1:3">
+      <c r="B352" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="353" s="2" spans="1:3">
+      <c r="B353" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="354" s="2" spans="1:3">
+      <c r="B354" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="355" s="2" spans="1:3">
+      <c r="B355" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="356" s="2" spans="1:3">
+      <c r="B356" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="357" s="2" spans="1:3">
+      <c r="B357" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="358" s="2" spans="1:3">
+      <c r="B358" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="359" s="2" spans="1:3">
+      <c r="B359" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="360" s="2" spans="1:3">
+      <c r="B360" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="361" s="2" spans="1:3">
+      <c r="B361" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="362" s="2" spans="1:3">
+      <c r="B362" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="363" s="2" spans="1:3">
+      <c r="B363" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="364" s="2" spans="1:3">
+      <c r="B364" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="365" s="2" spans="1:3">
+      <c r="B365" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="366" s="2" spans="1:3">
+      <c r="B366" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="367" s="2" spans="1:3">
+      <c r="B367" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="368" s="2" spans="1:3">
+      <c r="B368" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="369" s="2" spans="1:3">
+      <c r="B369" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="370" s="2" spans="1:3">
+      <c r="B370" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="371" s="2" spans="1:3">
+      <c r="B371" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="372" s="2" spans="1:3">
+      <c r="B372" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="373" s="2" spans="1:3">
+      <c r="B373" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="374" s="2" spans="1:3">
+      <c r="B374" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="375" s="2" spans="1:3">
+      <c r="B375" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="376" s="2" spans="1:3">
+      <c r="B376" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="377" s="2" spans="1:3">
+      <c r="B377" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="378" s="2" spans="1:3">
+      <c r="B378" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="379" s="2" spans="1:3">
+      <c r="B379" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="380" s="2" spans="1:3">
+      <c r="B380" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="381" s="2" spans="1:3">
+      <c r="B381" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="382" s="2" spans="1:3">
+      <c r="B382" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="383" s="2" spans="1:3">
+      <c r="B383" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="384" s="2" spans="1:3">
+      <c r="B384" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="385" s="2" spans="1:3">
+      <c r="B385" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="386" s="2" spans="1:3">
+      <c r="B386" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="387" s="2" spans="1:3">
+      <c r="B387" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="388" s="2" spans="1:3">
+      <c r="B388" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="389" s="2" spans="1:3">
+      <c r="B389" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="390" s="2" spans="1:3">
+      <c r="B390" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="391" s="2" spans="1:3">
+      <c r="B391" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="392" s="2" spans="1:3">
+      <c r="B392" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="393" s="2" spans="1:3">
+      <c r="B393" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="394" s="2" spans="1:3">
+      <c r="B394" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="395" s="2" spans="1:3">
+      <c r="B395" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="396" s="2" spans="1:3">
+      <c r="B396" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="397" s="2" spans="1:3">
+      <c r="B397" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="398" s="2" spans="1:3">
+      <c r="B398" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="399" s="2" spans="1:3">
+      <c r="B399" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="400" s="2" spans="1:3">
+      <c r="B400" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="401" s="2" spans="1:3">
+      <c r="B401" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="402" s="2" spans="1:3">
+      <c r="B402" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="403" s="2" spans="1:3">
+      <c r="B403" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="404" s="2" spans="1:3">
+      <c r="B404" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="405" s="2" spans="1:3">
+      <c r="B405" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="406" s="2" spans="1:3">
+      <c r="B406" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="407" s="2" spans="1:3">
+      <c r="B407" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="408" s="2" spans="1:3">
+      <c r="B408" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="409" s="2" spans="1:3">
+      <c r="B409" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="410" s="2" spans="1:3">
+      <c r="B410" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="411" s="2" spans="1:3">
+      <c r="B411" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="412" s="2" spans="1:3">
+      <c r="B412" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="413" s="2" spans="1:3">
+      <c r="B413" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="414" s="2" spans="1:3">
+      <c r="B414" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="415" s="2" spans="1:3">
+      <c r="B415" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="416" s="2" spans="1:3">
+      <c r="B416" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="417" s="2" spans="1:3">
+      <c r="B417" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="418" s="2" spans="1:3">
+      <c r="B418" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="419" s="2" spans="1:3">
+      <c r="B419" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="420" s="2" spans="1:3">
+      <c r="B420" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="421" s="2" spans="1:3">
+      <c r="B421" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="422" s="2" spans="1:3">
+      <c r="B422" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="423" s="2" spans="1:3">
+      <c r="B423" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="424" s="2" spans="1:3">
+      <c r="B424" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="425" s="2" spans="1:3">
+      <c r="B425" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="426" s="2" spans="1:3">
+      <c r="B426" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="427" s="2" spans="1:3">
+      <c r="B427" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="428" s="2" spans="1:3">
+      <c r="B428" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="429" s="2" spans="1:3">
+      <c r="B429" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="430" s="2" spans="1:3">
+      <c r="B430" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="431" s="2" spans="1:3">
+      <c r="B431" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="432" s="2" spans="1:3">
+      <c r="B432" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="433" s="2" spans="1:3">
+      <c r="B433" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="434" s="2" spans="1:3">
+      <c r="B434" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="435" s="2" spans="1:3">
+      <c r="B435" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="436" s="2" spans="1:3">
+      <c r="B436" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="437" s="2" spans="1:3">
+      <c r="B437" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="438" s="2" spans="1:3">
+      <c r="B438" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="439" s="2" spans="1:3">
+      <c r="B439" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="440" s="2" spans="1:3">
+      <c r="B440" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="441" s="2" spans="1:3">
+      <c r="B441" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="442" s="2" spans="1:3">
+      <c r="B442" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="443" s="2" spans="1:3">
+      <c r="B443" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="444" s="2" spans="1:3">
+      <c r="B444" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="445" s="2" spans="1:3">
+      <c r="B445" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="446" s="2" spans="1:3">
+      <c r="B446" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="447" s="2" spans="1:3">
+      <c r="B447" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="448" s="2" spans="1:3">
+      <c r="B448" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="449" s="2" spans="1:3">
+      <c r="B449" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="450" s="2" spans="1:3">
+      <c r="B450" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="451" s="2" spans="1:3">
+      <c r="B451" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="452" s="2" spans="1:3">
+      <c r="B452" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="453" s="2" spans="1:3">
+      <c r="B453" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="454" s="2" spans="1:3">
+      <c r="B454" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="455" s="2" spans="1:3">
+      <c r="B455" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="456" s="2" spans="1:3">
+      <c r="B456" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="457" s="2" spans="1:3">
+      <c r="B457" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="458" s="2" spans="1:3">
+      <c r="B458" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="459" s="2" spans="1:3">
+      <c r="B459" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="460" s="2" spans="1:3">
+      <c r="B460" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="461" s="2" spans="1:3">
+      <c r="B461" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="462" s="2" spans="1:3">
+      <c r="B462" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="463" s="2" spans="1:3">
+      <c r="B463" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="464" s="2" spans="1:3">
+      <c r="B464" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="465" s="2" spans="1:3">
+      <c r="B465" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="466" s="2" spans="1:3">
+      <c r="B466" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="467" s="2" spans="1:3">
+      <c r="B467" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="468" s="2" spans="1:3">
+      <c r="B468" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="469" s="2" spans="1:3">
+      <c r="B469" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="470" s="2" spans="1:3">
+      <c r="B470" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="471" s="2" spans="1:3">
+      <c r="B471" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="472" s="2" spans="1:3">
+      <c r="B472" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="473" s="2" spans="1:3">
+      <c r="B473" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="474" s="2" spans="1:3">
+      <c r="B474" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="475" s="2" spans="1:3">
+      <c r="B475" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="476" s="2" spans="1:3">
+      <c r="B476" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="477" s="2" spans="1:3">
+      <c r="B477" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="478" s="2" spans="1:3">
+      <c r="B478" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="479" s="2" spans="1:3">
+      <c r="B479" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="480" s="2" spans="1:3">
+      <c r="B480" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="481" s="2" spans="1:3">
+      <c r="B481" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="482" s="2" spans="1:3">
+      <c r="B482" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="483" s="2" spans="1:3">
+      <c r="B483" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="484" s="2" spans="1:3">
+      <c r="B484" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="485" s="2" spans="1:3">
+      <c r="B485" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="486" s="2" spans="1:3">
+      <c r="B486" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="487" s="2" spans="1:3">
+      <c r="B487" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="488" s="2" spans="1:3">
+      <c r="B488" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="489" s="2" spans="1:3">
+      <c r="B489" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="490" s="2" spans="1:3">
+      <c r="B490" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="491" s="2" spans="1:3">
+      <c r="B491" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="492" s="2" spans="1:3">
+      <c r="B492" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="493" s="2" spans="1:3">
+      <c r="B493" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="494" s="2" spans="1:3">
+      <c r="B494" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="495" s="2" spans="1:3">
+      <c r="B495" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="496" s="2" spans="1:3">
+      <c r="B496" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="497" s="2" spans="1:3">
+      <c r="B497" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="498" s="2" spans="1:3">
+      <c r="B498" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="499" s="2" spans="1:3">
+      <c r="B499" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="500" s="2" spans="1:3">
+      <c r="B500" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="501" s="2" spans="1:3">
+      <c r="B501" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="502" s="2" spans="1:3">
+      <c r="B502" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="503" s="2" spans="1:3">
+      <c r="B503" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="504" s="2" spans="1:3">
+      <c r="B504" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="505" s="2" spans="1:3">
+      <c r="B505" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="506" s="2" spans="1:3">
+      <c r="B506" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="507" s="2" spans="1:3">
+      <c r="B507" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="508" s="2" spans="1:3">
+      <c r="B508" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="509" s="2" spans="1:3">
+      <c r="B509" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="510" s="2" spans="1:3">
+      <c r="B510" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="511" s="2" spans="1:3">
+      <c r="B511" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="512" s="2" spans="1:3">
+      <c r="B512" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="513" s="2" spans="1:3">
+      <c r="B513" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="514" s="2" spans="1:3">
+      <c r="B514" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="515" s="2" spans="1:3">
+      <c r="B515" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="516" s="2" spans="1:3">
+      <c r="B516" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="517" s="2" spans="1:3">
+      <c r="B517" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="518" s="2" spans="1:3">
+      <c r="B518" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="519" s="2" spans="1:3">
+      <c r="B519" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="520" s="2" spans="1:3">
+      <c r="B520" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="521" s="2" spans="1:3">
+      <c r="B521" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="522" s="2" spans="1:3">
+      <c r="B522" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="523" s="2" spans="1:3">
+      <c r="B523" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="524" s="2" spans="1:3">
+      <c r="B524" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="525" s="2" spans="1:3">
+      <c r="B525" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="526" s="2" spans="1:3">
+      <c r="B526" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="527" s="2" spans="1:3">
+      <c r="B527" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="528" s="2" spans="1:3">
+      <c r="B528" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="529" s="2" spans="1:3">
+      <c r="B529" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="530" s="2" spans="1:3">
+      <c r="B530" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -3922,18 +6168,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="69.81220657276999"/>
-    <col customWidth="1" max="1025" min="2" style="1" width="28.7089201877934"/>
+    <col customWidth="1" max="1" min="1" style="1" width="117.394366197183"/>
+    <col customWidth="1" max="1025" min="2" style="1" width="47.9295774647887"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>745</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="2" s="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>462</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1256">
   <si>
     <t>January 2017</t>
   </si>
@@ -26,6 +26,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>saeccffrgeaa Gary Tsai 2016-08-26 16:50:26.807392</t>
   </si>
   <si>
@@ -35,6 +38,9 @@
     <t>06 13:27&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">03 09:19&gt;&gt;&gt; 8FD8A457A0    </t>
+  </si>
+  <si>
     <t>saeccffrgea  2016-08-26 16:52:18.777307</t>
   </si>
   <si>
@@ -44,6 +50,9 @@
     <t>06 13:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>03 09:59&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
     <t>05 17:50&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
@@ -53,12 +62,18 @@
     <t>06 13:51&gt;&gt;&gt; 8FD8A3A820   cowell,truman</t>
   </si>
   <si>
+    <t>03 10:19&gt;&gt;&gt; CFD8B45C40   Briana Sammons</t>
+  </si>
+  <si>
     <t>01 09:44&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
   </si>
   <si>
     <t>06 14:05&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
   </si>
   <si>
+    <t>03 10:57&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t>05 18:01&gt;&gt;&gt; 0FD8AC7AC0 Alfonse D'Elia</t>
   </si>
   <si>
@@ -77,6 +92,9 @@
     <t xml:space="preserve">06 14:51&gt;&gt;&gt; 0FD8B395A0    </t>
   </si>
   <si>
+    <t>03 11:08&gt;&gt;&gt; 8FD8AEB240   luciano.ibbott</t>
+  </si>
+  <si>
     <t>09 10:26&gt;&gt;&gt; 0FD8AF13C0 Rondell Holland</t>
   </si>
   <si>
@@ -86,6 +104,9 @@
     <t>06 14:52&gt;&gt;&gt; 0FD8B395A0   Wooyoung Choi</t>
   </si>
   <si>
+    <t>03 11:09&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
     <t>10 08:59&gt;&gt;&gt; CFD88517C0 Joseph Giordano</t>
   </si>
   <si>
@@ -95,6 +116,9 @@
     <t>06 14:58&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
   </si>
   <si>
+    <t>03 11:47&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
     <t>10 10:10&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
@@ -113,6 +137,9 @@
     <t>06 16:01&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
   </si>
   <si>
+    <t>03 12:08&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t>10 11:31&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
@@ -122,6 +149,9 @@
     <t>06 16:27&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
   </si>
   <si>
+    <t>03 12:12&gt;&gt;&gt; 0FD8A42A20   Raquel Rosado</t>
+  </si>
+  <si>
     <t>10 12:43&gt;&gt;&gt; 8FD8A841E0 Sujay Bhaskar KashYap</t>
   </si>
   <si>
@@ -131,6 +161,9 @@
     <t>06 16:28&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>03 12:12&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>10 13:06&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
@@ -140,6 +173,9 @@
     <t>06 17:49&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>03 12:54&gt;&gt;&gt; 4FD8AB6C20   Freddy Beltran</t>
+  </si>
+  <si>
     <t>10 13:08&gt;&gt;&gt; CFD893A460 Gary Tsai</t>
   </si>
   <si>
@@ -164,12 +200,18 @@
     <t>06 19:14&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>03 13:26&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t>10 13:19&gt;&gt;&gt; 0FD8AD9C60 everton mendozaholmes</t>
   </si>
   <si>
     <t>06 19:23&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
   </si>
   <si>
+    <t>03 13:36&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:25&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -179,12 +221,18 @@
     <t>06 19:23&gt;&gt;&gt; 0FD8AAFF40   Ulice Molina</t>
   </si>
   <si>
+    <t xml:space="preserve">03 13:47&gt;&gt;&gt; 8FD8A457A0    </t>
+  </si>
+  <si>
     <t>10 13:29&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t xml:space="preserve">06 20:09&gt;&gt;&gt; 0FD8B45C20    </t>
   </si>
   <si>
+    <t>03 13:58&gt;&gt;&gt; CFD8A522E0   Carlos Quezada</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:30&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -194,6 +242,9 @@
     <t>06 20:37&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>03 13:58&gt;&gt;&gt; 8FD8A3A820   cowell,truman</t>
+  </si>
+  <si>
     <t>10 13:36&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -209,6 +260,9 @@
     <t xml:space="preserve">07 08:52&gt;&gt;&gt; CFD8B3BD60    </t>
   </si>
   <si>
+    <t>03 14:33&gt;&gt;&gt; 0FD8B395A0   Wooyoung Choi</t>
+  </si>
+  <si>
     <t>10 13:37&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -218,21 +272,33 @@
     <t>07 12:04&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>03 14:35&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
     <t>07 12:04&gt;&gt;&gt; 8FD8A8B840   Edan Benmelech</t>
   </si>
   <si>
+    <t>03 14:41&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t>01 16:38&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
   </si>
   <si>
     <t>07 12:05&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
   </si>
   <si>
+    <t>03 14:42&gt;&gt;&gt; CFD8B45C40   Briana Sammons</t>
+  </si>
+  <si>
     <t>01 16:38&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
     <t>07 12:07&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>03 15:57&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>10 13:38&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -242,6 +308,9 @@
     <t>07 12:36&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>03 16:06&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:38&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -251,12 +320,18 @@
     <t>07 12:38&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
   </si>
   <si>
+    <t>03 16:27&gt;&gt;&gt; CFD8B45C40   Briana Sammons</t>
+  </si>
+  <si>
     <t>01 17:31&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>07 13:26&gt;&gt;&gt; 8FD8B39BA0   mervyn payne</t>
   </si>
   <si>
+    <t>03 16:54&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
     <t>10 13:40&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -275,12 +350,18 @@
     <t>07 13:43&gt;&gt;&gt; 4FD8A311C0   steve mendez</t>
   </si>
   <si>
+    <t>03 17:02&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t xml:space="preserve">01 18:08&gt;&gt;&gt; 4FD8B41A40   </t>
   </si>
   <si>
     <t>07 13:46&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t xml:space="preserve">03 17:15&gt;&gt;&gt; 8FD89F60C0    </t>
+  </si>
+  <si>
     <t>10 13:47&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
@@ -290,12 +371,18 @@
     <t>07 13:46&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
   </si>
   <si>
+    <t>03 17:18&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:47&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
     <t>07 13:47&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
   </si>
   <si>
+    <t>03 17:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:51&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -305,6 +392,9 @@
     <t>07 13:48&gt;&gt;&gt; 0FD8A6DF00   Raida Okeke</t>
   </si>
   <si>
+    <t>03 17:55&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>10 13:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -314,6 +404,9 @@
     <t>07 13:48&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>03 19:30&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
     <t>10 13:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -323,6 +416,9 @@
     <t xml:space="preserve">07 14:31&gt;&gt;&gt; 8FD8B4EBA0   </t>
   </si>
   <si>
+    <t>03 19:46&gt;&gt;&gt; 0FD8B42CC0   amin shahid</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:56&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -332,6 +428,9 @@
     <t>07 14:32&gt;&gt;&gt; CFD8B47E80   Derek Mcfadden</t>
   </si>
   <si>
+    <t>03 19:47&gt;&gt;&gt; 0FD8B42CC0   amin shahid</t>
+  </si>
+  <si>
     <t>10 13:56&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -341,6 +440,9 @@
     <t>07 14:56&gt;&gt;&gt; CFD8A9A340   Kathleena Girling</t>
   </si>
   <si>
+    <t>03 20:07&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>01 19:00&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
   </si>
   <si>
@@ -356,6 +458,9 @@
     <t>07 15:55&gt;&gt;&gt; 8FD8AE43C0   Akeem Bowling</t>
   </si>
   <si>
+    <t>03 21:06&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 13:59&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -365,12 +470,18 @@
     <t>07 16:00&gt;&gt;&gt; 8FD8A8D440   James Dennis</t>
   </si>
   <si>
+    <t>04 09:01&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:02&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
     <t>01 20:33&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>04 09:02&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:03&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -380,6 +491,9 @@
     <t>07 16:09&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>04 09:02&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:08&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -389,6 +503,9 @@
     <t>07 16:27&gt;&gt;&gt; 8FD8B39BA0   mervyn payne</t>
   </si>
   <si>
+    <t>04 09:03&gt;&gt;&gt; 4FD8A311C0   steve mendez</t>
+  </si>
+  <si>
     <t>10 14:08&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -398,6 +515,9 @@
     <t>07 16:42&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>04 09:07&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:09&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -407,6 +527,9 @@
     <t>07 16:45&gt;&gt;&gt; 4FD87F2960   Thomas Yoo</t>
   </si>
   <si>
+    <t>04 09:13&gt;&gt;&gt; 8FD8AEB240   luciano.ibbott</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:11&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -416,12 +539,18 @@
     <t>07 17:41&gt;&gt;&gt; 0FD8A6DF00   Raida Okeke</t>
   </si>
   <si>
+    <t xml:space="preserve">04 09:19&gt;&gt;&gt; 8FD8985540    </t>
+  </si>
+  <si>
     <t xml:space="preserve">02 09:49&gt;&gt;&gt; 0FD8B60440    </t>
   </si>
   <si>
     <t>07 17:51&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t>04 10:32&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
     <t>10 14:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -440,6 +569,9 @@
     <t>07 18:57&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
   </si>
   <si>
+    <t>04 10:41&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t>10 14:20&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
@@ -449,6 +581,9 @@
     <t>07 19:06&gt;&gt;&gt; 4FD8AEBDE0   Christian Andrade</t>
   </si>
   <si>
+    <t>04 11:02&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
+  </si>
+  <si>
     <t>10 14:21&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
@@ -458,6 +593,9 @@
     <t>07 19:08&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>04 11:43&gt;&gt;&gt; 0FD8A289E0   Pual Corrales</t>
+  </si>
+  <si>
     <t>10 14:22&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
@@ -467,6 +605,9 @@
     <t xml:space="preserve">07 19:12&gt;&gt;&gt; CFD8B41720    </t>
   </si>
   <si>
+    <t>04 11:58&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
     <t>10 14:23&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
@@ -476,6 +617,9 @@
     <t>07 19:12&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>04 12:03&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
+  </si>
+  <si>
     <t>10 14:24&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -500,9 +644,15 @@
     <t>02 10:43&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
   </si>
   <si>
+    <t>04 12:15&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
     <t xml:space="preserve">08 09:02&gt;&gt;&gt; CFD8A9E820    </t>
   </si>
   <si>
+    <t xml:space="preserve">04 12:17&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
     <t>10 14:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -512,6 +662,9 @@
     <t xml:space="preserve">08 09:03&gt;&gt;&gt; CFD8A9E820    </t>
   </si>
   <si>
+    <t>04 12:24&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t>10 14:30&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -521,6 +674,9 @@
     <t>08 09:09&gt;&gt;&gt; 8FD8B68DE0   Miguel Martillo</t>
   </si>
   <si>
+    <t>04 12:40&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 14:30&gt;&gt;&gt; 0FD8ABF6C0   </t>
   </si>
   <si>
@@ -530,6 +686,9 @@
     <t>08 09:22&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
   </si>
   <si>
+    <t>04 12:41&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>10 14:31&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
@@ -539,6 +698,9 @@
     <t>08 09:23&gt;&gt;&gt; 8FD8AEB240   luciano.ibbott</t>
   </si>
   <si>
+    <t>04 12:41&gt;&gt;&gt; CFD8B54DA0   antonio vargas</t>
+  </si>
+  <si>
     <t>10 14:34&gt;&gt;&gt; 0FD8ABF6C0   None</t>
   </si>
   <si>
@@ -557,6 +719,9 @@
     <t xml:space="preserve">08 10:18&gt;&gt;&gt; CFD8B45C40    </t>
   </si>
   <si>
+    <t>04 13:28&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
     <t>10 14:36&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -584,6 +749,9 @@
     <t>08 11:34&gt;&gt;&gt; 0FD8A6DF00   Raida Okeke</t>
   </si>
   <si>
+    <t xml:space="preserve">04 13:28&gt;&gt;&gt; CFD8A8A500   </t>
+  </si>
+  <si>
     <t>10 15:44&gt;&gt;&gt; CFD8A51DE0   Rodolfo Olivares</t>
   </si>
   <si>
@@ -593,6 +761,9 @@
     <t>08 11:34&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
   </si>
   <si>
+    <t>04 13:29&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 16:25&gt;&gt;&gt; CFD8A948E0    </t>
   </si>
   <si>
@@ -602,12 +773,18 @@
     <t>08 11:34&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
   </si>
   <si>
+    <t>04 13:30&gt;&gt;&gt; 0FD8AE9A00   Kenneth akan</t>
+  </si>
+  <si>
     <t>02 12:51&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
     <t>08 11:40&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
   </si>
   <si>
+    <t>04 13:58&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>10 16:26&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
@@ -617,6 +794,9 @@
     <t>08 11:53&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
   </si>
   <si>
+    <t>04 14:46&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t>10 18:10&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
@@ -632,6 +812,9 @@
     <t>08 12:10&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>04 15:08&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>12 09:54&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -641,6 +824,9 @@
     <t>08 15:48&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>04 15:56&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>12 10:01&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
@@ -650,6 +836,9 @@
     <t>08 16:07&gt;&gt;&gt; 8FD8A841E0   Sujay Bhaskar KashYap</t>
   </si>
   <si>
+    <t>04 16:20&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
     <t>12 10:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -659,6 +848,9 @@
     <t>08 16:21&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
   </si>
   <si>
+    <t>04 16:28&gt;&gt;&gt; 8FD8A8D440   James Dennis</t>
+  </si>
+  <si>
     <t>02 16:10&gt;&gt;&gt; CFD8AF34C0   Megan Eng</t>
   </si>
   <si>
@@ -668,6 +860,9 @@
     <t>08 16:32&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>04 16:49&gt;&gt;&gt; 8FD8AFD100   rahyner penaranda</t>
+  </si>
+  <si>
     <t>02 16:23&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
@@ -683,18 +878,27 @@
     <t xml:space="preserve">08 17:42&gt;&gt;&gt; 8FD8B367A0    </t>
   </si>
   <si>
+    <t>04 17:51&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>02 16:38&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
   </si>
   <si>
     <t>08 17:42&gt;&gt;&gt; 8FD8B367A0   Andrea Quinones</t>
   </si>
   <si>
+    <t xml:space="preserve">04 17:54&gt;&gt;&gt; 8FD8B3BFA0    </t>
+  </si>
+  <si>
     <t>12 12:12&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t>08 17:53&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>04 18:58&gt;&gt;&gt; 4FD87F2960   Thomas Yoo</t>
+  </si>
+  <si>
     <t>12 12:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -704,12 +908,18 @@
     <t>08 18:09&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>04 19:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>02 18:05&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
     <t xml:space="preserve">08 18:11&gt;&gt;&gt; CFD8B45C40    </t>
   </si>
   <si>
+    <t>04 19:26&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>12 12:53&gt;&gt;&gt; 8FD8A841E0   Sujay Bhaskar KashYap</t>
   </si>
   <si>
@@ -719,6 +929,9 @@
     <t>08 18:12&gt;&gt;&gt; CFD8B45C40   Briana Sammons</t>
   </si>
   <si>
+    <t>04 19:57&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>12 14:05&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -728,6 +941,9 @@
     <t>08 18:12&gt;&gt;&gt; 0FD8AE84A0   Sabato.Michael</t>
   </si>
   <si>
+    <t xml:space="preserve">05 09:12&gt;&gt;&gt; 8FD8A457A0    </t>
+  </si>
+  <si>
     <t>12 14:45&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
@@ -737,6 +953,9 @@
     <t>08 18:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>05 09:13&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>13 09:35&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
@@ -746,18 +965,27 @@
     <t>08 18:53&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>05 09:14&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>13 11:46&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
   </si>
   <si>
     <t>02 19:11&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>05 17:05&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>03 09:58&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
     <t>08 18:59&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
   </si>
   <si>
+    <t>05 17:41&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>17 09:40&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
@@ -767,6 +995,9 @@
     <t>08 19:05&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>05 17:47&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>17 10:48&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
@@ -776,6 +1007,9 @@
     <t>08 19:43&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
   </si>
   <si>
+    <t>05 19:24&gt;&gt;&gt; CFD89E8B60   catori labad</t>
+  </si>
+  <si>
     <t>17 11:43&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
@@ -785,6 +1019,9 @@
     <t>08 20:47&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>05 20:03&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>17 11:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -794,6 +1031,9 @@
     <t>09 09:02&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
   </si>
   <si>
+    <t>05 20:19&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t>17 12:11&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -803,18 +1043,27 @@
     <t xml:space="preserve">09 09:20&gt;&gt;&gt; 0FD8B60440    </t>
   </si>
   <si>
+    <t>06 09:05&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>03 14:16&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
     <t>09 10:05&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
   </si>
   <si>
+    <t>06 09:18&gt;&gt;&gt; 0FD8AF9E00   Karla Pimentel</t>
+  </si>
+  <si>
     <t>17 12:40&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
   </si>
   <si>
     <t>09 10:30&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
   </si>
   <si>
+    <t xml:space="preserve">06 09:46&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
     <t>17 13:00&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
@@ -824,6 +1073,9 @@
     <t xml:space="preserve">09 10:38&gt;&gt;&gt; 8FD8985540    </t>
   </si>
   <si>
+    <t>06 10:41&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
+  </si>
+  <si>
     <t>17 13:01&gt;&gt;&gt; 4FD8AB1960   Alondra Rangel</t>
   </si>
   <si>
@@ -833,6 +1085,9 @@
     <t>09 10:45&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
   </si>
   <si>
+    <t>06 10:48&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
     <t>17 13:02&gt;&gt;&gt; 4FD8AB6640   Victoria Soobryan</t>
   </si>
   <si>
@@ -842,6 +1097,9 @@
     <t>09 11:25&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>06 11:32&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
+  </si>
+  <si>
     <t>17 13:02&gt;&gt;&gt; CFD8ADC440   Jorge Delgado</t>
   </si>
   <si>
@@ -851,18 +1109,27 @@
     <t>09 11:42&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
   </si>
   <si>
+    <t>06 12:16&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
+  </si>
+  <si>
     <t>17 14:29&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
     <t>06 08:57&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
   </si>
   <si>
+    <t>06 12:29&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t>06 08:58&gt;&gt;&gt; 8FD8AFF180   Oscar Chicaiza</t>
   </si>
   <si>
     <t>09 11:50&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
   </si>
   <si>
+    <t>06 12:38&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
     <t>17 15:05&gt;&gt;&gt; CFD8A51DE0   Rodolfo Olivares</t>
   </si>
   <si>
@@ -872,6 +1139,9 @@
     <t>09 11:54&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>06 12:42&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
     <t>17 15:54&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
@@ -881,6 +1151,9 @@
     <t>09 11:55&gt;&gt;&gt; 4FD8A311C0   steve mendez</t>
   </si>
   <si>
+    <t>06 13:05&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t>17 16:14&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
   </si>
   <si>
@@ -890,6 +1163,9 @@
     <t xml:space="preserve">09 12:14&gt;&gt;&gt; CFD8B6CB80    </t>
   </si>
   <si>
+    <t>06 13:10&gt;&gt;&gt; 8FD8AFD100   rahyner penaranda</t>
+  </si>
+  <si>
     <t>19 10:42&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -899,21 +1175,33 @@
     <t>09 12:21&gt;&gt;&gt; 8FD8A841E0   Sujay Bhaskar KashYap</t>
   </si>
   <si>
+    <t>06 13:29&gt;&gt;&gt; CFD8B47E80   Derek Mcfadden</t>
+  </si>
+  <si>
     <t>06 10:23&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
   </si>
   <si>
     <t>09 12:33&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>06 13:52&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
     <t>06 10:26&gt;&gt;&gt; 0FD899D9C0   cammy-el allen</t>
   </si>
   <si>
+    <t>06 14:12&gt;&gt;&gt; 0FD8AE9A00   Kenneth akan</t>
+  </si>
+  <si>
     <t xml:space="preserve">06 10:40&gt;&gt;&gt; 8FD88BA9C0    </t>
   </si>
   <si>
     <t>09 13:28&gt;&gt;&gt; 8FD8A8D440   James Dennis</t>
   </si>
   <si>
+    <t>06 14:13&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>19 10:56&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -923,6 +1211,9 @@
     <t>09 13:45&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
   </si>
   <si>
+    <t>06 14:45&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
     <t>19 16:19&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -932,6 +1223,9 @@
     <t>09 13:58&gt;&gt;&gt; 8FD8AE43C0   Akeem Bowling</t>
   </si>
   <si>
+    <t>06 15:10&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>19 16:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -941,6 +1235,9 @@
     <t>09 14:05&gt;&gt;&gt; 8FD8B39BA0   mervyn payne</t>
   </si>
   <si>
+    <t>06 15:29&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>19 16:43&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -950,6 +1247,9 @@
     <t>09 14:09&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
   </si>
   <si>
+    <t xml:space="preserve">06 15:33&gt;&gt;&gt; 4FD89EA5E0    </t>
+  </si>
+  <si>
     <t>19 16:47&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -959,6 +1259,9 @@
     <t>09 14:14&gt;&gt;&gt; 0FD8B395A0   Wooyoung Choi</t>
   </si>
   <si>
+    <t>06 15:33&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>19 16:50&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -968,6 +1271,9 @@
     <t>09 14:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>06 16:29&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t>19 16:52&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -977,6 +1283,9 @@
     <t>09 14:31&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
   </si>
   <si>
+    <t>06 18:35&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>19 17:00&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -986,6 +1295,9 @@
     <t>09 14:48&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
   </si>
   <si>
+    <t>06 19:02&gt;&gt;&gt; 4FD8AEBDE0   Christian Andrade</t>
+  </si>
+  <si>
     <t>19 17:02&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -995,6 +1307,9 @@
     <t>09 14:49&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t>07 09:01&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>19 17:17&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -1004,6 +1319,9 @@
     <t xml:space="preserve">09 14:59&gt;&gt;&gt; 4FD89EA5E0    </t>
   </si>
   <si>
+    <t>07 09:48&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>19 17:20&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -1013,12 +1331,18 @@
     <t>09 15:31&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>07 10:52&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
     <t xml:space="preserve">06 14:12&gt;&gt;&gt; 0FD8AE84A0    </t>
   </si>
   <si>
     <t>09 16:19&gt;&gt;&gt; 4FD8B3E300   yeriel Marte</t>
   </si>
   <si>
+    <t>07 13:10&gt;&gt;&gt; 0FD8B5EBC0   victor e ortiz</t>
+  </si>
+  <si>
     <t>19 17:26&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -1028,6 +1352,9 @@
     <t xml:space="preserve">09 16:21&gt;&gt;&gt; 0FD88D4420    </t>
   </si>
   <si>
+    <t>07 13:54&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
+  </si>
+  <si>
     <t>19 17:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -1037,6 +1364,9 @@
     <t>09 16:40&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
   </si>
   <si>
+    <t xml:space="preserve">07 14:50&gt;&gt;&gt; 0FD8B54B00   </t>
+  </si>
+  <si>
     <t>19 17:35&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -1046,6 +1376,9 @@
     <t>10 08:00&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>10 10:50&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>19 17:44&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
@@ -1055,18 +1388,27 @@
     <t>10 13:19&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
   </si>
   <si>
+    <t>12 09:42&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>06 17:37&gt;&gt;&gt; 0FD8AAFF40   Ulice Molina</t>
   </si>
   <si>
     <t>10 18:06&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>13 09:17&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>19 17:44&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
     <t>06 17:39&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
   </si>
   <si>
+    <t>13 12:46&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>19 17:46&gt;&gt;&gt; 0FD8AD9C60   everton mendozaholmes</t>
   </si>
   <si>
@@ -2378,381 +2720,756 @@
     <t>15 10:14&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
   </si>
   <si>
+    <t>23 18:58&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
+  </si>
+  <si>
     <t>15 10:20&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
   </si>
   <si>
+    <t>23 19:25&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>15 10:22&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>23 19:49&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>15 10:29&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
   </si>
   <si>
+    <t xml:space="preserve">24 09:02&gt;&gt;&gt; CFD8A9E820    </t>
+  </si>
+  <si>
     <t>15 10:48&gt;&gt;&gt; 0FD8A83600   douglas smith</t>
   </si>
   <si>
+    <t>24 10:39&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>15 11:07&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
   </si>
   <si>
+    <t>24 13:28&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>15 11:33&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
   </si>
   <si>
+    <t>24 17:40&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>15 11:45&gt;&gt;&gt; 0FD8A6DF00   Raida Okeke</t>
   </si>
   <si>
+    <t>27 08:57&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>15 11:45&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
   </si>
   <si>
+    <t>27 08:57&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t>15 11:56&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t xml:space="preserve">27 09:14&gt;&gt;&gt; 8FD8A457A0    </t>
+  </si>
+  <si>
     <t>15 12:08&gt;&gt;&gt; 0FD8A61420   Duban hershely</t>
   </si>
   <si>
+    <t>27 09:17&gt;&gt;&gt; 8FD8AEB240   luciano.ibbott</t>
+  </si>
+  <si>
     <t>15 12:10&gt;&gt;&gt; CFD8A37420   Bria John</t>
   </si>
   <si>
+    <t>27 09:44&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>15 12:13&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
   </si>
   <si>
+    <t xml:space="preserve">27 09:48&gt;&gt;&gt; 4FD8B534A0    </t>
+  </si>
+  <si>
     <t>15 13:02&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
   </si>
   <si>
+    <t>27 10:10&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t>15 13:09&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
   </si>
   <si>
+    <t>27 10:12&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
+  </si>
+  <si>
     <t>15 13:20&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
   </si>
   <si>
+    <t>27 10:16&gt;&gt;&gt; CFD8B45C40   Briana Sammons</t>
+  </si>
+  <si>
     <t>15 13:20&gt;&gt;&gt; 8FD8A3A820   cowell,truman</t>
   </si>
   <si>
+    <t>27 10:18&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>15 13:22&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
   </si>
   <si>
+    <t>27 10:53&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
+  </si>
+  <si>
     <t>15 13:26&gt;&gt;&gt; CFD89E8B60   catori labad</t>
   </si>
   <si>
+    <t>27 11:24&gt;&gt;&gt; 0FD8A6DF00   Raida Okeke</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 13:32&gt;&gt;&gt; 8FD8B367A0    </t>
   </si>
   <si>
+    <t>27 11:25&gt;&gt;&gt; 4FD8AB6C20   Freddy Beltran</t>
+  </si>
+  <si>
     <t>15 13:32&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
   </si>
   <si>
+    <t>27 11:59&gt;&gt;&gt; CFD8A37420   Bria John</t>
+  </si>
+  <si>
     <t>15 13:32&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
   </si>
   <si>
+    <t>27 12:04&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t>15 13:37&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
   </si>
   <si>
+    <t>27 12:05&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>15 13:40&gt;&gt;&gt; CFD8A9A340   Kathleena Girling</t>
   </si>
   <si>
+    <t>27 12:17&gt;&gt;&gt; 8FD8A841E0   Sujay Bhaskar KashYap</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 13:41&gt;&gt;&gt; 0FD8B395A0   </t>
   </si>
   <si>
+    <t>27 12:17&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
+  </si>
+  <si>
     <t>15 14:03&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>27 12:20&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
     <t>15 14:44&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
+    <t>27 12:34&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
     <t>15 14:44&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>27 13:33&gt;&gt;&gt; 0FD8AC7AC0   Alfonse D'Elia</t>
+  </si>
+  <si>
+    <t>27 13:49&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t>15 14:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>27 14:10&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>15 15:29&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>27 14:39&gt;&gt;&gt; 0FD8B395A0   Wooyoung Choi</t>
+  </si>
+  <si>
     <t>15 15:45&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
   </si>
   <si>
+    <t>27 15:28&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>15 16:03&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t>27 15:48&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
+  </si>
+  <si>
     <t>15 16:14&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>27 15:49&gt;&gt;&gt; 0FD8B395A0   Wooyoung Choi</t>
+  </si>
+  <si>
     <t>15 16:16&gt;&gt;&gt; 4FD8AB6C20   Freddy Beltran</t>
   </si>
   <si>
+    <t>27 15:59&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>15 19:15&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t xml:space="preserve">27 16:34&gt;&gt;&gt; 0FD8AB9660    </t>
+  </si>
+  <si>
     <t xml:space="preserve">15 20:14&gt;&gt;&gt; 0FD8B45C20    </t>
   </si>
   <si>
+    <t>27 17:09&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
     <t>15 20:50&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>27 17:37&gt;&gt;&gt; 8FD8B367A0   Andrea Quinones</t>
+  </si>
+  <si>
     <t>16 08:51&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
   </si>
   <si>
+    <t>27 17:39&gt;&gt;&gt; 8FD8A8D440   James Dennis</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 09:20&gt;&gt;&gt; 0FD8B60440    </t>
   </si>
   <si>
+    <t>27 17:49&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>16 10:09&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
   </si>
   <si>
+    <t>27 19:35&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
     <t>16 10:32&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
   </si>
   <si>
+    <t>27 19:52&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>16 10:40&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
   </si>
   <si>
+    <t>28 09:23&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>16 10:42&gt;&gt;&gt; CFD8AF1280   Jonathan Gonzalez</t>
   </si>
   <si>
+    <t>28 09:30&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t>16 10:43&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
   </si>
   <si>
+    <t>28 10:17&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t>16 10:45&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
   </si>
   <si>
+    <t>28 10:34&gt;&gt;&gt; 0FD8A289E0   Pual Corrales</t>
+  </si>
+  <si>
     <t>16 11:02&gt;&gt;&gt; 0FD8A289E0   Pual Corrales</t>
   </si>
   <si>
+    <t>28 10:40&gt;&gt;&gt; CFD8ADF120   Patrick Mclaughlin</t>
+  </si>
+  <si>
     <t>16 14:29&gt;&gt;&gt; 0FD8A6BA00   John Orellana</t>
   </si>
   <si>
+    <t>28 10:43&gt;&gt;&gt; 0FD8B6CD20   Ramiro Idobro</t>
+  </si>
+  <si>
     <t>16 14:29&gt;&gt;&gt; 0FD8AF13C0   Rondell Holland</t>
   </si>
   <si>
+    <t>28 10:48&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
     <t>16 14:30&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
+    <t>28 10:49&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
+  </si>
+  <si>
     <t>16 14:31&gt;&gt;&gt; 0FD8AD6220   Rachel james</t>
   </si>
   <si>
     <t>16 14:39&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>28 10:52&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
+  </si>
+  <si>
     <t>16 14:51&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>28 10:53&gt;&gt;&gt; 0FD8B6CD20   Ramiro Idobro</t>
+  </si>
+  <si>
     <t>16 14:53&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
   </si>
   <si>
+    <t>28 11:05&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
     <t>16 15:30&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
   </si>
   <si>
+    <t xml:space="preserve">28 11:34&gt;&gt;&gt; 0FD88D4420    </t>
+  </si>
+  <si>
     <t>16 16:21&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
   </si>
   <si>
+    <t>28 11:40&gt;&gt;&gt; 8FD8ADBD20   david orlando</t>
+  </si>
+  <si>
     <t>16 16:25&gt;&gt;&gt; CFD8AFA4C0   arango juan</t>
   </si>
   <si>
+    <t>28 11:50&gt;&gt;&gt; 0FD8AE9A00   Kenneth akan</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 16:29&gt;&gt;&gt; 0FD88D4420   </t>
   </si>
   <si>
+    <t xml:space="preserve">28 12:13&gt;&gt;&gt; CFD8B3BD60    </t>
+  </si>
+  <si>
     <t>16 16:39&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
   </si>
   <si>
+    <t xml:space="preserve">28 12:38&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
     <t>16 17:53&gt;&gt;&gt; CFD8A51DE0   Rodolfo Olivares</t>
   </si>
   <si>
+    <t>28 12:50&gt;&gt;&gt; 0FD8B395A0   Wooyoung Choi</t>
+  </si>
+  <si>
     <t>16 18:45&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
   </si>
   <si>
+    <t>28 13:33&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>16 18:49&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>28 13:35&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 19:03&gt;&gt;&gt; 8FD8B3BFA0   </t>
   </si>
   <si>
+    <t>28 13:40&gt;&gt;&gt; 8FD8A8D440   James Dennis</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 19:03&gt;&gt;&gt; 8FD8B3BFA0    </t>
   </si>
   <si>
+    <t>28 13:41&gt;&gt;&gt; CFD89DF220   Michael Reis</t>
+  </si>
+  <si>
     <t>16 19:17&gt;&gt;&gt; 4FD8B36A40   Jean Augustin</t>
   </si>
   <si>
+    <t>28 13:43&gt;&gt;&gt; CFD8B47E80   Derek Mcfadden</t>
+  </si>
+  <si>
     <t>16 19:25&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>28 13:48&gt;&gt;&gt; CFD8ABB200   Luz Alvarez</t>
+  </si>
+  <si>
     <t>16 20:27&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
     <t>16 21:05&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>28 13:53&gt;&gt;&gt; 0FD8AFD720   Jennifer Mercedes</t>
+  </si>
+  <si>
     <t>16 21:07&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>28 13:56&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>17 07:53&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>28 14:36&gt;&gt;&gt; 8FD8AFD100   rahyner penaranda</t>
+  </si>
+  <si>
     <t xml:space="preserve">17 10:13&gt;&gt;&gt; CFD8B6CB80    </t>
   </si>
   <si>
+    <t>29 09:01&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>17 10:17&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>29 09:02&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
+  </si>
+  <si>
     <t>17 10:53&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
   </si>
   <si>
+    <t xml:space="preserve">29 09:18&gt;&gt;&gt; 8FD8A457A0    </t>
+  </si>
+  <si>
     <t>21 14:04&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>29 09:27&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
+  </si>
+  <si>
     <t>21 14:51&gt;&gt;&gt; 0FD8B4E900   Carlos De Los Santos</t>
   </si>
   <si>
+    <t>29 10:19&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
+  </si>
+  <si>
     <t>21 14:53&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
   </si>
   <si>
+    <t>29 10:28&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
+  </si>
+  <si>
     <t>21 14:56&gt;&gt;&gt; CFD8A9A340   Kathleena Girling</t>
   </si>
   <si>
+    <t>29 10:43&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
     <t>21 15:28&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
   </si>
   <si>
+    <t xml:space="preserve">29 10:45&gt;&gt;&gt; 0FD89E2980    </t>
+  </si>
+  <si>
     <t>21 16:05&gt;&gt;&gt; 0FD8A42A20   Raquel Rosado</t>
   </si>
   <si>
+    <t>29 10:58&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t>21 16:09&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>29 11:56&gt;&gt;&gt; 0FD8A6DF00   Raida Okeke</t>
+  </si>
+  <si>
     <t>21 16:18&gt;&gt;&gt; 0FD8A9BD80   Jaspreet Kaur</t>
   </si>
   <si>
+    <t>29 11:57&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
+  </si>
+  <si>
     <t>21 16:26&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>29 12:15&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
+  </si>
+  <si>
     <t>21 16:28&gt;&gt;&gt; 0FD8AD6220   Rachel james</t>
   </si>
   <si>
+    <t>29 12:16&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t>21 16:29&gt;&gt;&gt; 8FD8B39BA0   mervyn payne</t>
   </si>
   <si>
+    <t>29 12:31&gt;&gt;&gt; 4FD8AB6C20   Freddy Beltran</t>
+  </si>
+  <si>
     <t>21 16:39&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t xml:space="preserve">29 13:17&gt;&gt;&gt; CFD8B3BD60    </t>
+  </si>
+  <si>
     <t>21 19:01&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>29 13:18&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
+  </si>
+  <si>
     <t>21 19:15&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>29 13:22&gt;&gt;&gt; 4FD8B3E300   yeriel Marte</t>
+  </si>
+  <si>
     <t>21 19:16&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t xml:space="preserve">29 13:30&gt;&gt;&gt; CFD8B6A840    </t>
+  </si>
+  <si>
     <t>21 23:37&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>29 13:42&gt;&gt;&gt; 8FD8B367A0   Andrea Quinones</t>
+  </si>
+  <si>
     <t>22 09:00&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
   </si>
   <si>
+    <t>29 13:43&gt;&gt;&gt; CFD8ABB200   Luz Alvarez</t>
+  </si>
+  <si>
     <t>22 09:10&gt;&gt;&gt; 8FD8AEB240   luciano.ibbott</t>
   </si>
   <si>
+    <t>29 15:11&gt;&gt;&gt; 0FD8A88320   Oscar Delgado</t>
+  </si>
+  <si>
     <t>22 09:14&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>29 15:14&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>22 09:15&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
   </si>
   <si>
+    <t>29 15:15&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t>22 09:24&gt;&gt;&gt; 4FD8A51080   Calvin Y Au</t>
   </si>
   <si>
+    <t>29 15:47&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>22 09:27&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>29 16:53&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 09:52&gt;&gt;&gt; CFD8B45C40    </t>
   </si>
   <si>
+    <t>29 17:20&gt;&gt;&gt; 4FD869BA40   Benjiamin Bellingeri</t>
+  </si>
+  <si>
     <t>22 10:01&gt;&gt;&gt; 0FD8ACF700   Jared Amuso</t>
   </si>
   <si>
+    <t>29 17:56&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>22 10:28&gt;&gt;&gt; 0FD8A61420   Duban hershely</t>
   </si>
   <si>
+    <t>29 18:50&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 10:33&gt;&gt;&gt; 8FD88BA9C0    </t>
   </si>
   <si>
+    <t>29 19:10&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>22 10:33&gt;&gt;&gt; 8FD8AC1E00   Kimberly Pierre</t>
   </si>
   <si>
+    <t>29 19:13&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
+  </si>
+  <si>
     <t>22 10:37&gt;&gt;&gt; 4FD8A366C0   joseph ganci</t>
   </si>
   <si>
+    <t>29 19:28&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>22 10:41&gt;&gt;&gt; CFD88517C0   Joseph Giordano</t>
   </si>
   <si>
+    <t>29 19:28&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
     <t>22 10:43&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
   </si>
   <si>
+    <t>29 20:46&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>22 10:51&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>30 08:58&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>22 11:17&gt;&gt;&gt; 8FD8A60A60   ferguson elaina</t>
   </si>
   <si>
+    <t>30 09:12&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
+  </si>
+  <si>
     <t>22 11:38&gt;&gt;&gt; 0FD8A83600   douglas smith</t>
   </si>
   <si>
+    <t xml:space="preserve">30 09:21&gt;&gt;&gt; 0FD8B60440    </t>
+  </si>
+  <si>
     <t>22 11:49&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
   </si>
   <si>
+    <t>30 09:27&gt;&gt;&gt; 0FD8AE8B60   Natalie Primus</t>
+  </si>
+  <si>
     <t>22 12:10&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
   </si>
   <si>
+    <t>30 09:51&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
+  </si>
+  <si>
     <t>22 12:10&gt;&gt;&gt; 4FD8A33DE0   Anne Crosby</t>
   </si>
   <si>
+    <t>30 10:28&gt;&gt;&gt; 8FD87CA8C0   Dwayne Stallworth</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 13:05&gt;&gt;&gt; CFD8B45C40    </t>
   </si>
   <si>
+    <t>30 10:40&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 13:40&gt;&gt;&gt; CFD8B3C6C0    </t>
   </si>
   <si>
+    <t>30 10:44&gt;&gt;&gt; CFD8B3CA60   paul sherita</t>
+  </si>
+  <si>
     <t>22 13:42&gt;&gt;&gt; 4FD8AD94C0   Rudfil PaUL JR</t>
   </si>
   <si>
+    <t>30 11:05&gt;&gt;&gt; CFD8A3DFA0   eugene marmontov</t>
+  </si>
+  <si>
     <t>22 13:42&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
   </si>
   <si>
+    <t>30 11:11&gt;&gt;&gt; 0FD8AF9E00   Karla Pimentel</t>
+  </si>
+  <si>
     <t>22 13:46&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>30 17:42&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
+  </si>
+  <si>
     <t>22 13:50&gt;&gt;&gt; CFD8AC3C40   Roberto Flores</t>
   </si>
   <si>
+    <t>30 17:55&gt;&gt;&gt; 8FD8AC5D40   Rudelina Calcano</t>
+  </si>
+  <si>
     <t>22 14:41&gt;&gt;&gt; CFD893A460   Gary Tsai</t>
   </si>
   <si>
+    <t>30 18:57&gt;&gt;&gt; CFD8A78940   Nicole Latta</t>
+  </si>
+  <si>
     <t>22 14:47&gt;&gt;&gt; 0FD8B5ED00   Crosby anne</t>
   </si>
   <si>
+    <t>30 19:13&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>22 14:55&gt;&gt;&gt; CFD8A3F700   Melvin Osorio</t>
   </si>
   <si>
+    <t>30 19:32&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>22 15:04&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
   </si>
   <si>
+    <t>30 20:04&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
+  </si>
+  <si>
     <t>22 16:29&gt;&gt;&gt; CFD8A948E0   Vanessa Cordero</t>
   </si>
   <si>
+    <t>31 10:32&gt;&gt;&gt; CFD8A9E820   Richard Pusateri</t>
+  </si>
+  <si>
     <t>22 16:46&gt;&gt;&gt; 0FD8AE0B20   Anthony Rivera</t>
   </si>
   <si>
+    <t>31 10:55&gt;&gt;&gt; 4FD8A85BA0   hojin euam</t>
+  </si>
+  <si>
     <t>22 16:47&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
   </si>
   <si>
+    <t>31 11:44&gt;&gt;&gt; 0FD89CD000   David Schachner</t>
+  </si>
+  <si>
     <t>22 17:41&gt;&gt;&gt; 0FD88F2580   Carolyn Alana</t>
   </si>
   <si>
+    <t>31 13:25&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>22 17:44&gt;&gt;&gt; CFD8A6B7E0   peter sormilic</t>
   </si>
   <si>
+    <t>31 13:36&gt;&gt;&gt; 0FD8B5EBC0   victor e ortiz</t>
+  </si>
+  <si>
     <t>22 17:54&gt;&gt;&gt; 4FD8B41A40   Justin Davis</t>
   </si>
   <si>
+    <t>31 14:02&gt;&gt;&gt; 0FD8AD42A0   Covalky Pena</t>
+  </si>
+  <si>
     <t>22 17:54&gt;&gt;&gt; 4FD87D1F40   Gao Feng</t>
   </si>
   <si>
+    <t>31 15:41&gt;&gt;&gt; 8FD8A5E5E0   Anthony Avevor</t>
+  </si>
+  <si>
     <t>22 17:58&gt;&gt;&gt; CFD8B47E80   Derek Mcfadden</t>
   </si>
   <si>
+    <t>31 16:47&gt;&gt;&gt; 8FD894EAC0   Sade Thomas</t>
+  </si>
+  <si>
     <t>22 19:20&gt;&gt;&gt; 0FD8A290A0   Paul Fabro</t>
   </si>
   <si>
@@ -2964,9 +3681,6 @@
   </si>
   <si>
     <t>28 10:42&gt;&gt;&gt; 8FD8A5D640   Anwar Sufian</t>
-  </si>
-  <si>
-    <t>28 10:49&gt;&gt;&gt; 4FD8AE2B20   Brandon haden</t>
   </si>
   <si>
     <t>28 10:51&gt;&gt;&gt; 0FD8B4E900   Carlos De Los Santos</t>
@@ -3130,11 +3844,11 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -3147,12 +3861,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="5" name="Percent" xfId="0"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="1"/>
     <cellStyle builtinId="4" name="Currency" xfId="2"/>
     <cellStyle builtinId="3" name="Comma" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="4"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -3448,7 +4162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C530"/>
+  <dimension ref="A1:D530"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
@@ -3459,9 +4173,10 @@
     <col customWidth="1" max="1" min="1" style="1" width="119.018779342723"/>
     <col customWidth="1" max="2" min="2" style="1" width="54.5305164319249"/>
     <col customWidth="1" max="1025" min="3" style="1" width="50"/>
+    <col customWidth="1" max="4" min="4" style="2" width="50"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" s="2" spans="1:3">
+    <row customHeight="1" ht="15" r="1" s="2" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3471,4357 +4186,5128 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" s="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" s="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="2" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="2" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="2" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="2" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="6" s="2" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="2" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="2" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="2" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="2" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" s="2" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="2" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="13" s="2" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="14" s="2" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="15" s="2" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="2" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="17" s="2" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="18" s="2" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="19" s="2" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="20" s="2" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="21" s="2" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="22" s="2" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="23" s="2" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="24" s="2" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="2" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="25" s="2" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" s="2" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="26" s="2" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="2" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="27" s="2" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" s="2" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="28" s="2" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28" s="2" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="29" s="2" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29" s="2" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="30" s="2" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="2" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="31" s="2" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31" s="2" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="32" s="2" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32" s="2" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="33" s="2" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33" s="2" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="34" s="2" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34" s="2" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="35" s="2" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35" s="2" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="36" s="2" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="2" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="37" s="2" spans="1:3">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37" s="2" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="38" s="2" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38" s="2" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="39" s="2" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39" s="2" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="40" s="2" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" s="2" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="41" s="2" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" s="2" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="42" s="2" spans="1:3">
+        <v>143</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" s="2" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="43" s="2" spans="1:3">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" s="2" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="44" s="2" spans="1:3">
+        <v>150</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" s="2" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="45" s="2" spans="1:3">
+        <v>150</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" s="2" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="46" s="2" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" s="2" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="47" s="2" spans="1:3">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" s="2" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="48" s="2" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" s="2" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="49" s="2" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" s="2" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="50" s="2" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="50" s="2" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="51" s="2" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="51" s="2" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="52" s="2" spans="1:3">
+        <v>180</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="52" s="2" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="53" s="2" spans="1:3">
+        <v>183</v>
+      </c>
+      <c r="D52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="53" s="2" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="54" s="2" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="D53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="54" s="2" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="55" s="2" spans="1:3">
+        <v>191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="55" s="2" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="56" s="2" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="D55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="56" s="2" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="57" s="2" spans="1:3">
+        <v>199</v>
+      </c>
+      <c r="D56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="57" s="2" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="58" s="2" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="58" s="2" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="59" s="2" spans="1:3">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="59" s="2" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="60" s="2" spans="1:3">
+        <v>206</v>
+      </c>
+      <c r="D59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="60" s="2" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="61" s="2" spans="1:3">
+        <v>210</v>
+      </c>
+      <c r="D60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="61" s="2" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="62" s="2" spans="1:3">
+        <v>214</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="62" s="2" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="63" s="2" spans="1:3">
+        <v>218</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="63" s="2" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="64" s="2" spans="1:3">
+        <v>222</v>
+      </c>
+      <c r="D63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="64" s="2" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="65" s="2" spans="1:3">
+        <v>226</v>
+      </c>
+      <c r="D64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="65" s="2" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="66" s="2" spans="1:3">
+        <v>230</v>
+      </c>
+      <c r="D65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="66" s="2" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="67" s="2" spans="1:3">
+        <v>233</v>
+      </c>
+      <c r="D66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="67" s="2" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="68" s="2" spans="1:3">
+        <v>237</v>
+      </c>
+      <c r="D67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="68" s="2" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="69" s="2" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="D68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="69" s="2" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="70" s="2" spans="1:3">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="70" s="2" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="71" s="2" spans="1:3">
+        <v>247</v>
+      </c>
+      <c r="D70" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="71" s="2" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="72" s="2" spans="1:3">
+        <v>251</v>
+      </c>
+      <c r="D71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="72" s="2" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="73" s="2" spans="1:3">
+        <v>254</v>
+      </c>
+      <c r="D72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="73" s="2" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="74" s="2" spans="1:3">
+        <v>258</v>
+      </c>
+      <c r="D73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="74" s="2" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="75" s="2" spans="1:3">
+        <v>262</v>
+      </c>
+      <c r="D74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="75" s="2" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="76" s="2" spans="1:3">
+        <v>264</v>
+      </c>
+      <c r="D75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="76" s="2" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="77" s="2" spans="1:3">
+        <v>268</v>
+      </c>
+      <c r="D76" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="77" s="2" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="78" s="2" spans="1:3">
+        <v>272</v>
+      </c>
+      <c r="D77" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="78" s="2" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="C78" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="79" s="2" spans="1:3">
+        <v>276</v>
+      </c>
+      <c r="D78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="79" s="2" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="80" s="2" spans="1:3">
+        <v>276</v>
+      </c>
+      <c r="D79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="80" s="2" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="81" s="2" spans="1:3">
+        <v>280</v>
+      </c>
+      <c r="D80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="81" s="2" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="82" s="2" spans="1:3">
+        <v>283</v>
+      </c>
+      <c r="D81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="82" s="2" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="83" s="2" spans="1:3">
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="83" s="2" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="84" s="2" spans="1:3">
+        <v>289</v>
+      </c>
+      <c r="D83" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="84" s="2" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="85" s="2" spans="1:3">
+        <v>292</v>
+      </c>
+      <c r="D84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="85" s="2" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="86" s="2" spans="1:3">
+        <v>296</v>
+      </c>
+      <c r="D85" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="86" s="2" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="87" s="2" spans="1:3">
+        <v>299</v>
+      </c>
+      <c r="D86" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="87" s="2" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="88" s="2" spans="1:3">
+        <v>303</v>
+      </c>
+      <c r="D87" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="88" s="2" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="89" s="2" spans="1:3">
+        <v>307</v>
+      </c>
+      <c r="D88" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="89" s="2" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="90" s="2" spans="1:3">
+        <v>311</v>
+      </c>
+      <c r="D89" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="90" s="2" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="91" s="2" spans="1:3">
+        <v>315</v>
+      </c>
+      <c r="D90" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="91" s="2" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="92" s="2" spans="1:3">
+        <v>315</v>
+      </c>
+      <c r="D91" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="92" s="2" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="C92" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="93" s="2" spans="1:3">
+        <v>321</v>
+      </c>
+      <c r="D92" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="93" s="2" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="C93" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="94" s="2" spans="1:3">
+        <v>325</v>
+      </c>
+      <c r="D93" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="94" s="2" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="95" s="2" spans="1:3">
+        <v>329</v>
+      </c>
+      <c r="D94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="95" s="2" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="C95" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="96" s="2" spans="1:3">
+        <v>333</v>
+      </c>
+      <c r="D95" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="96" s="2" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C96" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="97" s="2" spans="1:3">
+        <v>337</v>
+      </c>
+      <c r="D96" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="97" s="2" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="98" s="2" spans="1:3">
+        <v>341</v>
+      </c>
+      <c r="D97" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="98" s="2" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="C98" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="99" s="2" spans="1:3">
+        <v>344</v>
+      </c>
+      <c r="D98" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="99" s="2" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="C99" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="100" s="2" spans="1:3">
+        <v>347</v>
+      </c>
+      <c r="D99" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="100" s="2" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C100" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="101" s="2" spans="1:3">
+        <v>351</v>
+      </c>
+      <c r="D100" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="101" s="2" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="C101" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="102" s="2" spans="1:3">
+        <v>355</v>
+      </c>
+      <c r="D101" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="102" s="2" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="C102" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="103" s="2" spans="1:3">
+        <v>359</v>
+      </c>
+      <c r="D102" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="103" s="2" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="104" s="2" spans="1:3">
+        <v>363</v>
+      </c>
+      <c r="D103" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="104" s="2" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="105" s="2" spans="1:3">
+        <v>363</v>
+      </c>
+      <c r="D104" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="105" s="2" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>280</v>
+        <v>368</v>
       </c>
       <c r="C105" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="106" s="2" spans="1:3">
+        <v>369</v>
+      </c>
+      <c r="D105" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="106" s="2" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="107" s="2" spans="1:3">
+        <v>373</v>
+      </c>
+      <c r="D106" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="107" s="2" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>285</v>
+        <v>375</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>286</v>
+        <v>376</v>
       </c>
       <c r="C107" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="108" s="2" spans="1:3">
+        <v>377</v>
+      </c>
+      <c r="D107" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="108" s="2" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>288</v>
+        <v>379</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="C108" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="109" s="2" spans="1:3">
+        <v>381</v>
+      </c>
+      <c r="D108" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="109" s="2" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="C109" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="110" s="2" spans="1:3">
+        <v>385</v>
+      </c>
+      <c r="D109" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="110" s="2" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="C110" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="111" s="2" spans="1:3">
+        <v>388</v>
+      </c>
+      <c r="D110" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="111" s="2" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>296</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="112" s="2" spans="1:3">
+        <v>388</v>
+      </c>
+      <c r="D111" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="112" s="2" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="C112" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="113" s="2" spans="1:3">
+        <v>393</v>
+      </c>
+      <c r="D112" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="113" s="2" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="C113" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="114" s="2" spans="1:3">
+        <v>397</v>
+      </c>
+      <c r="D113" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="114" s="2" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>303</v>
+        <v>400</v>
       </c>
       <c r="C114" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="115" s="2" spans="1:3">
+        <v>401</v>
+      </c>
+      <c r="D114" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="115" s="2" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>306</v>
+        <v>404</v>
       </c>
       <c r="C115" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="116" s="2" spans="1:3">
+        <v>405</v>
+      </c>
+      <c r="D115" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="116" s="2" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>308</v>
+        <v>407</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="C116" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="117" s="2" spans="1:3">
+        <v>409</v>
+      </c>
+      <c r="D116" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="117" s="2" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="C117" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="118" s="2" spans="1:3">
+        <v>413</v>
+      </c>
+      <c r="D117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="118" s="2" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>314</v>
+        <v>415</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="C118" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="119" s="2" spans="1:3">
+        <v>417</v>
+      </c>
+      <c r="D118" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="119" s="2" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="120" s="2" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D119" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="120" s="2" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
       <c r="C120" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="121" s="2" spans="1:3">
+        <v>425</v>
+      </c>
+      <c r="D120" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="121" s="2" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="C121" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="122" s="2" spans="1:3">
+        <v>429</v>
+      </c>
+      <c r="D121" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="122" s="2" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>326</v>
+        <v>431</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="C122" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="123" s="2" spans="1:3">
+        <v>433</v>
+      </c>
+      <c r="D122" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="123" s="2" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="124" s="2" spans="1:3">
+        <v>437</v>
+      </c>
+      <c r="D123" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="124" s="2" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>332</v>
+        <v>439</v>
       </c>
       <c r="C124" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="125" s="2" spans="1:3">
+        <v>440</v>
+      </c>
+      <c r="D124" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="125" s="2" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="C125" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="126" s="2" spans="1:3">
+        <v>444</v>
+      </c>
+      <c r="D125" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="126" s="2" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
       <c r="C126" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="127" s="2" spans="1:3">
+        <v>448</v>
+      </c>
+      <c r="D126" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="127" s="2" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
       <c r="C127" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="128" s="2" spans="1:3">
+        <v>452</v>
+      </c>
+      <c r="D127" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="128" s="2" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>343</v>
+        <v>454</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>344</v>
+        <v>455</v>
       </c>
       <c r="C128" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="129" s="2" spans="1:3">
+        <v>456</v>
+      </c>
+      <c r="D128" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="129" s="2" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>343</v>
+        <v>454</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>346</v>
+        <v>458</v>
       </c>
       <c r="C129" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="130" s="2" spans="1:3">
+        <v>459</v>
+      </c>
+      <c r="D129" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="130" s="2" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>348</v>
+        <v>461</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>349</v>
+        <v>462</v>
       </c>
       <c r="C130" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="131" s="2" spans="1:3">
+        <v>459</v>
+      </c>
+      <c r="D130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="131" s="2" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>350</v>
+        <v>464</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>351</v>
+        <v>465</v>
       </c>
       <c r="C131" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="132" s="2" spans="1:3">
+        <v>466</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="132" s="2" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>350</v>
+        <v>464</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>353</v>
+        <v>467</v>
       </c>
       <c r="C132" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="133" s="2" spans="1:3">
+        <v>468</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="133" s="2" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>355</v>
+        <v>469</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>356</v>
+        <v>470</v>
       </c>
       <c r="C133" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="134" s="2" spans="1:3">
+        <v>471</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="134" s="2" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>358</v>
+        <v>472</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>359</v>
+        <v>473</v>
       </c>
       <c r="C134" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="135" s="2" spans="1:3">
+        <v>474</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="135" s="2" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>358</v>
+        <v>472</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>361</v>
+        <v>475</v>
       </c>
       <c r="C135" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="136" s="2" spans="1:3">
+        <v>476</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="136" s="2" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>363</v>
+        <v>477</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>364</v>
+        <v>478</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="137" s="2" spans="1:3">
+        <v>479</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="137" s="2" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>366</v>
+        <v>480</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>367</v>
+        <v>481</v>
       </c>
       <c r="C137" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="138" s="2" spans="1:3">
+        <v>482</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="138" s="2" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>366</v>
+        <v>480</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>369</v>
+        <v>483</v>
       </c>
       <c r="C138" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="139" s="2" spans="1:3">
+        <v>484</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="139" s="2" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>371</v>
+        <v>485</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="C139" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="140" s="2" spans="1:3">
+        <v>487</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="140" s="2" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>374</v>
+        <v>488</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>375</v>
+        <v>489</v>
       </c>
       <c r="C140" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="141" s="2" spans="1:3">
+        <v>490</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="141" s="2" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>377</v>
+        <v>491</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>378</v>
+        <v>492</v>
       </c>
       <c r="C141" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="142" s="2" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="142" s="2" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>380</v>
+        <v>494</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>381</v>
+        <v>495</v>
       </c>
       <c r="C142" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="143" s="2" spans="1:3">
+        <v>496</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="143" s="2" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>380</v>
+        <v>494</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>383</v>
+        <v>497</v>
       </c>
       <c r="C143" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="144" s="2" spans="1:3">
+        <v>498</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="144" s="2" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>385</v>
+        <v>499</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="C144" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="145" s="2" spans="1:3">
+        <v>501</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="145" s="2" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>388</v>
+        <v>502</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>389</v>
+        <v>503</v>
       </c>
       <c r="C145" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="146" s="2" spans="1:3">
+        <v>504</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="146" s="2" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>391</v>
+        <v>505</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>392</v>
+        <v>506</v>
       </c>
       <c r="C146" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="147" s="2" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="147" s="2" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>395</v>
+        <v>509</v>
       </c>
       <c r="C147" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="148" s="2" spans="1:3">
+        <v>510</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="148" s="2" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>397</v>
+        <v>511</v>
       </c>
       <c r="C148" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="149" s="2" spans="1:3">
+        <v>512</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="149" s="2" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>399</v>
+        <v>513</v>
       </c>
       <c r="C149" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="150" s="2" spans="1:3">
+        <v>514</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="150" s="2" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>401</v>
+        <v>515</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>402</v>
+        <v>516</v>
       </c>
       <c r="C150" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="151" s="2" spans="1:3">
+        <v>517</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="151" s="2" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>404</v>
+        <v>518</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>405</v>
+        <v>519</v>
       </c>
       <c r="C151" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="152" s="2" spans="1:3">
+        <v>520</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="152" s="2" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>407</v>
+        <v>521</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>408</v>
+        <v>522</v>
       </c>
       <c r="C152" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="153" s="2" spans="1:3">
+        <v>523</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="153" s="2" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>410</v>
+        <v>524</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>411</v>
+        <v>525</v>
       </c>
       <c r="C153" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="154" s="2" spans="1:3">
+        <v>526</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="154" s="2" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>413</v>
+        <v>527</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>414</v>
+        <v>528</v>
       </c>
       <c r="C154" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="155" s="2" spans="1:3">
+        <v>529</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="155" s="2" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>416</v>
+        <v>530</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>417</v>
+        <v>531</v>
       </c>
       <c r="C155" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="156" s="2" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="156" s="2" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>420</v>
+        <v>534</v>
       </c>
       <c r="C156" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="157" s="2" spans="1:3">
+        <v>535</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="157" s="2" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>422</v>
+        <v>536</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>423</v>
+        <v>537</v>
       </c>
       <c r="C157" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="158" s="2" spans="1:3">
+        <v>538</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="158" s="2" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>425</v>
+        <v>539</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>426</v>
+        <v>540</v>
       </c>
       <c r="C158" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="159" s="2" spans="1:3">
+        <v>541</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="159" s="2" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>428</v>
+        <v>542</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>426</v>
+        <v>540</v>
       </c>
       <c r="C159" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="160" s="2" spans="1:3">
+        <v>543</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="160" s="2" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>430</v>
+        <v>544</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>431</v>
+        <v>545</v>
       </c>
       <c r="C160" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="161" s="2" spans="1:3">
+        <v>546</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="161" s="2" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>433</v>
+        <v>547</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>434</v>
+        <v>548</v>
       </c>
       <c r="C161" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="162" s="2" spans="1:3">
+        <v>546</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="162" s="2" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>435</v>
+        <v>549</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>436</v>
+        <v>550</v>
       </c>
       <c r="C162" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="163" s="2" spans="1:3">
+        <v>551</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="163" s="2" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>438</v>
+        <v>552</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>439</v>
+        <v>553</v>
       </c>
       <c r="C163" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="164" s="2" spans="1:3">
+        <v>554</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="164" s="2" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>441</v>
+        <v>555</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>442</v>
+        <v>556</v>
       </c>
       <c r="C164" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="165" s="2" spans="1:3">
+        <v>554</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="165" s="2" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>443</v>
+        <v>557</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>442</v>
+        <v>556</v>
       </c>
       <c r="C165" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="166" s="2" spans="1:3">
+        <v>558</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="166" s="2" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>445</v>
+        <v>559</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>446</v>
+        <v>560</v>
       </c>
       <c r="C166" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="167" s="2" spans="1:3">
+        <v>561</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="167" s="2" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>448</v>
+        <v>562</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>449</v>
+        <v>563</v>
       </c>
       <c r="C167" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="168" s="2" spans="1:3">
+        <v>564</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="168" s="2" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>451</v>
+        <v>565</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>452</v>
+        <v>566</v>
       </c>
       <c r="C168" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="169" s="2" spans="1:3">
+        <v>567</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="169" s="2" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>454</v>
+        <v>568</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>455</v>
+        <v>569</v>
       </c>
       <c r="C169" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="170" s="2" spans="1:3">
+        <v>570</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="170" s="2" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>457</v>
+        <v>571</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>458</v>
+        <v>572</v>
       </c>
       <c r="C170" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="171" s="2" spans="1:3">
+        <v>570</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="171" s="2" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>459</v>
+        <v>573</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>460</v>
+        <v>574</v>
       </c>
       <c r="C171" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="172" s="2" spans="1:3">
+        <v>575</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="172" s="2" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>462</v>
+        <v>576</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>463</v>
+        <v>577</v>
       </c>
       <c r="C172" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="173" s="2" spans="1:3">
+        <v>575</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="173" s="2" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>464</v>
+        <v>578</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>465</v>
+        <v>579</v>
       </c>
       <c r="C173" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="174" s="2" spans="1:3">
+        <v>580</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="174" s="2" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>464</v>
+        <v>578</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>467</v>
+        <v>581</v>
       </c>
       <c r="C174" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="175" s="2" spans="1:3">
+        <v>582</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="175" s="2" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>469</v>
+        <v>583</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>470</v>
+        <v>584</v>
       </c>
       <c r="C175" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="176" s="2" spans="1:3">
+        <v>585</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="176" s="2" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>472</v>
+        <v>586</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>473</v>
+        <v>587</v>
       </c>
       <c r="C176" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="177" s="2" spans="1:3">
+        <v>588</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="177" s="2" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>475</v>
+        <v>589</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>476</v>
+        <v>590</v>
       </c>
       <c r="C177" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="178" s="2" spans="1:3">
+        <v>591</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="178" s="2" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>479</v>
+        <v>593</v>
       </c>
       <c r="C178" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="179" s="2" spans="1:3">
+        <v>594</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="179" s="2" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>481</v>
+        <v>595</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>482</v>
+        <v>596</v>
       </c>
       <c r="C179" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="180" s="2" spans="1:3">
+        <v>597</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="180" s="2" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>481</v>
+        <v>595</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="C180" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="181" s="2" spans="1:3">
+        <v>599</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="181" s="2" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>486</v>
+        <v>600</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>487</v>
+        <v>601</v>
       </c>
       <c r="C181" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="182" s="2" spans="1:3">
+        <v>602</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="182" s="2" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>490</v>
+        <v>604</v>
       </c>
       <c r="C182" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="183" s="2" spans="1:3">
+        <v>605</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="183" s="2" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>493</v>
+        <v>607</v>
       </c>
       <c r="C183" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="184" s="2" spans="1:3">
+        <v>608</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="184" s="2" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="C184" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="185" s="2" spans="1:3">
+        <v>611</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="185" s="2" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>498</v>
+        <v>612</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>499</v>
+        <v>613</v>
       </c>
       <c r="C185" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="186" s="2" spans="1:3">
+        <v>614</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="186" s="2" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>501</v>
+        <v>615</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>502</v>
+        <v>616</v>
       </c>
       <c r="C186" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="187" s="2" spans="1:3">
+        <v>617</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="187" s="2" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>505</v>
+        <v>619</v>
       </c>
       <c r="C187" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="188" s="2" spans="1:3">
+        <v>620</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="188" s="2" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>507</v>
+        <v>621</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>508</v>
+        <v>622</v>
       </c>
       <c r="C188" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="189" s="2" spans="1:3">
+        <v>623</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="189" s="2" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>510</v>
+        <v>624</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>511</v>
+        <v>625</v>
       </c>
       <c r="C189" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="190" s="2" spans="1:3">
+        <v>626</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="190" s="2" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>514</v>
+        <v>628</v>
       </c>
       <c r="C190" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="191" s="2" spans="1:3">
+        <v>629</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="191" s="2" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>516</v>
+        <v>630</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>517</v>
+        <v>631</v>
       </c>
       <c r="C191" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="192" s="2" spans="1:3">
+        <v>629</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="192" s="2" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>518</v>
+        <v>632</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>519</v>
+        <v>633</v>
       </c>
       <c r="C192" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="193" s="2" spans="1:3">
+        <v>634</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="193" s="2" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>521</v>
+        <v>635</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>522</v>
+        <v>636</v>
       </c>
       <c r="C193" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="194" s="2" spans="1:3">
+        <v>637</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="194" s="2" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="C194" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="195" s="2" spans="1:3">
+        <v>640</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="195" s="2" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>528</v>
+        <v>642</v>
       </c>
       <c r="C195" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="196" s="2" spans="1:3">
+        <v>643</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="196" s="2" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>530</v>
+        <v>644</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>531</v>
+        <v>645</v>
       </c>
       <c r="C196" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="197" s="2" spans="1:3">
+        <v>646</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="197" s="2" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>534</v>
+        <v>648</v>
       </c>
       <c r="C197" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="198" s="2" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="198" s="2" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>536</v>
+        <v>650</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="C198" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="199" s="2" spans="1:3">
+        <v>652</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="199" s="2" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>540</v>
+        <v>654</v>
       </c>
       <c r="C199" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="200" s="2" spans="1:3">
+        <v>655</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="200" s="2" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="C200" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="201" s="2" spans="1:3">
+        <v>657</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="201" s="2" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="C201" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="202" s="2" spans="1:3">
+        <v>657</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="202" s="2" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>545</v>
+        <v>659</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="C202" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="203" s="2" spans="1:3">
+        <v>661</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="203" s="2" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>548</v>
+        <v>662</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>549</v>
+        <v>663</v>
       </c>
       <c r="C203" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="204" s="2" spans="1:3">
+        <v>664</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="204" s="2" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>551</v>
+        <v>665</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="C204" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="205" s="2" spans="1:3">
+        <v>664</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="205" s="2" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>554</v>
+        <v>668</v>
       </c>
       <c r="C205" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="206" s="2" spans="1:3">
+        <v>669</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="206" s="2" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="C206" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="207" s="2" spans="1:3">
+        <v>672</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="207" s="2" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>560</v>
+        <v>674</v>
       </c>
       <c r="C207" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="208" s="2" spans="1:3">
+        <v>675</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="208" s="2" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>562</v>
+        <v>676</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="C208" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="209" s="2" spans="1:3">
+        <v>678</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="209" s="2" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>565</v>
+        <v>679</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>566</v>
+        <v>680</v>
       </c>
       <c r="C209" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="210" s="2" spans="1:3">
+        <v>681</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="210" s="2" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>568</v>
+        <v>682</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="C210" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="211" s="2" spans="1:3">
+        <v>684</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="211" s="2" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>571</v>
+        <v>685</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>572</v>
+        <v>686</v>
       </c>
       <c r="C211" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="212" s="2" spans="1:3">
+        <v>687</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="212" s="2" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>574</v>
+        <v>688</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="C212" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="213" s="2" spans="1:3">
+        <v>690</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="213" s="2" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>577</v>
+        <v>691</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="C213" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="214" s="2" spans="1:3">
+        <v>693</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="214" s="2" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="C214" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="215" s="2" spans="1:3">
+        <v>693</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="215" s="2" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="C215" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="216" s="2" spans="1:3">
+        <v>698</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="216" s="2" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>585</v>
+        <v>699</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>586</v>
+        <v>700</v>
       </c>
       <c r="C216" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="217" s="2" spans="1:3">
+        <v>701</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="217" s="2" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>589</v>
+        <v>703</v>
       </c>
       <c r="C217" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="218" s="2" spans="1:3">
+        <v>704</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="218" s="2" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>592</v>
+        <v>706</v>
       </c>
       <c r="C218" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="219" s="2" spans="1:3">
+        <v>707</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="219" s="2" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>594</v>
+        <v>708</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="C219" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="220" s="2" spans="1:3">
+        <v>710</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="220" s="2" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>597</v>
+        <v>711</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>598</v>
+        <v>712</v>
       </c>
       <c r="C220" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="221" s="2" spans="1:3">
+        <v>713</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="221" s="2" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="C221" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="222" s="2" spans="1:3">
+        <v>716</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="222" s="2" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>603</v>
+        <v>717</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>604</v>
+        <v>718</v>
       </c>
       <c r="C222" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="223" s="2" spans="1:3">
+        <v>719</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="223" s="2" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>606</v>
+        <v>720</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>607</v>
+        <v>721</v>
       </c>
       <c r="C223" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="224" s="2" spans="1:3">
+        <v>722</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="224" s="2" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>610</v>
+        <v>724</v>
       </c>
       <c r="C224" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="225" s="2" spans="1:3">
+        <v>725</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="225" s="2" spans="1:4">
       <c r="A225" s="1" t="s">
-        <v>612</v>
+        <v>726</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>613</v>
+        <v>727</v>
       </c>
       <c r="C225" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="226" s="2" spans="1:3">
+        <v>728</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="226" s="2" spans="1:4">
       <c r="A226" s="1" t="s">
-        <v>615</v>
+        <v>729</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>616</v>
+        <v>730</v>
       </c>
       <c r="C226" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="227" s="2" spans="1:3">
+        <v>731</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="227" s="2" spans="1:4">
       <c r="A227" s="1" t="s">
-        <v>618</v>
+        <v>732</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="C227" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="228" s="2" spans="1:3">
+        <v>734</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="228" s="2" spans="1:4">
       <c r="A228" s="1" t="s">
-        <v>621</v>
+        <v>735</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>622</v>
+        <v>736</v>
       </c>
       <c r="C228" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="229" s="2" spans="1:3">
+        <v>737</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="229" s="2" spans="1:4">
       <c r="A229" s="1" t="s">
-        <v>624</v>
+        <v>738</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>625</v>
+        <v>739</v>
       </c>
       <c r="C229" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="230" s="2" spans="1:3">
+        <v>740</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="230" s="2" spans="1:4">
       <c r="A230" s="1" t="s">
-        <v>627</v>
+        <v>741</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>628</v>
+        <v>742</v>
       </c>
       <c r="C230" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="231" s="2" spans="1:3">
+        <v>743</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="231" s="2" spans="1:4">
       <c r="A231" s="1" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>631</v>
+        <v>745</v>
       </c>
       <c r="C231" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="232" s="2" spans="1:3">
+        <v>746</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="232" s="2" spans="1:4">
       <c r="A232" s="1" t="s">
-        <v>633</v>
+        <v>747</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>634</v>
+        <v>748</v>
       </c>
       <c r="C232" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="233" s="2" spans="1:3">
+        <v>749</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="233" s="2" spans="1:4">
       <c r="A233" s="1" t="s">
-        <v>636</v>
+        <v>750</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>637</v>
+        <v>751</v>
       </c>
       <c r="C233" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="234" s="2" spans="1:3">
+        <v>752</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="234" s="2" spans="1:4">
       <c r="A234" s="1" t="s">
-        <v>639</v>
+        <v>753</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>640</v>
+        <v>754</v>
       </c>
       <c r="C234" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="235" s="2" spans="1:3">
+        <v>755</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="235" s="2" spans="1:4">
       <c r="A235" s="1" t="s">
-        <v>639</v>
+        <v>753</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>642</v>
+        <v>756</v>
       </c>
       <c r="C235" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="236" s="2" spans="1:3">
+        <v>757</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="236" s="2" spans="1:4">
       <c r="A236" s="1" t="s">
-        <v>644</v>
+        <v>758</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>645</v>
+        <v>759</v>
       </c>
       <c r="C236" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="237" s="2" spans="1:3">
+        <v>760</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="237" s="2" spans="1:4">
       <c r="A237" s="1" t="s">
-        <v>647</v>
+        <v>761</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>645</v>
+        <v>759</v>
       </c>
       <c r="C237" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="238" s="2" spans="1:3">
+        <v>762</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="238" s="2" spans="1:4">
       <c r="A238" s="1" t="s">
-        <v>649</v>
+        <v>763</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>650</v>
+        <v>764</v>
       </c>
       <c r="C238" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="239" s="2" spans="1:3">
+        <v>765</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="239" s="2" spans="1:4">
       <c r="A239" s="1" t="s">
-        <v>652</v>
+        <v>766</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>653</v>
+        <v>767</v>
       </c>
       <c r="C239" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="240" s="2" spans="1:3">
+        <v>768</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="240" s="2" spans="1:4">
       <c r="A240" s="1" t="s">
-        <v>655</v>
+        <v>769</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>656</v>
+        <v>770</v>
       </c>
       <c r="C240" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="241" s="2" spans="1:3">
+        <v>771</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="241" s="2" spans="1:4">
       <c r="A241" s="1" t="s">
-        <v>658</v>
+        <v>772</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>659</v>
+        <v>773</v>
       </c>
       <c r="C241" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="242" s="2" spans="1:3">
+        <v>774</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="242" s="2" spans="1:4">
       <c r="A242" s="1" t="s">
-        <v>661</v>
+        <v>775</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>662</v>
+        <v>776</v>
       </c>
       <c r="C242" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="243" s="2" spans="1:3">
+        <v>777</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="243" s="2" spans="1:4">
       <c r="A243" s="1" t="s">
-        <v>664</v>
+        <v>778</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>665</v>
+        <v>779</v>
       </c>
       <c r="C243" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="244" s="2" spans="1:3">
+        <v>780</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="244" s="2" spans="1:4">
       <c r="A244" s="1" t="s">
-        <v>667</v>
+        <v>781</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>668</v>
+        <v>782</v>
       </c>
       <c r="C244" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="245" s="2" spans="1:3">
+        <v>783</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="245" s="2" spans="1:4">
       <c r="A245" s="1" t="s">
-        <v>670</v>
+        <v>784</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>671</v>
+        <v>785</v>
       </c>
       <c r="C245" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="246" s="2" spans="1:3">
+        <v>786</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="246" s="2" spans="1:4">
       <c r="A246" s="1" t="s">
-        <v>670</v>
+        <v>784</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>673</v>
+        <v>787</v>
       </c>
       <c r="C246" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="247" s="2" spans="1:3">
+        <v>788</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="247" s="2" spans="1:4">
       <c r="A247" s="1" t="s">
-        <v>675</v>
+        <v>789</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>676</v>
+        <v>790</v>
       </c>
       <c r="C247" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="248" s="2" spans="1:3">
+        <v>791</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="248" s="2" spans="1:4">
       <c r="A248" s="1" t="s">
-        <v>678</v>
+        <v>792</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>679</v>
+        <v>793</v>
       </c>
       <c r="C248" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="249" s="2" spans="1:3">
+        <v>794</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="249" s="2" spans="1:4">
       <c r="A249" s="1" t="s">
-        <v>681</v>
+        <v>795</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>682</v>
+        <v>796</v>
       </c>
       <c r="C249" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="250" s="2" spans="1:3">
+        <v>797</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="250" s="2" spans="1:4">
       <c r="A250" s="1" t="s">
-        <v>684</v>
+        <v>798</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>685</v>
+        <v>799</v>
       </c>
       <c r="C250" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="251" s="2" spans="1:3">
+        <v>800</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="251" s="2" spans="1:4">
       <c r="A251" s="1" t="s">
-        <v>687</v>
+        <v>801</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>688</v>
+        <v>802</v>
       </c>
       <c r="C251" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="252" s="2" spans="1:3">
+        <v>803</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="252" s="2" spans="1:4">
       <c r="A252" s="1" t="s">
-        <v>690</v>
+        <v>804</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>691</v>
+        <v>805</v>
       </c>
       <c r="C252" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="253" s="2" spans="1:3">
+        <v>806</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="253" s="2" spans="1:4">
       <c r="A253" s="1" t="s">
-        <v>693</v>
+        <v>807</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>694</v>
+        <v>808</v>
       </c>
       <c r="C253" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="254" s="2" spans="1:3">
+        <v>809</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="254" s="2" spans="1:4">
       <c r="A254" s="1" t="s">
-        <v>696</v>
+        <v>810</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>697</v>
+        <v>811</v>
       </c>
       <c r="C254" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="255" s="2" spans="1:3">
+        <v>812</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="255" s="2" spans="1:4">
       <c r="A255" s="1" t="s">
-        <v>696</v>
+        <v>810</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>699</v>
+        <v>813</v>
       </c>
       <c r="C255" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="256" s="2" spans="1:3">
+        <v>814</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="256" s="2" spans="1:4">
       <c r="A256" s="1" t="s">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>702</v>
+        <v>816</v>
       </c>
       <c r="C256" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="257" s="2" spans="1:3">
+        <v>817</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="257" s="2" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>704</v>
+        <v>818</v>
       </c>
       <c r="C257" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="258" s="2" spans="1:3">
+        <v>819</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="258" s="2" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>704</v>
+        <v>818</v>
       </c>
       <c r="C258" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="259" s="2" spans="1:3">
+        <v>820</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="259" s="2" spans="1:4">
       <c r="A259" s="1" t="s">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>707</v>
+        <v>821</v>
       </c>
       <c r="C259" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="260" s="2" spans="1:3">
+        <v>822</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="260" s="2" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>701</v>
+        <v>815</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>709</v>
+        <v>823</v>
       </c>
       <c r="C260" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="261" s="2" spans="1:3">
+        <v>824</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="261" s="2" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>711</v>
+        <v>825</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>712</v>
+        <v>826</v>
       </c>
       <c r="C261" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="262" s="2" spans="1:3">
+        <v>827</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="262" s="2" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>714</v>
+        <v>828</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>715</v>
+        <v>829</v>
       </c>
       <c r="C262" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="263" s="2" spans="1:3">
+        <v>830</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="263" s="2" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>717</v>
+        <v>831</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>718</v>
+        <v>832</v>
       </c>
       <c r="C263" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="264" s="2" spans="1:3">
+        <v>833</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="264" s="2" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>717</v>
+        <v>831</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>720</v>
+        <v>834</v>
       </c>
       <c r="C264" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="265" s="2" spans="1:3">
+        <v>835</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="265" s="2" spans="1:4">
       <c r="A265" s="1" t="s">
-        <v>722</v>
+        <v>836</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>723</v>
+        <v>837</v>
       </c>
       <c r="C265" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="266" s="2" spans="1:3">
+        <v>838</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="266" s="2" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>725</v>
+        <v>839</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>726</v>
+        <v>840</v>
       </c>
       <c r="C266" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="267" s="2" spans="1:3">
+        <v>841</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="267" s="2" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>728</v>
+        <v>842</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>729</v>
+        <v>843</v>
       </c>
       <c r="C267" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="268" s="2" spans="1:3">
+        <v>844</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="268" s="2" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>731</v>
+        <v>845</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="C268" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="269" s="2" spans="1:3">
+        <v>847</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="269" s="2" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>731</v>
+        <v>845</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>734</v>
+        <v>848</v>
       </c>
       <c r="C269" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="270" s="2" spans="1:3">
+        <v>849</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="270" s="2" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>736</v>
+        <v>850</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>737</v>
+        <v>851</v>
       </c>
       <c r="C270" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="271" s="2" spans="1:3">
+        <v>852</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="271" s="2" spans="1:4">
       <c r="A271" s="1" t="s">
-        <v>739</v>
+        <v>853</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>740</v>
+        <v>854</v>
       </c>
       <c r="C271" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="272" s="2" spans="1:3">
+        <v>855</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="272" s="2" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>742</v>
+        <v>856</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>740</v>
+        <v>854</v>
       </c>
       <c r="C272" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="273" s="2" spans="1:3">
+        <v>857</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="273" s="2" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>742</v>
+        <v>856</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>744</v>
+        <v>858</v>
       </c>
       <c r="C273" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="274" s="2" spans="1:3">
+        <v>859</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="274" s="2" spans="1:4">
       <c r="A274" s="1" t="s">
-        <v>746</v>
+        <v>860</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>747</v>
+        <v>861</v>
       </c>
       <c r="C274" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="275" s="2" spans="1:3">
+        <v>862</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="275" s="2" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>749</v>
+        <v>863</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>750</v>
+        <v>864</v>
       </c>
       <c r="C275" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="276" s="2" spans="1:3">
+        <v>865</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="276" s="2" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>752</v>
+        <v>866</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>753</v>
+        <v>867</v>
       </c>
       <c r="C276" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="277" s="2" spans="1:3">
+        <v>868</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="277" s="2" spans="1:4">
       <c r="A277" s="1" t="s">
-        <v>755</v>
+        <v>869</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>756</v>
+        <v>870</v>
       </c>
       <c r="C277" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="278" s="2" spans="1:3">
+        <v>871</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="278" s="2" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>758</v>
+        <v>872</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>759</v>
+        <v>873</v>
       </c>
       <c r="C278" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="279" s="2" spans="1:3">
+        <v>874</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="279" s="2" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>761</v>
+        <v>875</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>762</v>
+        <v>876</v>
       </c>
       <c r="C279" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="280" s="2" spans="1:3">
+        <v>877</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="280" s="2" spans="1:4">
       <c r="A280" s="1" t="s">
-        <v>764</v>
+        <v>878</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>765</v>
+        <v>879</v>
       </c>
       <c r="C280" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="281" s="2" spans="1:3">
+        <v>880</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="281" s="2" spans="1:4">
       <c r="B281" s="1" t="s">
-        <v>767</v>
+        <v>881</v>
       </c>
       <c r="C281" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="282" s="2" spans="1:3">
+        <v>882</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="282" s="2" spans="1:4">
       <c r="B282" s="1" t="s">
-        <v>769</v>
+        <v>883</v>
       </c>
       <c r="C282" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="283" s="2" spans="1:3">
+        <v>884</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="283" s="2" spans="1:4">
       <c r="B283" s="1" t="s">
-        <v>771</v>
+        <v>885</v>
       </c>
       <c r="C283" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="284" s="2" spans="1:3">
+        <v>886</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="284" s="2" spans="1:4">
       <c r="B284" s="1" t="s">
-        <v>773</v>
+        <v>887</v>
       </c>
       <c r="C284" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="285" s="2" spans="1:3">
+        <v>888</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="285" s="2" spans="1:4">
       <c r="B285" s="1" t="s">
-        <v>773</v>
+        <v>887</v>
       </c>
       <c r="C285" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="286" s="2" spans="1:3">
+        <v>888</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="286" s="2" spans="1:4">
       <c r="B286" s="1" t="s">
-        <v>775</v>
+        <v>889</v>
       </c>
       <c r="C286" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="287" s="2" spans="1:3">
+        <v>890</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="287" s="2" spans="1:4">
       <c r="B287" s="1" t="s">
-        <v>777</v>
+        <v>891</v>
       </c>
       <c r="C287" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="288" s="2" spans="1:3">
+        <v>892</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="288" s="2" spans="1:4">
       <c r="B288" s="1" t="s">
-        <v>779</v>
+        <v>893</v>
       </c>
       <c r="C288" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="289" s="2" spans="1:3">
+        <v>894</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="289" s="2" spans="1:4">
       <c r="B289" s="1" t="s">
-        <v>781</v>
+        <v>895</v>
       </c>
       <c r="C289" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="290" s="2" spans="1:3">
+        <v>896</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="290" s="2" spans="1:4">
       <c r="B290" s="1" t="s">
-        <v>783</v>
+        <v>897</v>
       </c>
       <c r="C290" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="291" s="2" spans="1:3">
+        <v>898</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="291" s="2" spans="1:4">
       <c r="B291" s="1" t="s">
-        <v>785</v>
+        <v>899</v>
       </c>
       <c r="C291" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="292" s="2" spans="1:3">
+        <v>898</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="292" s="2" spans="1:4">
       <c r="B292" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="293" s="2" spans="1:3">
+        <v>900</v>
+      </c>
+      <c r="C292" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="293" s="2" spans="1:4">
       <c r="B293" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="294" s="2" spans="1:3">
+        <v>902</v>
+      </c>
+      <c r="C293" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="294" s="2" spans="1:4">
       <c r="B294" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="295" s="2" spans="1:3">
+        <v>904</v>
+      </c>
+      <c r="C294" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="295" s="2" spans="1:4">
       <c r="B295" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="296" s="2" spans="1:3">
+        <v>906</v>
+      </c>
+      <c r="C295" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="296" s="2" spans="1:4">
       <c r="B296" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="297" s="2" spans="1:3">
+        <v>908</v>
+      </c>
+      <c r="C296" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="297" s="2" spans="1:4">
       <c r="B297" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="298" s="2" spans="1:3">
+        <v>910</v>
+      </c>
+      <c r="C297" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="298" s="2" spans="1:4">
       <c r="B298" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="299" s="2" spans="1:3">
+        <v>912</v>
+      </c>
+      <c r="C298" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="299" s="2" spans="1:4">
       <c r="B299" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="300" s="2" spans="1:3">
+        <v>914</v>
+      </c>
+      <c r="C299" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="300" s="2" spans="1:4">
       <c r="B300" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="301" s="2" spans="1:3">
+        <v>916</v>
+      </c>
+      <c r="C300" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="301" s="2" spans="1:4">
       <c r="B301" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="302" s="2" spans="1:3">
+        <v>918</v>
+      </c>
+      <c r="C301" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="302" s="2" spans="1:4">
       <c r="B302" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="303" s="2" spans="1:3">
+        <v>920</v>
+      </c>
+      <c r="C302" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="303" s="2" spans="1:4">
       <c r="B303" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="304" s="2" spans="1:3">
+        <v>922</v>
+      </c>
+      <c r="C303" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="304" s="2" spans="1:4">
       <c r="B304" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="305" s="2" spans="1:3">
+        <v>924</v>
+      </c>
+      <c r="C304" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="305" s="2" spans="1:4">
       <c r="B305" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="306" s="2" spans="1:3">
+        <v>926</v>
+      </c>
+      <c r="C305" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="306" s="2" spans="1:4">
       <c r="B306" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="307" s="2" spans="1:3">
+        <v>928</v>
+      </c>
+      <c r="C306" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="307" s="2" spans="1:4">
       <c r="B307" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="308" s="2" spans="1:3">
+        <v>930</v>
+      </c>
+      <c r="C307" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="308" s="2" spans="1:4">
       <c r="B308" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="309" s="2" spans="1:3">
+        <v>932</v>
+      </c>
+      <c r="C308" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="309" s="2" spans="1:4">
       <c r="B309" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="310" s="2" spans="1:3">
+        <v>934</v>
+      </c>
+      <c r="C309" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="310" s="2" spans="1:4">
       <c r="B310" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="311" s="2" spans="1:3">
+        <v>936</v>
+      </c>
+      <c r="C310" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="311" s="2" spans="1:4">
       <c r="B311" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="312" s="2" spans="1:3">
+        <v>938</v>
+      </c>
+      <c r="C311" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="312" s="2" spans="1:4">
       <c r="B312" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="313" s="2" spans="1:3">
+        <v>940</v>
+      </c>
+      <c r="C312" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="313" s="2" spans="1:4">
       <c r="B313" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="314" s="2" spans="1:3">
+        <v>942</v>
+      </c>
+      <c r="C313" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="314" s="2" spans="1:4">
       <c r="B314" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="315" s="2" spans="1:3">
+        <v>944</v>
+      </c>
+      <c r="C314" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="315" s="2" spans="1:4">
       <c r="B315" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="316" s="2" spans="1:3">
+        <v>946</v>
+      </c>
+      <c r="C315" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="316" s="2" spans="1:4">
       <c r="B316" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="317" s="2" spans="1:3">
+        <v>948</v>
+      </c>
+      <c r="C316" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="317" s="2" spans="1:4">
       <c r="B317" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="318" s="2" spans="1:3">
+        <v>950</v>
+      </c>
+      <c r="C317" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="318" s="2" spans="1:4">
       <c r="B318" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="319" s="2" spans="1:3">
+        <v>952</v>
+      </c>
+      <c r="C318" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="319" s="2" spans="1:4">
       <c r="B319" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="320" s="2" spans="1:3">
+        <v>954</v>
+      </c>
+      <c r="C319" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="320" s="2" spans="1:4">
       <c r="B320" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="321" s="2" spans="1:3">
+        <v>954</v>
+      </c>
+      <c r="C320" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="321" s="2" spans="1:4">
       <c r="B321" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="322" s="2" spans="1:3">
+        <v>957</v>
+      </c>
+      <c r="C321" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="322" s="2" spans="1:4">
       <c r="B322" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="323" s="2" spans="1:3">
+        <v>959</v>
+      </c>
+      <c r="C322" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="323" s="2" spans="1:4">
       <c r="B323" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="324" s="2" spans="1:3">
+        <v>961</v>
+      </c>
+      <c r="C323" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="324" s="2" spans="1:4">
       <c r="B324" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="325" s="2" spans="1:3">
+        <v>963</v>
+      </c>
+      <c r="C324" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="325" s="2" spans="1:4">
       <c r="B325" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="326" s="2" spans="1:3">
+        <v>965</v>
+      </c>
+      <c r="C325" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="326" s="2" spans="1:4">
       <c r="B326" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="327" s="2" spans="1:3">
+        <v>967</v>
+      </c>
+      <c r="C326" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="327" s="2" spans="1:4">
       <c r="B327" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="328" s="2" spans="1:3">
+        <v>969</v>
+      </c>
+      <c r="C327" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="328" s="2" spans="1:4">
       <c r="B328" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="329" s="2" spans="1:3">
+        <v>971</v>
+      </c>
+      <c r="C328" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="329" s="2" spans="1:4">
       <c r="B329" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="330" s="2" spans="1:3">
+        <v>973</v>
+      </c>
+      <c r="C329" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="330" s="2" spans="1:4">
       <c r="B330" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="331" s="2" spans="1:3">
+        <v>975</v>
+      </c>
+      <c r="C330" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="331" s="2" spans="1:4">
       <c r="B331" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="332" s="2" spans="1:3">
+        <v>977</v>
+      </c>
+      <c r="C331" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="332" s="2" spans="1:4">
       <c r="B332" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="333" s="2" spans="1:3">
+        <v>979</v>
+      </c>
+      <c r="C332" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="333" s="2" spans="1:4">
       <c r="B333" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="334" s="2" spans="1:3">
+        <v>981</v>
+      </c>
+      <c r="C333" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="334" s="2" spans="1:4">
       <c r="B334" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="335" s="2" spans="1:3">
+        <v>983</v>
+      </c>
+      <c r="C334" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="335" s="2" spans="1:4">
       <c r="B335" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="336" s="2" spans="1:3">
+        <v>985</v>
+      </c>
+      <c r="C335" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="336" s="2" spans="1:4">
       <c r="B336" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="337" s="2" spans="1:3">
+        <v>987</v>
+      </c>
+      <c r="C336" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="337" s="2" spans="1:4">
       <c r="B337" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="338" s="2" spans="1:3">
+        <v>989</v>
+      </c>
+      <c r="C337" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="338" s="2" spans="1:4">
       <c r="B338" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="339" s="2" spans="1:3">
+        <v>991</v>
+      </c>
+      <c r="C338" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="339" s="2" spans="1:4">
       <c r="B339" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="340" s="2" spans="1:3">
+        <v>993</v>
+      </c>
+      <c r="C339" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="340" s="2" spans="1:4">
       <c r="B340" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="341" s="2" spans="1:3">
+        <v>995</v>
+      </c>
+      <c r="C340" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="341" s="2" spans="1:4">
       <c r="B341" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="342" s="2" spans="1:3">
+        <v>997</v>
+      </c>
+      <c r="C341" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="342" s="2" spans="1:4">
       <c r="B342" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="343" s="2" spans="1:3">
+        <v>999</v>
+      </c>
+      <c r="C342" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="343" s="2" spans="1:4">
       <c r="B343" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="344" s="2" spans="1:3">
+        <v>1000</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="344" s="2" spans="1:4">
       <c r="B344" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="345" s="2" spans="1:3">
+        <v>1002</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="345" s="2" spans="1:4">
       <c r="B345" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="346" s="2" spans="1:3">
+        <v>1004</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="346" s="2" spans="1:4">
       <c r="B346" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="347" s="2" spans="1:3">
+        <v>1006</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="347" s="2" spans="1:4">
       <c r="B347" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="348" s="2" spans="1:3">
+        <v>1008</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="348" s="2" spans="1:4">
       <c r="B348" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="349" s="2" spans="1:3">
+        <v>1010</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="349" s="2" spans="1:4">
       <c r="B349" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="350" s="2" spans="1:3">
+        <v>1012</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="350" s="2" spans="1:4">
       <c r="B350" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="351" s="2" spans="1:3">
+        <v>1014</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="351" s="2" spans="1:4">
       <c r="B351" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="352" s="2" spans="1:3">
+        <v>1016</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="352" s="2" spans="1:4">
       <c r="B352" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="353" s="2" spans="1:3">
+        <v>1018</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="353" s="2" spans="1:4">
       <c r="B353" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="354" s="2" spans="1:3">
+        <v>1020</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="354" s="2" spans="1:4">
       <c r="B354" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="355" s="2" spans="1:3">
+        <v>1022</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="355" s="2" spans="1:4">
       <c r="B355" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="356" s="2" spans="1:3">
+        <v>1024</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="356" s="2" spans="1:4">
       <c r="B356" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="357" s="2" spans="1:3">
+        <v>1026</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="357" s="2" spans="1:4">
       <c r="B357" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="358" s="2" spans="1:3">
+        <v>1028</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="358" s="2" spans="1:4">
       <c r="B358" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="359" s="2" spans="1:3">
+        <v>1030</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="359" s="2" spans="1:4">
       <c r="B359" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="360" s="2" spans="1:3">
+        <v>1031</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="360" s="2" spans="1:4">
       <c r="B360" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="361" s="2" spans="1:3">
+        <v>1033</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="361" s="2" spans="1:4">
       <c r="B361" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="362" s="2" spans="1:3">
+        <v>1035</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="362" s="2" spans="1:4">
       <c r="B362" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="363" s="2" spans="1:3">
+        <v>1037</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="363" s="2" spans="1:4">
       <c r="B363" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="364" s="2" spans="1:3">
+        <v>1039</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="364" s="2" spans="1:4">
       <c r="B364" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="365" s="2" spans="1:3">
+        <v>1041</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="365" s="2" spans="1:4">
       <c r="B365" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="366" s="2" spans="1:3">
+        <v>1043</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="366" s="2" spans="1:4">
       <c r="B366" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="367" s="2" spans="1:3">
+        <v>1045</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="367" s="2" spans="1:4">
       <c r="B367" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="368" s="2" spans="1:3">
+        <v>1047</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="368" s="2" spans="1:4">
       <c r="B368" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="369" s="2" spans="1:3">
+        <v>1049</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="369" s="2" spans="1:4">
       <c r="B369" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="370" s="2" spans="1:3">
+        <v>1051</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="370" s="2" spans="1:4">
       <c r="B370" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="371" s="2" spans="1:3">
+        <v>1053</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="371" s="2" spans="1:4">
       <c r="B371" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="372" s="2" spans="1:3">
+        <v>1055</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="372" s="2" spans="1:4">
       <c r="B372" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="373" s="2" spans="1:3">
+        <v>1057</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="373" s="2" spans="1:4">
       <c r="B373" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="374" s="2" spans="1:3">
+        <v>1059</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="374" s="2" spans="1:4">
       <c r="B374" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="375" s="2" spans="1:3">
+        <v>1061</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="375" s="2" spans="1:4">
       <c r="B375" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="376" s="2" spans="1:3">
+        <v>1063</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="376" s="2" spans="1:4">
       <c r="B376" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="377" s="2" spans="1:3">
+        <v>1065</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="377" s="2" spans="1:4">
       <c r="B377" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="378" s="2" spans="1:3">
+        <v>1067</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="378" s="2" spans="1:4">
       <c r="B378" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="379" s="2" spans="1:3">
+        <v>1069</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="379" s="2" spans="1:4">
       <c r="B379" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="380" s="2" spans="1:3">
+        <v>1071</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="380" s="2" spans="1:4">
       <c r="B380" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="381" s="2" spans="1:3">
+        <v>1073</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="381" s="2" spans="1:4">
       <c r="B381" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="382" s="2" spans="1:3">
+        <v>1075</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="382" s="2" spans="1:4">
       <c r="B382" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="383" s="2" spans="1:3">
+        <v>1077</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="383" s="2" spans="1:4">
       <c r="B383" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="384" s="2" spans="1:3">
+        <v>1079</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="384" s="2" spans="1:4">
       <c r="B384" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="385" s="2" spans="1:3">
+        <v>1081</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="385" s="2" spans="1:4">
       <c r="B385" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="386" s="2" spans="1:3">
+        <v>1083</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="386" s="2" spans="1:4">
       <c r="B386" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="387" s="2" spans="1:3">
+        <v>1085</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="387" s="2" spans="1:4">
       <c r="B387" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="388" s="2" spans="1:3">
+        <v>1087</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="388" s="2" spans="1:4">
       <c r="B388" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="389" s="2" spans="1:3">
+        <v>1089</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="389" s="2" spans="1:4">
       <c r="B389" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="390" s="2" spans="1:3">
+        <v>1091</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="390" s="2" spans="1:4">
       <c r="B390" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="391" s="2" spans="1:3">
+        <v>1093</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="391" s="2" spans="1:4">
       <c r="B391" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="392" s="2" spans="1:3">
+        <v>1095</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="392" s="2" spans="1:4">
       <c r="B392" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="393" s="2" spans="1:3">
+        <v>1097</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="393" s="2" spans="1:4">
       <c r="B393" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="394" s="2" spans="1:3">
+        <v>1099</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="394" s="2" spans="1:4">
       <c r="B394" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="395" s="2" spans="1:3">
+        <v>1101</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="395" s="2" spans="1:4">
       <c r="B395" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="396" s="2" spans="1:3">
+        <v>1103</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="396" s="2" spans="1:4">
       <c r="B396" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="397" s="2" spans="1:3">
+        <v>1105</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="397" s="2" spans="1:4">
       <c r="B397" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="398" s="2" spans="1:3">
+        <v>1107</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="398" s="2" spans="1:4">
       <c r="B398" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="399" s="2" spans="1:3">
+        <v>1109</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="399" s="2" spans="1:4">
       <c r="B399" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="400" s="2" spans="1:3">
+        <v>1111</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="400" s="2" spans="1:4">
       <c r="B400" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="401" s="2" spans="1:3">
+        <v>1113</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="401" s="2" spans="1:4">
       <c r="B401" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="402" s="2" spans="1:3">
+        <v>1115</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="402" s="2" spans="1:4">
       <c r="B402" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="403" s="2" spans="1:3">
+        <v>1117</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="403" s="2" spans="1:4">
       <c r="B403" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="404" s="2" spans="1:3">
+        <v>1119</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="404" s="2" spans="1:4">
       <c r="B404" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="405" s="2" spans="1:3">
+        <v>1121</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="405" s="2" spans="1:4">
       <c r="B405" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="406" s="2" spans="1:3">
+        <v>1123</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="406" s="2" spans="1:4">
       <c r="B406" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="407" s="2" spans="1:3">
+        <v>1125</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="407" s="2" spans="1:4">
       <c r="B407" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="408" s="2" spans="1:3">
+        <v>1127</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="408" s="2" spans="1:4">
       <c r="B408" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="409" s="2" spans="1:3">
+        <v>1129</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="409" s="2" spans="1:4">
       <c r="B409" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="410" s="2" spans="1:3">
+        <v>1131</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="410" s="2" spans="1:4">
       <c r="B410" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="411" s="2" spans="1:3">
+        <v>1133</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="411" s="2" spans="1:4">
       <c r="B411" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="412" s="2" spans="1:3">
+        <v>1135</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="412" s="2" spans="1:4">
       <c r="B412" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="413" s="2" spans="1:3">
+        <v>1137</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="413" s="2" spans="1:4">
       <c r="B413" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="414" s="2" spans="1:3">
+        <v>1139</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="414" s="2" spans="1:4">
       <c r="B414" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="415" s="2" spans="1:3">
+        <v>1141</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="415" s="2" spans="1:4">
       <c r="B415" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="416" s="2" spans="1:3">
+        <v>1143</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="416" s="2" spans="1:4">
       <c r="B416" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="417" s="2" spans="1:3">
+        <v>1145</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="417" s="2" spans="1:4">
       <c r="B417" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="418" s="2" spans="1:3">
+        <v>1147</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="418" s="2" spans="1:4">
       <c r="B418" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="419" s="2" spans="1:3">
+        <v>1149</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="419" s="2" spans="1:4">
       <c r="B419" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="420" s="2" spans="1:3">
+        <v>1151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="420" s="2" spans="1:4">
       <c r="B420" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="421" s="2" spans="1:3">
+        <v>1152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="421" s="2" spans="1:4">
       <c r="B421" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="422" s="2" spans="1:3">
+        <v>1153</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="422" s="2" spans="1:4">
       <c r="B422" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="423" s="2" spans="1:3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="423" s="2" spans="1:4">
       <c r="B423" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="424" s="2" spans="1:3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="424" s="2" spans="1:4">
       <c r="B424" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="425" s="2" spans="1:3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="425" s="2" spans="1:4">
       <c r="B425" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="426" s="2" spans="1:3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="426" s="2" spans="1:4">
       <c r="B426" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="427" s="2" spans="1:3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="427" s="2" spans="1:4">
       <c r="B427" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="428" s="2" spans="1:3">
+        <v>1156</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="428" s="2" spans="1:4">
       <c r="B428" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="429" s="2" spans="1:3">
+        <v>1157</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="429" s="2" spans="1:4">
       <c r="B429" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="430" s="2" spans="1:3">
+        <v>1158</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="430" s="2" spans="1:4">
       <c r="B430" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="431" s="2" spans="1:3">
+        <v>1159</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="431" s="2" spans="1:4">
       <c r="B431" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="432" s="2" spans="1:3">
+        <v>1160</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="432" s="2" spans="1:4">
       <c r="B432" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="433" s="2" spans="1:3">
+        <v>1161</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="433" s="2" spans="1:4">
       <c r="B433" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="434" s="2" spans="1:3">
+        <v>1162</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="434" s="2" spans="1:4">
       <c r="B434" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="435" s="2" spans="1:3">
+        <v>1163</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="435" s="2" spans="1:4">
       <c r="B435" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="436" s="2" spans="1:3">
+        <v>1164</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="436" s="2" spans="1:4">
       <c r="B436" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="437" s="2" spans="1:3">
+        <v>1165</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="437" s="2" spans="1:4">
       <c r="B437" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="438" s="2" spans="1:3">
+        <v>1166</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="438" s="2" spans="1:4">
       <c r="B438" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="439" s="2" spans="1:3">
+        <v>1167</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="439" s="2" spans="1:4">
       <c r="B439" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="440" s="2" spans="1:3">
+        <v>1168</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="440" s="2" spans="1:4">
       <c r="B440" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="441" s="2" spans="1:3">
+        <v>1169</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="441" s="2" spans="1:4">
       <c r="B441" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="442" s="2" spans="1:3">
+        <v>1170</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="442" s="2" spans="1:4">
       <c r="B442" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="443" s="2" spans="1:3">
+        <v>1171</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="443" s="2" spans="1:4">
       <c r="B443" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="444" s="2" spans="1:3">
+        <v>1172</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="444" s="2" spans="1:4">
       <c r="B444" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="445" s="2" spans="1:3">
+        <v>1173</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="445" s="2" spans="1:4">
       <c r="B445" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="446" s="2" spans="1:3">
+        <v>1174</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="446" s="2" spans="1:4">
       <c r="B446" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="447" s="2" spans="1:3">
+        <v>1175</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="447" s="2" spans="1:4">
       <c r="B447" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="448" s="2" spans="1:3">
+        <v>1175</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="448" s="2" spans="1:4">
       <c r="B448" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="449" s="2" spans="1:3">
+        <v>1176</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="449" s="2" spans="1:4">
       <c r="B449" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="450" s="2" spans="1:3">
+        <v>1177</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="450" s="2" spans="1:4">
       <c r="B450" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="451" s="2" spans="1:3">
+        <v>1178</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="451" s="2" spans="1:4">
       <c r="B451" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="452" s="2" spans="1:3">
+        <v>1179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="452" s="2" spans="1:4">
       <c r="B452" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="453" s="2" spans="1:3">
+        <v>1180</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="453" s="2" spans="1:4">
       <c r="B453" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="454" s="2" spans="1:3">
+        <v>1181</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="454" s="2" spans="1:4">
       <c r="B454" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="455" s="2" spans="1:3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="455" s="2" spans="1:4">
       <c r="B455" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="456" s="2" spans="1:3">
+        <v>1183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="456" s="2" spans="1:4">
       <c r="B456" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="457" s="2" spans="1:3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="457" s="2" spans="1:4">
       <c r="B457" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="458" s="2" spans="1:3">
+        <v>1185</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="458" s="2" spans="1:4">
       <c r="B458" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="459" s="2" spans="1:3">
+        <v>1186</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="459" s="2" spans="1:4">
       <c r="B459" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="460" s="2" spans="1:3">
+        <v>1187</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="460" s="2" spans="1:4">
       <c r="B460" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="461" s="2" spans="1:3">
+        <v>1188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="461" s="2" spans="1:4">
       <c r="B461" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="462" s="2" spans="1:3">
+        <v>1189</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="462" s="2" spans="1:4">
       <c r="B462" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="463" s="2" spans="1:3">
+        <v>1190</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="463" s="2" spans="1:4">
       <c r="B463" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="464" s="2" spans="1:3">
+        <v>1191</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="464" s="2" spans="1:4">
       <c r="B464" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="465" s="2" spans="1:3">
+        <v>1192</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="465" s="2" spans="1:4">
       <c r="B465" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="466" s="2" spans="1:3">
+        <v>1193</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="466" s="2" spans="1:4">
       <c r="B466" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="467" s="2" spans="1:3">
+        <v>1194</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="467" s="2" spans="1:4">
       <c r="B467" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="468" s="2" spans="1:3">
+        <v>1195</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="468" s="2" spans="1:4">
       <c r="B468" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="469" s="2" spans="1:3">
+        <v>1196</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="469" s="2" spans="1:4">
       <c r="B469" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="470" s="2" spans="1:3">
+        <v>1197</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="470" s="2" spans="1:4">
       <c r="B470" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="471" s="2" spans="1:3">
+        <v>1198</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="471" s="2" spans="1:4">
       <c r="B471" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="472" s="2" spans="1:3">
+        <v>1199</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="472" s="2" spans="1:4">
       <c r="B472" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="473" s="2" spans="1:3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="473" s="2" spans="1:4">
       <c r="B473" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="474" s="2" spans="1:3">
+        <v>1201</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="474" s="2" spans="1:4">
       <c r="B474" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="475" s="2" spans="1:3">
+        <v>1202</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="475" s="2" spans="1:4">
       <c r="B475" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="476" s="2" spans="1:3">
+        <v>1203</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="476" s="2" spans="1:4">
       <c r="B476" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="477" s="2" spans="1:3">
+        <v>1204</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="477" s="2" spans="1:4">
       <c r="B477" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="478" s="2" spans="1:3">
+        <v>1205</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="478" s="2" spans="1:4">
       <c r="B478" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="479" s="2" spans="1:3">
+        <v>1206</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="479" s="2" spans="1:4">
       <c r="B479" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="480" s="2" spans="1:3">
+        <v>1207</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="480" s="2" spans="1:4">
       <c r="B480" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="481" s="2" spans="1:3">
+        <v>1207</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="481" s="2" spans="1:4">
       <c r="B481" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="482" s="2" spans="1:3">
+        <v>1207</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="482" s="2" spans="1:4">
       <c r="B482" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="483" s="2" spans="1:3">
+        <v>1208</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="483" s="2" spans="1:4">
       <c r="B483" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="484" s="2" spans="1:3">
+        <v>1209</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="484" s="2" spans="1:4">
       <c r="B484" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="485" s="2" spans="1:3">
+        <v>1210</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="485" s="2" spans="1:4">
       <c r="B485" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="486" s="2" spans="1:3">
+        <v>1211</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="486" s="2" spans="1:4">
       <c r="B486" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="487" s="2" spans="1:3">
+        <v>1212</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="487" s="2" spans="1:4">
       <c r="B487" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="488" s="2" spans="1:3">
+        <v>1213</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="488" s="2" spans="1:4">
       <c r="B488" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="489" s="2" spans="1:3">
+        <v>1214</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="489" s="2" spans="1:4">
       <c r="B489" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="490" s="2" spans="1:3">
+        <v>1215</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="490" s="2" spans="1:4">
       <c r="B490" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="491" s="2" spans="1:3">
+        <v>1216</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="491" s="2" spans="1:4">
       <c r="B491" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="492" s="2" spans="1:3">
+        <v>1217</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="492" s="2" spans="1:4">
       <c r="B492" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="493" s="2" spans="1:3">
+        <v>1218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="493" s="2" spans="1:4">
       <c r="B493" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="494" s="2" spans="1:3">
+        <v>1218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="494" s="2" spans="1:4">
       <c r="B494" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="495" s="2" spans="1:3">
+        <v>1219</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="495" s="2" spans="1:4">
       <c r="B495" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="496" s="2" spans="1:3">
+        <v>1220</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="496" s="2" spans="1:4">
       <c r="B496" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="497" s="2" spans="1:3">
+        <v>1221</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="497" s="2" spans="1:4">
       <c r="B497" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="498" s="2" spans="1:3">
+        <v>998</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="498" s="2" spans="1:4">
       <c r="B498" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="499" s="2" spans="1:3">
+        <v>1222</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="499" s="2" spans="1:4">
       <c r="B499" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="500" s="2" spans="1:3">
+        <v>1223</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="500" s="2" spans="1:4">
       <c r="B500" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="501" s="2" spans="1:3">
+        <v>1224</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="501" s="2" spans="1:4">
       <c r="B501" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="502" s="2" spans="1:3">
+        <v>1225</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="502" s="2" spans="1:4">
       <c r="B502" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="503" s="2" spans="1:3">
+        <v>1226</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="503" s="2" spans="1:4">
       <c r="B503" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="504" s="2" spans="1:3">
+        <v>1227</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="504" s="2" spans="1:4">
       <c r="B504" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="505" s="2" spans="1:3">
+        <v>1228</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="505" s="2" spans="1:4">
       <c r="B505" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="506" s="2" spans="1:3">
+        <v>1229</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="506" s="2" spans="1:4">
       <c r="B506" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="507" s="2" spans="1:3">
+        <v>1230</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="507" s="2" spans="1:4">
       <c r="B507" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="508" s="2" spans="1:3">
+        <v>1231</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="508" s="2" spans="1:4">
       <c r="B508" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="509" s="2" spans="1:3">
+        <v>1232</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="509" s="2" spans="1:4">
       <c r="B509" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="510" s="2" spans="1:3">
+        <v>1233</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="510" s="2" spans="1:4">
       <c r="B510" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="511" s="2" spans="1:3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="511" s="2" spans="1:4">
       <c r="B511" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="512" s="2" spans="1:3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="512" s="2" spans="1:4">
       <c r="B512" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="513" s="2" spans="1:3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="513" s="2" spans="1:4">
       <c r="B513" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="514" s="2" spans="1:3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="514" s="2" spans="1:4">
       <c r="B514" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="515" s="2" spans="1:3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="515" s="2" spans="1:4">
       <c r="B515" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="516" s="2" spans="1:3">
+        <v>1239</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="516" s="2" spans="1:4">
       <c r="B516" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="517" s="2" spans="1:3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="517" s="2" spans="1:4">
       <c r="B517" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="518" s="2" spans="1:3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="518" s="2" spans="1:4">
       <c r="B518" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="519" s="2" spans="1:3">
+        <v>1241</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="519" s="2" spans="1:4">
       <c r="B519" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="520" s="2" spans="1:3">
+        <v>1242</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="520" s="2" spans="1:4">
       <c r="B520" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="521" s="2" spans="1:3">
+        <v>1243</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="521" s="2" spans="1:4">
       <c r="B521" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="522" s="2" spans="1:3">
+        <v>1244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="522" s="2" spans="1:4">
       <c r="B522" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="523" s="2" spans="1:3">
+        <v>1245</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="523" s="2" spans="1:4">
       <c r="B523" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="524" s="2" spans="1:3">
+        <v>1246</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="524" s="2" spans="1:4">
       <c r="B524" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="525" s="2" spans="1:3">
+        <v>1247</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="525" s="2" spans="1:4">
       <c r="B525" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="526" s="2" spans="1:3">
+        <v>1248</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="526" s="2" spans="1:4">
       <c r="B526" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="527" s="2" spans="1:3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="527" s="2" spans="1:4">
       <c r="B527" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="528" s="2" spans="1:3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="528" s="2" spans="1:4">
       <c r="B528" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="529" s="2" spans="1:3">
+        <v>1251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="529" s="2" spans="1:4">
       <c r="B529" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="530" s="2" spans="1:3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="530" s="2" spans="1:4">
       <c r="B530" s="1" t="s">
-        <v>1015</v>
+        <v>1253</v>
       </c>
     </row>
   </sheetData>
@@ -7851,12 +9337,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1016</v>
+        <v>1254</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="2" s="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1017</v>
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
